--- a/db/stir.xlsx
+++ b/db/stir.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tms-load-robot\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WPy64-3741\notebooks\spyder\tms-load-robot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E9CE4CA-6EDB-44CC-9A25-ADD77D642FA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0140B3F7-6600-4732-8B10-B091C748EA7B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="91">
   <si>
     <t>Calera, AL</t>
   </si>
@@ -280,11 +279,35 @@
   <si>
     <t>Destination</t>
   </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>Garland, TX</t>
+  </si>
+  <si>
+    <t>Fontana, CA</t>
+  </si>
+  <si>
+    <t>Stockton, CA</t>
+  </si>
+  <si>
+    <t>Minooka, IL</t>
+  </si>
+  <si>
+    <t>Nazareth, PA</t>
+  </si>
+  <si>
+    <t>Irving, TX</t>
+  </si>
+  <si>
+    <t>Olympia, WA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -340,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -350,6 +373,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -664,23 +689,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF980ED3-ADB6-471A-8E3A-72C04D86C675}">
-  <dimension ref="A1:L159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -717,8 +742,20 @@
       <c r="L1" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -755,8 +792,20 @@
       <c r="L2" s="4">
         <v>3725</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
@@ -793,8 +842,20 @@
       <c r="L3" s="4">
         <v>3870</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -831,8 +892,20 @@
       <c r="L4" s="4">
         <v>2630</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -869,8 +942,20 @@
       <c r="L5" s="4">
         <v>4600</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -907,8 +992,20 @@
       <c r="L6" s="4">
         <v>4600</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -945,8 +1042,20 @@
       <c r="L7" s="4">
         <v>4270</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
@@ -983,8 +1092,20 @@
       <c r="L8" s="4">
         <v>3965</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>81</v>
       </c>
@@ -1021,8 +1142,20 @@
       <c r="L9" s="4">
         <v>3965</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>81</v>
       </c>
@@ -1059,8 +1192,20 @@
       <c r="L10" s="4">
         <v>4270</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
@@ -1097,8 +1242,20 @@
       <c r="L11" s="4">
         <v>4390</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -1135,8 +1292,20 @@
       <c r="L12" s="4">
         <v>4390</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>81</v>
       </c>
@@ -1173,8 +1342,20 @@
       <c r="L13" s="4">
         <v>4270</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -1211,8 +1392,20 @@
       <c r="L14" s="4">
         <v>4595</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -1249,8 +1442,20 @@
       <c r="L15" s="4">
         <v>3725</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -1287,8 +1492,20 @@
       <c r="L16" s="4">
         <v>3725</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
@@ -1325,8 +1542,20 @@
       <c r="L17" s="4">
         <v>3725</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
@@ -1363,8 +1592,20 @@
       <c r="L18" s="4">
         <v>3215</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -1401,8 +1642,20 @@
       <c r="L19" s="4">
         <v>3235</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -1439,8 +1692,20 @@
       <c r="L20" s="4">
         <v>3235</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -1477,8 +1742,20 @@
       <c r="L21" s="4">
         <v>3235</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1515,8 +1792,20 @@
       <c r="L22" s="4">
         <v>3235</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
@@ -1553,8 +1842,20 @@
       <c r="L23" s="4">
         <v>3235</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -1591,8 +1892,20 @@
       <c r="L24" s="4">
         <v>3750</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -1629,8 +1942,20 @@
       <c r="L25" s="4">
         <v>3840</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -1667,8 +1992,20 @@
       <c r="L26" s="4">
         <v>3170</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1705,8 +2042,20 @@
       <c r="L27" s="4">
         <v>3870</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -1743,8 +2092,20 @@
       <c r="L28" s="4">
         <v>4575</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -1781,8 +2142,20 @@
       <c r="L29" s="4">
         <v>4575</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -1819,8 +2192,20 @@
       <c r="L30" s="4">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -1857,8 +2242,20 @@
       <c r="L31" s="4">
         <v>4360</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
@@ -1895,8 +2292,20 @@
       <c r="L32" s="4">
         <v>4030</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
@@ -1933,8 +2342,20 @@
       <c r="L33" s="4">
         <v>4360</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
@@ -1971,8 +2392,20 @@
       <c r="L34" s="4">
         <v>4425</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
@@ -2009,8 +2442,20 @@
       <c r="L35" s="4">
         <v>4005</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -2047,8 +2492,20 @@
       <c r="L36" s="4">
         <v>4280</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
@@ -2085,8 +2542,20 @@
       <c r="L37" s="4">
         <v>4200</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2123,8 +2592,20 @@
       <c r="L38" s="4">
         <v>3750</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
@@ -2161,8 +2642,20 @@
       <c r="L39" s="4">
         <v>3750</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
@@ -2199,8 +2692,20 @@
       <c r="L40" s="4">
         <v>3400</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -2237,8 +2742,20 @@
       <c r="L41" s="4">
         <v>4370</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -2275,8 +2792,20 @@
       <c r="L42" s="4">
         <v>4200</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
@@ -2313,8 +2842,20 @@
       <c r="L43" s="4">
         <v>4200</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -2351,8 +2892,20 @@
       <c r="L44" s="4">
         <v>4270</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -2389,8 +2942,20 @@
       <c r="L45" s="4">
         <v>4200</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>81</v>
       </c>
@@ -2427,8 +2992,20 @@
       <c r="L46" s="4">
         <v>4200</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>81</v>
       </c>
@@ -2465,8 +3042,20 @@
       <c r="L47" s="4">
         <v>4200</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>81</v>
       </c>
@@ -2503,8 +3092,20 @@
       <c r="L48" s="4">
         <v>4200</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
@@ -2541,8 +3142,20 @@
       <c r="L49" s="4">
         <v>4635</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>81</v>
       </c>
@@ -2579,8 +3192,20 @@
       <c r="L50" s="4">
         <v>4635</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>81</v>
       </c>
@@ -2617,8 +3242,20 @@
       <c r="L51" s="4">
         <v>3965</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>81</v>
       </c>
@@ -2655,8 +3292,20 @@
       <c r="L52" s="4">
         <v>3965</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
@@ -2693,8 +3342,20 @@
       <c r="L53" s="4">
         <v>3965</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
@@ -2731,8 +3392,20 @@
       <c r="L54" s="4">
         <v>3965</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
@@ -2769,8 +3442,20 @@
       <c r="L55" s="4">
         <v>3965</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>81</v>
       </c>
@@ -2807,8 +3492,20 @@
       <c r="L56" s="4">
         <v>3330</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>81</v>
       </c>
@@ -2845,8 +3542,20 @@
       <c r="L57" s="4">
         <v>2720</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="4">
+        <v>0</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
@@ -2883,8 +3592,20 @@
       <c r="L58" s="4">
         <v>4200</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>81</v>
       </c>
@@ -2921,8 +3642,20 @@
       <c r="L59" s="4">
         <v>4635</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
@@ -2959,8 +3692,20 @@
       <c r="L60" s="4">
         <v>4370</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="4">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>81</v>
       </c>
@@ -2997,8 +3742,20 @@
       <c r="L61" s="4">
         <v>4370</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+      <c r="N61" s="4">
+        <v>0</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>81</v>
       </c>
@@ -3035,8 +3792,20 @@
       <c r="L62" s="4">
         <v>3870</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
@@ -3073,13 +3842,25 @@
       <c r="L63" s="4">
         <v>2850</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C64" s="4">
         <v>585</v>
@@ -3111,89 +3892,125 @@
       <c r="L64" s="4">
         <v>2850</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="4">
+        <v>0</v>
+      </c>
+      <c r="N64" s="4">
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="4">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="D65" s="4">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="E65" s="4">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="F65" s="4">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="G65" s="4">
-        <v>1750</v>
+        <v>1525</v>
       </c>
       <c r="H65" s="4">
-        <v>2050</v>
+        <v>1800</v>
       </c>
       <c r="I65" s="4">
-        <v>2360</v>
+        <v>2065</v>
       </c>
       <c r="J65" s="4">
-        <v>2645</v>
+        <v>2320</v>
       </c>
       <c r="K65" s="4">
-        <v>2920</v>
+        <v>2600</v>
       </c>
       <c r="L65" s="4">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2850</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C66" s="4">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="D66" s="4">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="E66" s="4">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="F66" s="4">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="G66" s="4">
-        <v>1750</v>
+        <v>1525</v>
       </c>
       <c r="H66" s="4">
-        <v>2050</v>
+        <v>1800</v>
       </c>
       <c r="I66" s="4">
-        <v>2360</v>
+        <v>2065</v>
       </c>
       <c r="J66" s="4">
-        <v>2645</v>
+        <v>2320</v>
       </c>
       <c r="K66" s="4">
-        <v>2920</v>
+        <v>2600</v>
       </c>
       <c r="L66" s="4">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2850</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4">
         <v>625</v>
@@ -3225,51 +4042,75 @@
       <c r="L67" s="4">
         <v>3180</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C68" s="4">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="D68" s="4">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="E68" s="4">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="F68" s="4">
-        <v>1315</v>
+        <v>1450</v>
       </c>
       <c r="G68" s="4">
-        <v>1615</v>
+        <v>1750</v>
       </c>
       <c r="H68" s="4">
-        <v>1880</v>
+        <v>2050</v>
       </c>
       <c r="I68" s="4">
-        <v>2110</v>
+        <v>2360</v>
       </c>
       <c r="J68" s="4">
-        <v>2375</v>
+        <v>2645</v>
       </c>
       <c r="K68" s="4">
-        <v>2610</v>
+        <v>2920</v>
       </c>
       <c r="L68" s="4">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3180</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4">
+        <v>0</v>
+      </c>
+      <c r="O68" s="4">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" s="4">
         <v>625</v>
@@ -3301,203 +4142,275 @@
       <c r="L69" s="4">
         <v>3180</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" s="4">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="D70" s="4">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="E70" s="4">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="F70" s="4">
-        <v>1450</v>
+        <v>1315</v>
       </c>
       <c r="G70" s="4">
-        <v>1750</v>
+        <v>1615</v>
       </c>
       <c r="H70" s="4">
-        <v>2050</v>
+        <v>1880</v>
       </c>
       <c r="I70" s="4">
-        <v>2360</v>
+        <v>2110</v>
       </c>
       <c r="J70" s="4">
-        <v>2645</v>
+        <v>2375</v>
       </c>
       <c r="K70" s="4">
-        <v>2920</v>
+        <v>2610</v>
       </c>
       <c r="L70" s="4">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2830</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
+      <c r="N70" s="4">
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
+      <c r="P70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C71" s="4">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="D71" s="4">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E71" s="4">
-        <v>1025</v>
+        <v>1155</v>
       </c>
       <c r="F71" s="4">
-        <v>1245</v>
+        <v>1450</v>
       </c>
       <c r="G71" s="4">
-        <v>1515</v>
+        <v>1750</v>
       </c>
       <c r="H71" s="4">
-        <v>1645</v>
+        <v>2050</v>
       </c>
       <c r="I71" s="4">
-        <v>1880</v>
+        <v>2360</v>
       </c>
       <c r="J71" s="4">
-        <v>2025</v>
+        <v>2645</v>
       </c>
       <c r="K71" s="4">
-        <v>2245</v>
+        <v>2920</v>
       </c>
       <c r="L71" s="4">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3180</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="D72" s="4">
-        <v>695</v>
+        <v>800</v>
       </c>
       <c r="E72" s="4">
-        <v>975</v>
+        <v>1155</v>
       </c>
       <c r="F72" s="4">
-        <v>1150</v>
+        <v>1450</v>
       </c>
       <c r="G72" s="4">
-        <v>1325</v>
+        <v>1750</v>
       </c>
       <c r="H72" s="4">
-        <v>1485</v>
+        <v>2050</v>
       </c>
       <c r="I72" s="4">
-        <v>1690</v>
+        <v>2360</v>
       </c>
       <c r="J72" s="4">
-        <v>1800</v>
+        <v>2645</v>
       </c>
       <c r="K72" s="4">
-        <v>1990</v>
+        <v>2920</v>
       </c>
       <c r="L72" s="4">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3180</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="D73" s="4">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="E73" s="4">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="F73" s="4">
-        <v>1375</v>
+        <v>1245</v>
       </c>
       <c r="G73" s="4">
-        <v>1585</v>
+        <v>1515</v>
       </c>
       <c r="H73" s="4">
-        <v>1870</v>
+        <v>1645</v>
       </c>
       <c r="I73" s="4">
-        <v>2160</v>
+        <v>1880</v>
       </c>
       <c r="J73" s="4">
-        <v>2440</v>
+        <v>2025</v>
       </c>
       <c r="K73" s="4">
-        <v>2730</v>
+        <v>2245</v>
       </c>
       <c r="L73" s="4">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2370</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" s="4">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="D74" s="4">
         <v>695</v>
       </c>
       <c r="E74" s="4">
-        <v>1035</v>
+        <v>975</v>
       </c>
       <c r="F74" s="4">
-        <v>1375</v>
+        <v>1150</v>
       </c>
       <c r="G74" s="4">
-        <v>1585</v>
+        <v>1325</v>
       </c>
       <c r="H74" s="4">
-        <v>1870</v>
+        <v>1485</v>
       </c>
       <c r="I74" s="4">
-        <v>2160</v>
+        <v>1690</v>
       </c>
       <c r="J74" s="4">
-        <v>2440</v>
+        <v>1800</v>
       </c>
       <c r="K74" s="4">
-        <v>2730</v>
+        <v>1990</v>
       </c>
       <c r="L74" s="4">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2085</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4">
+        <v>0</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="4">
         <v>485</v>
@@ -3529,51 +4442,75 @@
       <c r="L75" s="4">
         <v>2985</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
+      <c r="N75" s="4">
+        <v>0</v>
+      </c>
+      <c r="O75" s="4">
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76" s="4">
-        <v>760</v>
+        <v>485</v>
       </c>
       <c r="D76" s="4">
-        <v>1060</v>
+        <v>695</v>
       </c>
       <c r="E76" s="4">
-        <v>1325</v>
+        <v>1035</v>
       </c>
       <c r="F76" s="4">
-        <v>1655</v>
+        <v>1375</v>
       </c>
       <c r="G76" s="4">
-        <v>1750</v>
+        <v>1585</v>
       </c>
       <c r="H76" s="4">
-        <v>2075</v>
+        <v>1870</v>
       </c>
       <c r="I76" s="4">
-        <v>2390</v>
+        <v>2160</v>
       </c>
       <c r="J76" s="4">
-        <v>2655</v>
+        <v>2440</v>
       </c>
       <c r="K76" s="4">
-        <v>2945</v>
+        <v>2730</v>
       </c>
       <c r="L76" s="4">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2985</v>
+      </c>
+      <c r="M76" s="4">
+        <v>0</v>
+      </c>
+      <c r="N76" s="4">
+        <v>0</v>
+      </c>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77" s="4">
         <v>485</v>
@@ -3605,89 +4542,125 @@
       <c r="L77" s="4">
         <v>2985</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+      <c r="N77" s="4">
+        <v>0</v>
+      </c>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" s="4">
-        <v>525</v>
+        <v>760</v>
       </c>
       <c r="D78" s="4">
-        <v>840</v>
+        <v>1060</v>
       </c>
       <c r="E78" s="4">
-        <v>1150</v>
+        <v>1325</v>
       </c>
       <c r="F78" s="4">
-        <v>1500</v>
+        <v>1655</v>
       </c>
       <c r="G78" s="4">
-        <v>1705</v>
+        <v>1750</v>
       </c>
       <c r="H78" s="4">
-        <v>2025</v>
+        <v>2075</v>
       </c>
       <c r="I78" s="4">
-        <v>2345</v>
+        <v>2390</v>
       </c>
       <c r="J78" s="4">
-        <v>2660</v>
+        <v>2655</v>
       </c>
       <c r="K78" s="4">
-        <v>2960</v>
+        <v>2945</v>
       </c>
       <c r="L78" s="4">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3225</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" s="4">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="D79" s="4">
-        <v>840</v>
+        <v>695</v>
       </c>
       <c r="E79" s="4">
-        <v>1150</v>
+        <v>1035</v>
       </c>
       <c r="F79" s="4">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="G79" s="4">
-        <v>1705</v>
+        <v>1585</v>
       </c>
       <c r="H79" s="4">
-        <v>2025</v>
+        <v>1870</v>
       </c>
       <c r="I79" s="4">
-        <v>2345</v>
+        <v>2160</v>
       </c>
       <c r="J79" s="4">
-        <v>2660</v>
+        <v>2440</v>
       </c>
       <c r="K79" s="4">
-        <v>2960</v>
+        <v>2730</v>
       </c>
       <c r="L79" s="4">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2985</v>
+      </c>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+      <c r="N79" s="4">
+        <v>0</v>
+      </c>
+      <c r="O79" s="4">
+        <v>0</v>
+      </c>
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C80" s="4">
         <v>525</v>
@@ -3719,279 +4692,375 @@
       <c r="L80" s="4">
         <v>3235</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="N80" s="4">
+        <v>0</v>
+      </c>
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C81" s="4">
-        <v>745</v>
+        <v>525</v>
       </c>
       <c r="D81" s="4">
-        <v>1230</v>
+        <v>840</v>
       </c>
       <c r="E81" s="4">
-        <v>1755</v>
+        <v>1150</v>
       </c>
       <c r="F81" s="4">
-        <v>2220</v>
+        <v>1500</v>
       </c>
       <c r="G81" s="4">
-        <v>2500</v>
+        <v>1705</v>
       </c>
       <c r="H81" s="4">
-        <v>2855</v>
+        <v>2025</v>
       </c>
       <c r="I81" s="4">
-        <v>3030</v>
+        <v>2345</v>
       </c>
       <c r="J81" s="4">
-        <v>3340</v>
+        <v>2660</v>
       </c>
       <c r="K81" s="4">
-        <v>3720</v>
+        <v>2960</v>
       </c>
       <c r="L81" s="4">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3235</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C82" s="4">
-        <v>845</v>
+        <v>525</v>
       </c>
       <c r="D82" s="4">
-        <v>1170</v>
+        <v>840</v>
       </c>
       <c r="E82" s="4">
-        <v>1660</v>
+        <v>1150</v>
       </c>
       <c r="F82" s="4">
-        <v>2180</v>
+        <v>1500</v>
       </c>
       <c r="G82" s="4">
-        <v>2630</v>
+        <v>1705</v>
       </c>
       <c r="H82" s="4">
-        <v>2720</v>
+        <v>2025</v>
       </c>
       <c r="I82" s="4">
-        <v>3110</v>
+        <v>2345</v>
       </c>
       <c r="J82" s="4">
-        <v>3490</v>
+        <v>2660</v>
       </c>
       <c r="K82" s="4">
-        <v>3860</v>
+        <v>2960</v>
       </c>
       <c r="L82" s="4">
-        <v>4170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3235</v>
+      </c>
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" s="4">
-        <v>550</v>
+        <v>745</v>
       </c>
       <c r="D83" s="4">
-        <v>870</v>
+        <v>1230</v>
       </c>
       <c r="E83" s="4">
-        <v>1245</v>
+        <v>1755</v>
       </c>
       <c r="F83" s="4">
-        <v>1530</v>
+        <v>2220</v>
       </c>
       <c r="G83" s="4">
-        <v>1785</v>
+        <v>2500</v>
       </c>
       <c r="H83" s="4">
-        <v>2050</v>
+        <v>2855</v>
       </c>
       <c r="I83" s="4">
-        <v>2315</v>
+        <v>3030</v>
       </c>
       <c r="J83" s="4">
-        <v>2550</v>
+        <v>3340</v>
       </c>
       <c r="K83" s="4">
-        <v>2780</v>
+        <v>3720</v>
       </c>
       <c r="L83" s="4">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4025</v>
+      </c>
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84" s="4">
         <v>845</v>
       </c>
       <c r="D84" s="4">
-        <v>1260</v>
+        <v>1170</v>
       </c>
       <c r="E84" s="4">
-        <v>1785</v>
+        <v>1660</v>
       </c>
       <c r="F84" s="4">
-        <v>2320</v>
+        <v>2180</v>
       </c>
       <c r="G84" s="4">
+        <v>2630</v>
+      </c>
+      <c r="H84" s="4">
         <v>2720</v>
       </c>
-      <c r="H84" s="4">
-        <v>3230</v>
-      </c>
       <c r="I84" s="4">
-        <v>3710</v>
+        <v>3110</v>
       </c>
       <c r="J84" s="4">
-        <v>4140</v>
+        <v>3490</v>
       </c>
       <c r="K84" s="4">
-        <v>4570</v>
+        <v>3860</v>
       </c>
       <c r="L84" s="4">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4170</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4">
-        <v>820</v>
+        <v>550</v>
       </c>
       <c r="D85" s="4">
-        <v>1250</v>
+        <v>870</v>
       </c>
       <c r="E85" s="4">
-        <v>1765</v>
+        <v>1245</v>
       </c>
       <c r="F85" s="4">
-        <v>2305</v>
+        <v>1530</v>
       </c>
       <c r="G85" s="4">
-        <v>2695</v>
+        <v>1785</v>
       </c>
       <c r="H85" s="4">
-        <v>3175</v>
+        <v>2050</v>
       </c>
       <c r="I85" s="4">
-        <v>3625</v>
+        <v>2315</v>
       </c>
       <c r="J85" s="4">
-        <v>4025</v>
+        <v>2550</v>
       </c>
       <c r="K85" s="4">
-        <v>4425</v>
+        <v>2780</v>
       </c>
       <c r="L85" s="4">
-        <v>4725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2960</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C86" s="4">
-        <v>795</v>
+        <v>845</v>
       </c>
       <c r="D86" s="4">
-        <v>1065</v>
+        <v>1260</v>
       </c>
       <c r="E86" s="4">
-        <v>1485</v>
+        <v>1785</v>
       </c>
       <c r="F86" s="4">
-        <v>1965</v>
+        <v>2320</v>
       </c>
       <c r="G86" s="4">
-        <v>2410</v>
+        <v>2720</v>
       </c>
       <c r="H86" s="4">
-        <v>2870</v>
+        <v>3230</v>
       </c>
       <c r="I86" s="4">
-        <v>3335</v>
+        <v>3710</v>
       </c>
       <c r="J86" s="4">
-        <v>3780</v>
+        <v>4140</v>
       </c>
       <c r="K86" s="4">
-        <v>4180</v>
+        <v>4570</v>
       </c>
       <c r="L86" s="4">
-        <v>4520</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4900</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
+      <c r="N86" s="4">
+        <v>0</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C87" s="4">
-        <v>795</v>
+        <v>820</v>
       </c>
       <c r="D87" s="4">
-        <v>1055</v>
+        <v>1250</v>
       </c>
       <c r="E87" s="4">
-        <v>1535</v>
+        <v>1765</v>
       </c>
       <c r="F87" s="4">
-        <v>1940</v>
+        <v>2305</v>
       </c>
       <c r="G87" s="4">
-        <v>2300</v>
+        <v>2695</v>
       </c>
       <c r="H87" s="4">
-        <v>2705</v>
+        <v>3175</v>
       </c>
       <c r="I87" s="4">
-        <v>3110</v>
+        <v>3625</v>
       </c>
       <c r="J87" s="4">
-        <v>3505</v>
+        <v>4025</v>
       </c>
       <c r="K87" s="4">
-        <v>3890</v>
+        <v>4425</v>
       </c>
       <c r="L87" s="4">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4725</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" s="4">
         <v>795</v>
@@ -4003,808 +5072,1060 @@
         <v>1485</v>
       </c>
       <c r="F88" s="4">
-        <v>1840</v>
+        <v>1965</v>
       </c>
       <c r="G88" s="4">
-        <v>2285</v>
+        <v>2410</v>
       </c>
       <c r="H88" s="4">
-        <v>2675</v>
+        <v>2870</v>
       </c>
       <c r="I88" s="4">
-        <v>3075</v>
+        <v>3335</v>
       </c>
       <c r="J88" s="4">
-        <v>3464</v>
+        <v>3780</v>
       </c>
       <c r="K88" s="4">
-        <v>3845</v>
+        <v>4180</v>
       </c>
       <c r="L88" s="4">
-        <v>4215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4520</v>
+      </c>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0</v>
+      </c>
+      <c r="O88" s="4">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" s="4">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="D89" s="4">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="E89" s="4">
-        <v>1505</v>
+        <v>1535</v>
       </c>
       <c r="F89" s="4">
-        <v>1980</v>
+        <v>1940</v>
       </c>
       <c r="G89" s="4">
-        <v>2435</v>
+        <v>2300</v>
       </c>
       <c r="H89" s="4">
-        <v>2900</v>
+        <v>2705</v>
       </c>
       <c r="I89" s="4">
-        <v>3370</v>
+        <v>3110</v>
       </c>
       <c r="J89" s="4">
-        <v>3820</v>
+        <v>3505</v>
       </c>
       <c r="K89" s="4">
-        <v>4220</v>
+        <v>3890</v>
       </c>
       <c r="L89" s="4">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4265</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0</v>
+      </c>
+      <c r="N89" s="4">
+        <v>0</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+      <c r="P89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C90" s="4">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="D90" s="4">
-        <v>1135</v>
+        <v>1065</v>
       </c>
       <c r="E90" s="4">
-        <v>1670</v>
+        <v>1485</v>
       </c>
       <c r="F90" s="4">
-        <v>2190</v>
+        <v>1840</v>
       </c>
       <c r="G90" s="4">
-        <v>2645</v>
+        <v>2285</v>
       </c>
       <c r="H90" s="4">
-        <v>3060</v>
+        <v>2675</v>
       </c>
       <c r="I90" s="4">
-        <v>3490</v>
+        <v>3075</v>
       </c>
       <c r="J90" s="4">
-        <v>3930</v>
+        <v>3464</v>
       </c>
       <c r="K90" s="4">
-        <v>4275</v>
+        <v>3845</v>
       </c>
       <c r="L90" s="4">
-        <v>4690</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4215</v>
+      </c>
+      <c r="M90" s="4">
+        <v>0</v>
+      </c>
+      <c r="N90" s="4">
+        <v>0</v>
+      </c>
+      <c r="O90" s="4">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C91" s="4">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="D91" s="4">
-        <v>1135</v>
+        <v>1070</v>
       </c>
       <c r="E91" s="4">
-        <v>1670</v>
+        <v>1505</v>
       </c>
       <c r="F91" s="4">
-        <v>2190</v>
+        <v>1980</v>
       </c>
       <c r="G91" s="4">
-        <v>2645</v>
+        <v>2435</v>
       </c>
       <c r="H91" s="4">
-        <v>3060</v>
+        <v>2900</v>
       </c>
       <c r="I91" s="4">
-        <v>3490</v>
+        <v>3370</v>
       </c>
       <c r="J91" s="4">
-        <v>3930</v>
+        <v>3820</v>
       </c>
       <c r="K91" s="4">
-        <v>4275</v>
+        <v>4220</v>
       </c>
       <c r="L91" s="4">
-        <v>4690</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4570</v>
+      </c>
+      <c r="M91" s="4">
+        <v>0</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
+      <c r="O91" s="4">
+        <v>0</v>
+      </c>
+      <c r="P91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C92" s="4">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="D92" s="4">
-        <v>1070</v>
+        <v>1135</v>
       </c>
       <c r="E92" s="4">
-        <v>1505</v>
+        <v>1670</v>
       </c>
       <c r="F92" s="4">
-        <v>1980</v>
+        <v>2190</v>
       </c>
       <c r="G92" s="4">
-        <v>2435</v>
+        <v>2645</v>
       </c>
       <c r="H92" s="4">
-        <v>2900</v>
+        <v>3060</v>
       </c>
       <c r="I92" s="4">
-        <v>3370</v>
+        <v>3490</v>
       </c>
       <c r="J92" s="4">
-        <v>3820</v>
+        <v>3930</v>
       </c>
       <c r="K92" s="4">
-        <v>4220</v>
+        <v>4275</v>
       </c>
       <c r="L92" s="4">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4690</v>
+      </c>
+      <c r="M92" s="4">
+        <v>0</v>
+      </c>
+      <c r="N92" s="4">
+        <v>0</v>
+      </c>
+      <c r="O92" s="4">
+        <v>0</v>
+      </c>
+      <c r="P92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C93" s="4">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="D93" s="4">
-        <v>1180</v>
+        <v>1135</v>
       </c>
       <c r="E93" s="4">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="F93" s="4">
-        <v>2080</v>
+        <v>2190</v>
       </c>
       <c r="G93" s="4">
-        <v>2530</v>
+        <v>2645</v>
       </c>
       <c r="H93" s="4">
-        <v>2940</v>
+        <v>3060</v>
       </c>
       <c r="I93" s="4">
-        <v>3390</v>
+        <v>3490</v>
       </c>
       <c r="J93" s="4">
-        <v>3860</v>
+        <v>3930</v>
       </c>
       <c r="K93" s="4">
-        <v>4250</v>
+        <v>4275</v>
       </c>
       <c r="L93" s="4">
-        <v>4620</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4690</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
+      <c r="P93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C94" s="4">
-        <v>695</v>
+        <v>810</v>
       </c>
       <c r="D94" s="4">
-        <v>985</v>
+        <v>1070</v>
       </c>
       <c r="E94" s="4">
-        <v>1365</v>
+        <v>1505</v>
       </c>
       <c r="F94" s="4">
-        <v>1760</v>
+        <v>1980</v>
       </c>
       <c r="G94" s="4">
-        <v>2100</v>
+        <v>2435</v>
       </c>
       <c r="H94" s="4">
-        <v>2460</v>
+        <v>2900</v>
       </c>
       <c r="I94" s="4">
-        <v>2775</v>
+        <v>3370</v>
       </c>
       <c r="J94" s="4">
-        <v>3140</v>
+        <v>3820</v>
       </c>
       <c r="K94" s="4">
-        <v>3490</v>
+        <v>4220</v>
       </c>
       <c r="L94" s="4">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4570</v>
+      </c>
+      <c r="M94" s="4">
+        <v>0</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0</v>
+      </c>
+      <c r="P94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C95" s="4">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="D95" s="4">
-        <v>955</v>
+        <v>1180</v>
       </c>
       <c r="E95" s="4">
-        <v>1385</v>
+        <v>1660</v>
       </c>
       <c r="F95" s="4">
-        <v>1790</v>
+        <v>2080</v>
       </c>
       <c r="G95" s="4">
-        <v>2185</v>
+        <v>2530</v>
       </c>
       <c r="H95" s="4">
-        <v>2590</v>
+        <v>2940</v>
       </c>
       <c r="I95" s="4">
-        <v>2985</v>
+        <v>3390</v>
       </c>
       <c r="J95" s="4">
-        <v>3340</v>
+        <v>3860</v>
       </c>
       <c r="K95" s="4">
-        <v>3720</v>
+        <v>4250</v>
       </c>
       <c r="L95" s="4">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4620</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+      <c r="P95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C96" s="4">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="D96" s="4">
-        <v>955</v>
+        <v>985</v>
       </c>
       <c r="E96" s="4">
-        <v>1385</v>
+        <v>1365</v>
       </c>
       <c r="F96" s="4">
-        <v>1790</v>
+        <v>1760</v>
       </c>
       <c r="G96" s="4">
-        <v>2185</v>
+        <v>2100</v>
       </c>
       <c r="H96" s="4">
-        <v>2590</v>
+        <v>2460</v>
       </c>
       <c r="I96" s="4">
-        <v>2985</v>
+        <v>2775</v>
       </c>
       <c r="J96" s="4">
-        <v>3340</v>
+        <v>3140</v>
       </c>
       <c r="K96" s="4">
-        <v>3720</v>
+        <v>3490</v>
       </c>
       <c r="L96" s="4">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3850</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0</v>
+      </c>
+      <c r="N96" s="4">
+        <v>0</v>
+      </c>
+      <c r="O96" s="4">
+        <v>0</v>
+      </c>
+      <c r="P96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C97" s="4">
-        <v>815</v>
+        <v>675</v>
       </c>
       <c r="D97" s="4">
-        <v>1120</v>
+        <v>955</v>
       </c>
       <c r="E97" s="4">
-        <v>1245</v>
+        <v>1385</v>
       </c>
       <c r="F97" s="4">
-        <v>1620</v>
+        <v>1790</v>
       </c>
       <c r="G97" s="4">
-        <v>1925</v>
+        <v>2185</v>
       </c>
       <c r="H97" s="4">
-        <v>2200</v>
+        <v>2590</v>
       </c>
       <c r="I97" s="4">
-        <v>2550</v>
+        <v>2985</v>
       </c>
       <c r="J97" s="4">
-        <v>2865</v>
+        <v>3340</v>
       </c>
       <c r="K97" s="4">
-        <v>3165</v>
+        <v>3720</v>
       </c>
       <c r="L97" s="4">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4025</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0</v>
+      </c>
+      <c r="N97" s="4">
+        <v>0</v>
+      </c>
+      <c r="O97" s="4">
+        <v>0</v>
+      </c>
+      <c r="P97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C98" s="4">
-        <v>535</v>
+        <v>675</v>
       </c>
       <c r="D98" s="4">
-        <v>830</v>
+        <v>955</v>
       </c>
       <c r="E98" s="4">
-        <v>1170</v>
+        <v>1385</v>
       </c>
       <c r="F98" s="4">
-        <v>1530</v>
+        <v>1790</v>
       </c>
       <c r="G98" s="4">
-        <v>1855</v>
+        <v>2185</v>
       </c>
       <c r="H98" s="4">
-        <v>2205</v>
+        <v>2590</v>
       </c>
       <c r="I98" s="4">
-        <v>2555</v>
+        <v>2985</v>
       </c>
       <c r="J98" s="4">
-        <v>2900</v>
+        <v>3340</v>
       </c>
       <c r="K98" s="4">
-        <v>3230</v>
+        <v>3720</v>
       </c>
       <c r="L98" s="4">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4025</v>
+      </c>
+      <c r="M98" s="4">
+        <v>0</v>
+      </c>
+      <c r="N98" s="4">
+        <v>0</v>
+      </c>
+      <c r="O98" s="4">
+        <v>0</v>
+      </c>
+      <c r="P98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C99" s="4">
-        <v>535</v>
+        <v>815</v>
       </c>
       <c r="D99" s="4">
-        <v>830</v>
+        <v>1120</v>
       </c>
       <c r="E99" s="4">
-        <v>1170</v>
+        <v>1245</v>
       </c>
       <c r="F99" s="4">
-        <v>1530</v>
+        <v>1620</v>
       </c>
       <c r="G99" s="4">
-        <v>1855</v>
+        <v>1925</v>
       </c>
       <c r="H99" s="4">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="I99" s="4">
-        <v>2555</v>
+        <v>2550</v>
       </c>
       <c r="J99" s="4">
-        <v>2900</v>
+        <v>2865</v>
       </c>
       <c r="K99" s="4">
-        <v>3230</v>
+        <v>3165</v>
       </c>
       <c r="L99" s="4">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3485</v>
+      </c>
+      <c r="M99" s="4">
+        <v>0</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0</v>
+      </c>
+      <c r="O99" s="4">
+        <v>0</v>
+      </c>
+      <c r="P99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C100" s="4">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="D100" s="4">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="E100" s="4">
-        <v>1150</v>
+        <v>1170</v>
       </c>
       <c r="F100" s="4">
-        <v>1515</v>
+        <v>1530</v>
       </c>
       <c r="G100" s="4">
-        <v>1830</v>
+        <v>1855</v>
       </c>
       <c r="H100" s="4">
-        <v>2150</v>
+        <v>2205</v>
       </c>
       <c r="I100" s="4">
-        <v>2550</v>
+        <v>2555</v>
       </c>
       <c r="J100" s="4">
-        <v>2725</v>
+        <v>2900</v>
       </c>
       <c r="K100" s="4">
-        <v>3165</v>
+        <v>3230</v>
       </c>
       <c r="L100" s="4">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3535</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
+      <c r="N100" s="4">
+        <v>0</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0</v>
+      </c>
+      <c r="P100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C101" s="4">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="D101" s="4">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="E101" s="4">
-        <v>1150</v>
+        <v>1170</v>
       </c>
       <c r="F101" s="4">
-        <v>1515</v>
+        <v>1530</v>
       </c>
       <c r="G101" s="4">
-        <v>1830</v>
+        <v>1855</v>
       </c>
       <c r="H101" s="4">
-        <v>2150</v>
+        <v>2205</v>
       </c>
       <c r="I101" s="4">
-        <v>2550</v>
+        <v>2555</v>
       </c>
       <c r="J101" s="4">
-        <v>2725</v>
+        <v>2900</v>
       </c>
       <c r="K101" s="4">
-        <v>3165</v>
+        <v>3230</v>
       </c>
       <c r="L101" s="4">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3535</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0</v>
+      </c>
+      <c r="N101" s="4">
+        <v>0</v>
+      </c>
+      <c r="O101" s="4">
+        <v>0</v>
+      </c>
+      <c r="P101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C102" s="4">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D102" s="4">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E102" s="4">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="F102" s="4">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="G102" s="4">
-        <v>1855</v>
+        <v>1830</v>
       </c>
       <c r="H102" s="4">
-        <v>2205</v>
+        <v>2150</v>
       </c>
       <c r="I102" s="4">
-        <v>2555</v>
+        <v>2550</v>
       </c>
       <c r="J102" s="4">
-        <v>2900</v>
+        <v>2725</v>
       </c>
       <c r="K102" s="4">
-        <v>3230</v>
+        <v>3165</v>
       </c>
       <c r="L102" s="4">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3485</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0</v>
+      </c>
+      <c r="P102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C103" s="4">
-        <v>635</v>
+        <v>525</v>
       </c>
       <c r="D103" s="4">
-        <v>930</v>
+        <v>820</v>
       </c>
       <c r="E103" s="4">
-        <v>1370</v>
+        <v>1150</v>
       </c>
       <c r="F103" s="4">
-        <v>1790</v>
+        <v>1515</v>
       </c>
       <c r="G103" s="4">
-        <v>2155</v>
+        <v>1830</v>
       </c>
       <c r="H103" s="4">
-        <v>2545</v>
+        <v>2150</v>
       </c>
       <c r="I103" s="4">
-        <v>2920</v>
+        <v>2550</v>
       </c>
       <c r="J103" s="4">
-        <v>3295</v>
+        <v>2725</v>
       </c>
       <c r="K103" s="4">
-        <v>3680</v>
+        <v>3165</v>
       </c>
       <c r="L103" s="4">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3485</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0</v>
+      </c>
+      <c r="N103" s="4">
+        <v>0</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0</v>
+      </c>
+      <c r="P103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C104" s="4">
-        <v>715</v>
+        <v>535</v>
       </c>
       <c r="D104" s="4">
-        <v>1130</v>
+        <v>830</v>
       </c>
       <c r="E104" s="4">
-        <v>1385</v>
+        <v>1170</v>
       </c>
       <c r="F104" s="4">
-        <v>1825</v>
+        <v>1530</v>
       </c>
       <c r="G104" s="4">
-        <v>2220</v>
+        <v>1855</v>
       </c>
       <c r="H104" s="4">
-        <v>2630</v>
+        <v>2205</v>
       </c>
       <c r="I104" s="4">
-        <v>3025</v>
+        <v>2555</v>
       </c>
       <c r="J104" s="4">
-        <v>3410</v>
+        <v>2900</v>
       </c>
       <c r="K104" s="4">
-        <v>3780</v>
+        <v>3230</v>
       </c>
       <c r="L104" s="4">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3535</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
+      <c r="N104" s="4">
+        <v>0</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0</v>
+      </c>
+      <c r="P104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C105" s="4">
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="D105" s="4">
         <v>930</v>
       </c>
       <c r="E105" s="4">
-        <v>1300</v>
+        <v>1370</v>
       </c>
       <c r="F105" s="4">
-        <v>1700</v>
+        <v>1790</v>
       </c>
       <c r="G105" s="4">
-        <v>2010</v>
+        <v>2155</v>
       </c>
       <c r="H105" s="4">
-        <v>2375</v>
+        <v>2545</v>
       </c>
       <c r="I105" s="4">
-        <v>2670</v>
+        <v>2920</v>
       </c>
       <c r="J105" s="4">
-        <v>2885</v>
+        <v>3295</v>
       </c>
       <c r="K105" s="4">
-        <v>3210</v>
+        <v>3680</v>
       </c>
       <c r="L105" s="4">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4050</v>
+      </c>
+      <c r="M105" s="4">
+        <v>0</v>
+      </c>
+      <c r="N105" s="4">
+        <v>0</v>
+      </c>
+      <c r="O105" s="4">
+        <v>0</v>
+      </c>
+      <c r="P105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C106" s="4">
-        <v>845</v>
+        <v>715</v>
       </c>
       <c r="D106" s="4">
-        <v>1170</v>
+        <v>1130</v>
       </c>
       <c r="E106" s="4">
-        <v>1660</v>
+        <v>1385</v>
       </c>
       <c r="F106" s="4">
-        <v>2180</v>
+        <v>1825</v>
       </c>
       <c r="G106" s="4">
+        <v>2220</v>
+      </c>
+      <c r="H106" s="4">
         <v>2630</v>
       </c>
-      <c r="H106" s="4">
-        <v>2720</v>
-      </c>
       <c r="I106" s="4">
-        <v>3110</v>
+        <v>3025</v>
       </c>
       <c r="J106" s="4">
-        <v>3490</v>
+        <v>3410</v>
       </c>
       <c r="K106" s="4">
-        <v>3860</v>
+        <v>3780</v>
       </c>
       <c r="L106" s="4">
-        <v>4170</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4140</v>
+      </c>
+      <c r="M106" s="4">
+        <v>0</v>
+      </c>
+      <c r="N106" s="4">
+        <v>0</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0</v>
+      </c>
+      <c r="P106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C107" s="4">
-        <v>885</v>
+        <v>575</v>
       </c>
       <c r="D107" s="4">
-        <v>1250</v>
+        <v>930</v>
       </c>
       <c r="E107" s="4">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="F107" s="4">
-        <v>2080</v>
+        <v>1700</v>
       </c>
       <c r="G107" s="4">
-        <v>2525</v>
+        <v>2010</v>
       </c>
       <c r="H107" s="4">
-        <v>2880</v>
+        <v>2375</v>
       </c>
       <c r="I107" s="4">
-        <v>3325</v>
+        <v>2670</v>
       </c>
       <c r="J107" s="4">
-        <v>3760</v>
+        <v>2885</v>
       </c>
       <c r="K107" s="4">
-        <v>4185</v>
+        <v>3210</v>
       </c>
       <c r="L107" s="4">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3470</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
+      <c r="N107" s="4">
+        <v>0</v>
+      </c>
+      <c r="O107" s="4">
+        <v>0</v>
+      </c>
+      <c r="P107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C108" s="4">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="D108" s="4">
-        <v>1250</v>
+        <v>1170</v>
       </c>
       <c r="E108" s="4">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="F108" s="4">
-        <v>2080</v>
+        <v>2180</v>
       </c>
       <c r="G108" s="4">
-        <v>2525</v>
+        <v>2630</v>
       </c>
       <c r="H108" s="4">
-        <v>2880</v>
+        <v>2720</v>
       </c>
       <c r="I108" s="4">
-        <v>3325</v>
+        <v>3110</v>
       </c>
       <c r="J108" s="4">
-        <v>3760</v>
+        <v>3490</v>
       </c>
       <c r="K108" s="4">
-        <v>4185</v>
+        <v>3860</v>
       </c>
       <c r="L108" s="4">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4170</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0</v>
+      </c>
+      <c r="O108" s="4">
+        <v>0</v>
+      </c>
+      <c r="P108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C109" s="4">
-        <v>800</v>
+        <v>885</v>
       </c>
       <c r="D109" s="4">
-        <v>1060</v>
+        <v>1250</v>
       </c>
       <c r="E109" s="4">
-        <v>1560</v>
+        <v>1650</v>
       </c>
       <c r="F109" s="4">
-        <v>2040</v>
+        <v>2080</v>
       </c>
       <c r="G109" s="4">
-        <v>2500</v>
+        <v>2525</v>
       </c>
       <c r="H109" s="4">
         <v>2880</v>
@@ -4813,97 +6134,133 @@
         <v>3325</v>
       </c>
       <c r="J109" s="4">
-        <v>3680</v>
+        <v>3760</v>
       </c>
       <c r="K109" s="4">
-        <v>4095</v>
+        <v>4185</v>
       </c>
       <c r="L109" s="4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4600</v>
+      </c>
+      <c r="M109" s="4">
+        <v>0</v>
+      </c>
+      <c r="N109" s="4">
+        <v>0</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0</v>
+      </c>
+      <c r="P109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C110" s="4">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c r="D110" s="4">
-        <v>1130</v>
+        <v>1250</v>
       </c>
       <c r="E110" s="4">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="F110" s="4">
-        <v>2180</v>
+        <v>2080</v>
       </c>
       <c r="G110" s="4">
-        <v>2630</v>
+        <v>2525</v>
       </c>
       <c r="H110" s="4">
-        <v>3055</v>
+        <v>2880</v>
       </c>
       <c r="I110" s="4">
-        <v>3480</v>
+        <v>3325</v>
       </c>
       <c r="J110" s="4">
-        <v>3910</v>
+        <v>3760</v>
       </c>
       <c r="K110" s="4">
-        <v>4260</v>
+        <v>4185</v>
       </c>
       <c r="L110" s="4">
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4600</v>
+      </c>
+      <c r="M110" s="4">
+        <v>0</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110" s="4">
+        <v>0</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C111" s="4">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="D111" s="4">
-        <v>1125</v>
+        <v>1060</v>
       </c>
       <c r="E111" s="4">
-        <v>1665</v>
+        <v>1560</v>
       </c>
       <c r="F111" s="4">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="G111" s="4">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="H111" s="4">
-        <v>3010</v>
+        <v>2880</v>
       </c>
       <c r="I111" s="4">
-        <v>3320</v>
+        <v>3325</v>
       </c>
       <c r="J111" s="4">
-        <v>3560</v>
+        <v>3680</v>
       </c>
       <c r="K111" s="4">
-        <v>3980</v>
+        <v>4095</v>
       </c>
       <c r="L111" s="4">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+      <c r="M111" s="4">
+        <v>0</v>
+      </c>
+      <c r="N111" s="4">
+        <v>0</v>
+      </c>
+      <c r="O111" s="4">
+        <v>0</v>
+      </c>
+      <c r="P111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C112" s="4">
         <v>840</v>
@@ -4935,507 +6292,675 @@
       <c r="L112" s="4">
         <v>4660</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0</v>
+      </c>
+      <c r="P112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C113" s="4">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="D113" s="4">
-        <v>1150</v>
+        <v>1125</v>
       </c>
       <c r="E113" s="4">
-        <v>1510</v>
+        <v>1665</v>
       </c>
       <c r="F113" s="4">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G113" s="4">
-        <v>2500</v>
+        <v>2550</v>
       </c>
       <c r="H113" s="4">
-        <v>2850</v>
+        <v>3010</v>
       </c>
       <c r="I113" s="4">
-        <v>3290</v>
+        <v>3320</v>
       </c>
       <c r="J113" s="4">
-        <v>3640</v>
+        <v>3560</v>
       </c>
       <c r="K113" s="4">
-        <v>4050</v>
+        <v>3980</v>
       </c>
       <c r="L113" s="4">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4300</v>
+      </c>
+      <c r="M113" s="4">
+        <v>0</v>
+      </c>
+      <c r="N113" s="4">
+        <v>0</v>
+      </c>
+      <c r="O113" s="4">
+        <v>0</v>
+      </c>
+      <c r="P113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C114" s="4">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="D114" s="4">
-        <v>1045</v>
+        <v>1130</v>
       </c>
       <c r="E114" s="4">
-        <v>1510</v>
+        <v>1660</v>
       </c>
       <c r="F114" s="4">
-        <v>1985</v>
+        <v>2180</v>
       </c>
       <c r="G114" s="4">
-        <v>2385</v>
+        <v>2630</v>
       </c>
       <c r="H114" s="4">
-        <v>2800</v>
+        <v>3055</v>
       </c>
       <c r="I114" s="4">
-        <v>3175</v>
+        <v>3480</v>
       </c>
       <c r="J114" s="4">
-        <v>3440</v>
+        <v>3910</v>
       </c>
       <c r="K114" s="4">
-        <v>3805</v>
+        <v>4260</v>
       </c>
       <c r="L114" s="4">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4660</v>
+      </c>
+      <c r="M114" s="4">
+        <v>0</v>
+      </c>
+      <c r="N114" s="4">
+        <v>0</v>
+      </c>
+      <c r="O114" s="4">
+        <v>0</v>
+      </c>
+      <c r="P114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C115" s="4">
-        <v>600</v>
+        <v>875</v>
       </c>
       <c r="D115" s="4">
-        <v>1055</v>
+        <v>1150</v>
       </c>
       <c r="E115" s="4">
-        <v>1530</v>
+        <v>1510</v>
       </c>
       <c r="F115" s="4">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="G115" s="4">
-        <v>2410</v>
+        <v>2500</v>
       </c>
       <c r="H115" s="4">
-        <v>2855</v>
+        <v>2850</v>
       </c>
       <c r="I115" s="4">
-        <v>3260</v>
+        <v>3290</v>
       </c>
       <c r="J115" s="4">
-        <v>3555</v>
+        <v>3640</v>
       </c>
       <c r="K115" s="4">
-        <v>3950</v>
+        <v>4050</v>
       </c>
       <c r="L115" s="4">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4450</v>
+      </c>
+      <c r="M115" s="4">
+        <v>0</v>
+      </c>
+      <c r="N115" s="4">
+        <v>0</v>
+      </c>
+      <c r="O115" s="4">
+        <v>0</v>
+      </c>
+      <c r="P115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C116" s="4">
-        <v>790</v>
+        <v>600</v>
       </c>
       <c r="D116" s="4">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="E116" s="4">
-        <v>1560</v>
+        <v>1510</v>
       </c>
       <c r="F116" s="4">
-        <v>2040</v>
+        <v>1985</v>
       </c>
       <c r="G116" s="4">
-        <v>2500</v>
+        <v>2385</v>
       </c>
       <c r="H116" s="4">
-        <v>2940</v>
+        <v>2800</v>
       </c>
       <c r="I116" s="4">
-        <v>3325</v>
+        <v>3175</v>
       </c>
       <c r="J116" s="4">
-        <v>3680</v>
+        <v>3440</v>
       </c>
       <c r="K116" s="4">
-        <v>4095</v>
+        <v>3805</v>
       </c>
       <c r="L116" s="4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4030</v>
+      </c>
+      <c r="M116" s="4">
+        <v>0</v>
+      </c>
+      <c r="N116" s="4">
+        <v>0</v>
+      </c>
+      <c r="O116" s="4">
+        <v>0</v>
+      </c>
+      <c r="P116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C117" s="4">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="D117" s="4">
-        <v>930</v>
+        <v>1055</v>
       </c>
       <c r="E117" s="4">
-        <v>1370</v>
+        <v>1530</v>
       </c>
       <c r="F117" s="4">
-        <v>1790</v>
+        <v>2000</v>
       </c>
       <c r="G117" s="4">
-        <v>2155</v>
+        <v>2410</v>
       </c>
       <c r="H117" s="4">
-        <v>2545</v>
+        <v>2855</v>
       </c>
       <c r="I117" s="4">
-        <v>2920</v>
+        <v>3260</v>
       </c>
       <c r="J117" s="4">
-        <v>3295</v>
+        <v>3555</v>
       </c>
       <c r="K117" s="4">
-        <v>3680</v>
+        <v>3950</v>
       </c>
       <c r="L117" s="4">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4580</v>
+      </c>
+      <c r="M117" s="4">
+        <v>0</v>
+      </c>
+      <c r="N117" s="4">
+        <v>0</v>
+      </c>
+      <c r="O117" s="4">
+        <v>0</v>
+      </c>
+      <c r="P117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C118" s="4">
-        <v>635</v>
+        <v>790</v>
       </c>
       <c r="D118" s="4">
-        <v>930</v>
+        <v>1060</v>
       </c>
       <c r="E118" s="4">
-        <v>1370</v>
+        <v>1560</v>
       </c>
       <c r="F118" s="4">
-        <v>1790</v>
+        <v>2040</v>
       </c>
       <c r="G118" s="4">
-        <v>2155</v>
+        <v>2500</v>
       </c>
       <c r="H118" s="4">
-        <v>2545</v>
+        <v>2940</v>
       </c>
       <c r="I118" s="4">
-        <v>2920</v>
+        <v>3325</v>
       </c>
       <c r="J118" s="4">
-        <v>3295</v>
+        <v>3680</v>
       </c>
       <c r="K118" s="4">
-        <v>3680</v>
+        <v>4095</v>
       </c>
       <c r="L118" s="4">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+      <c r="M118" s="4">
+        <v>0</v>
+      </c>
+      <c r="N118" s="4">
+        <v>0</v>
+      </c>
+      <c r="O118" s="4">
+        <v>0</v>
+      </c>
+      <c r="P118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C119" s="4">
-        <v>600</v>
+        <v>635</v>
       </c>
       <c r="D119" s="4">
-        <v>1080</v>
+        <v>930</v>
       </c>
       <c r="E119" s="4">
-        <v>1460</v>
+        <v>1370</v>
       </c>
       <c r="F119" s="4">
-        <v>1835</v>
+        <v>1790</v>
       </c>
       <c r="G119" s="4">
-        <v>2235</v>
+        <v>2155</v>
       </c>
       <c r="H119" s="4">
-        <v>2575</v>
+        <v>2545</v>
       </c>
       <c r="I119" s="4">
-        <v>2835</v>
+        <v>2920</v>
       </c>
       <c r="J119" s="4">
-        <v>3140</v>
+        <v>3295</v>
       </c>
       <c r="K119" s="4">
-        <v>3470</v>
+        <v>3680</v>
       </c>
       <c r="L119" s="4">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4050</v>
+      </c>
+      <c r="M119" s="4">
+        <v>0</v>
+      </c>
+      <c r="N119" s="4">
+        <v>0</v>
+      </c>
+      <c r="O119" s="4">
+        <v>0</v>
+      </c>
+      <c r="P119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C120" s="4">
-        <v>845</v>
+        <v>635</v>
       </c>
       <c r="D120" s="4">
-        <v>1170</v>
+        <v>930</v>
       </c>
       <c r="E120" s="4">
-        <v>1700</v>
+        <v>1370</v>
       </c>
       <c r="F120" s="4">
-        <v>2240</v>
+        <v>1790</v>
       </c>
       <c r="G120" s="4">
-        <v>2690</v>
+        <v>2155</v>
       </c>
       <c r="H120" s="4">
-        <v>3070</v>
+        <v>2545</v>
       </c>
       <c r="I120" s="4">
-        <v>3490</v>
+        <v>2920</v>
       </c>
       <c r="J120" s="4">
-        <v>3925</v>
+        <v>3295</v>
       </c>
       <c r="K120" s="4">
-        <v>4265</v>
+        <v>3680</v>
       </c>
       <c r="L120" s="4">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4050</v>
+      </c>
+      <c r="M120" s="4">
+        <v>0</v>
+      </c>
+      <c r="N120" s="4">
+        <v>0</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0</v>
+      </c>
+      <c r="P120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C121" s="4">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="D121" s="4">
-        <v>1150</v>
+        <v>1080</v>
       </c>
       <c r="E121" s="4">
-        <v>1540</v>
+        <v>1460</v>
       </c>
       <c r="F121" s="4">
-        <v>2020</v>
+        <v>1835</v>
       </c>
       <c r="G121" s="4">
-        <v>2485</v>
+        <v>2235</v>
       </c>
       <c r="H121" s="4">
-        <v>2940</v>
+        <v>2575</v>
       </c>
       <c r="I121" s="4">
-        <v>3300</v>
+        <v>2835</v>
       </c>
       <c r="J121" s="4">
-        <v>3740</v>
+        <v>3140</v>
       </c>
       <c r="K121" s="4">
-        <v>4190</v>
+        <v>3470</v>
       </c>
       <c r="L121" s="4">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3700</v>
+      </c>
+      <c r="M121" s="4">
+        <v>0</v>
+      </c>
+      <c r="N121" s="4">
+        <v>0</v>
+      </c>
+      <c r="O121" s="4">
+        <v>0</v>
+      </c>
+      <c r="P121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C122" s="4">
-        <v>750</v>
+        <v>845</v>
       </c>
       <c r="D122" s="4">
-        <v>1150</v>
+        <v>1170</v>
       </c>
       <c r="E122" s="4">
-        <v>1540</v>
+        <v>1700</v>
       </c>
       <c r="F122" s="4">
-        <v>2020</v>
+        <v>2240</v>
       </c>
       <c r="G122" s="4">
-        <v>2485</v>
+        <v>2690</v>
       </c>
       <c r="H122" s="4">
-        <v>2940</v>
+        <v>3070</v>
       </c>
       <c r="I122" s="4">
-        <v>3300</v>
+        <v>3490</v>
       </c>
       <c r="J122" s="4">
-        <v>3740</v>
+        <v>3925</v>
       </c>
       <c r="K122" s="4">
-        <v>4190</v>
+        <v>4265</v>
       </c>
       <c r="L122" s="4">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4670</v>
+      </c>
+      <c r="M122" s="4">
+        <v>0</v>
+      </c>
+      <c r="N122" s="4">
+        <v>0</v>
+      </c>
+      <c r="O122" s="4">
+        <v>0</v>
+      </c>
+      <c r="P122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C123" s="4">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="D123" s="4">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="E123" s="4">
         <v>1540</v>
       </c>
       <c r="F123" s="4">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="G123" s="4">
-        <v>2400</v>
+        <v>2485</v>
       </c>
       <c r="H123" s="4">
-        <v>2850</v>
+        <v>2940</v>
       </c>
       <c r="I123" s="4">
-        <v>3250</v>
+        <v>3300</v>
       </c>
       <c r="J123" s="4">
-        <v>3690</v>
+        <v>3740</v>
       </c>
       <c r="K123" s="4">
-        <v>4150</v>
+        <v>4190</v>
       </c>
       <c r="L123" s="4">
-        <v>4540</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4450</v>
+      </c>
+      <c r="M123" s="4">
+        <v>0</v>
+      </c>
+      <c r="N123" s="4">
+        <v>0</v>
+      </c>
+      <c r="O123" s="4">
+        <v>0</v>
+      </c>
+      <c r="P123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C124" s="4">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="D124" s="4">
-        <v>1060</v>
+        <v>1150</v>
       </c>
       <c r="E124" s="4">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="F124" s="4">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="G124" s="4">
-        <v>2500</v>
+        <v>2485</v>
       </c>
       <c r="H124" s="4">
         <v>2940</v>
       </c>
       <c r="I124" s="4">
-        <v>3325</v>
+        <v>3300</v>
       </c>
       <c r="J124" s="4">
-        <v>3680</v>
+        <v>3740</v>
       </c>
       <c r="K124" s="4">
-        <v>4095</v>
+        <v>4190</v>
       </c>
       <c r="L124" s="4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4450</v>
+      </c>
+      <c r="M124" s="4">
+        <v>0</v>
+      </c>
+      <c r="N124" s="4">
+        <v>0</v>
+      </c>
+      <c r="O124" s="4">
+        <v>0</v>
+      </c>
+      <c r="P124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C125" s="4">
-        <v>800</v>
+        <v>695</v>
       </c>
       <c r="D125" s="4">
-        <v>1060</v>
+        <v>1100</v>
       </c>
       <c r="E125" s="4">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="F125" s="4">
-        <v>2040</v>
+        <v>2000</v>
       </c>
       <c r="G125" s="4">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H125" s="4">
-        <v>2940</v>
+        <v>2850</v>
       </c>
       <c r="I125" s="4">
-        <v>3325</v>
+        <v>3250</v>
       </c>
       <c r="J125" s="4">
-        <v>3680</v>
+        <v>3690</v>
       </c>
       <c r="K125" s="4">
-        <v>4095</v>
+        <v>4150</v>
       </c>
       <c r="L125" s="4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4540</v>
+      </c>
+      <c r="M125" s="4">
+        <v>0</v>
+      </c>
+      <c r="N125" s="4">
+        <v>0</v>
+      </c>
+      <c r="O125" s="4">
+        <v>0</v>
+      </c>
+      <c r="P125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C126" s="4">
         <v>800</v>
@@ -5467,13 +6992,25 @@
       <c r="L126" s="4">
         <v>4500</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="4">
+        <v>0</v>
+      </c>
+      <c r="N126" s="4">
+        <v>0</v>
+      </c>
+      <c r="O126" s="4">
+        <v>0</v>
+      </c>
+      <c r="P126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C127" s="4">
         <v>800</v>
@@ -5505,165 +7042,225 @@
       <c r="L127" s="4">
         <v>4500</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="4">
+        <v>0</v>
+      </c>
+      <c r="N127" s="4">
+        <v>0</v>
+      </c>
+      <c r="O127" s="4">
+        <v>0</v>
+      </c>
+      <c r="P127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C128" s="4">
-        <v>845</v>
+        <v>800</v>
       </c>
       <c r="D128" s="4">
-        <v>1360</v>
+        <v>1060</v>
       </c>
       <c r="E128" s="4">
-        <v>1835</v>
+        <v>1560</v>
       </c>
       <c r="F128" s="4">
-        <v>2405</v>
+        <v>2040</v>
       </c>
       <c r="G128" s="4">
-        <v>2740</v>
+        <v>2500</v>
       </c>
       <c r="H128" s="4">
-        <v>3250</v>
+        <v>2940</v>
       </c>
       <c r="I128" s="4">
-        <v>3750</v>
+        <v>3325</v>
       </c>
       <c r="J128" s="4">
-        <v>4190</v>
+        <v>3680</v>
       </c>
       <c r="K128" s="4">
-        <v>4620</v>
+        <v>4095</v>
       </c>
       <c r="L128" s="4">
-        <v>4935</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+      <c r="M128" s="4">
+        <v>0</v>
+      </c>
+      <c r="N128" s="4">
+        <v>0</v>
+      </c>
+      <c r="O128" s="4">
+        <v>0</v>
+      </c>
+      <c r="P128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C129" s="4">
-        <v>845</v>
+        <v>800</v>
       </c>
       <c r="D129" s="4">
-        <v>1360</v>
+        <v>1060</v>
       </c>
       <c r="E129" s="4">
-        <v>1835</v>
+        <v>1560</v>
       </c>
       <c r="F129" s="4">
-        <v>2405</v>
+        <v>2040</v>
       </c>
       <c r="G129" s="4">
-        <v>2740</v>
+        <v>2500</v>
       </c>
       <c r="H129" s="4">
-        <v>3250</v>
+        <v>2940</v>
       </c>
       <c r="I129" s="4">
-        <v>3750</v>
+        <v>3325</v>
       </c>
       <c r="J129" s="4">
-        <v>4190</v>
+        <v>3680</v>
       </c>
       <c r="K129" s="4">
-        <v>4620</v>
+        <v>4095</v>
       </c>
       <c r="L129" s="4">
-        <v>4935</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+      <c r="M129" s="4">
+        <v>0</v>
+      </c>
+      <c r="N129" s="4">
+        <v>0</v>
+      </c>
+      <c r="O129" s="4">
+        <v>0</v>
+      </c>
+      <c r="P129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C130" s="4">
-        <v>665</v>
+        <v>845</v>
       </c>
       <c r="D130" s="4">
-        <v>1005</v>
+        <v>1360</v>
       </c>
       <c r="E130" s="4">
-        <v>1480</v>
+        <v>1835</v>
       </c>
       <c r="F130" s="4">
-        <v>1945</v>
+        <v>2405</v>
       </c>
       <c r="G130" s="4">
-        <v>2345</v>
+        <v>2740</v>
       </c>
       <c r="H130" s="4">
-        <v>2775</v>
+        <v>3250</v>
       </c>
       <c r="I130" s="4">
-        <v>3195</v>
+        <v>3750</v>
       </c>
       <c r="J130" s="4">
-        <v>3535</v>
+        <v>4190</v>
       </c>
       <c r="K130" s="4">
-        <v>3945</v>
+        <v>4620</v>
       </c>
       <c r="L130" s="4">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4935</v>
+      </c>
+      <c r="M130" s="4">
+        <v>0</v>
+      </c>
+      <c r="N130" s="4">
+        <v>0</v>
+      </c>
+      <c r="O130" s="4">
+        <v>0</v>
+      </c>
+      <c r="P130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C131" s="4">
-        <v>665</v>
+        <v>845</v>
       </c>
       <c r="D131" s="4">
-        <v>1005</v>
+        <v>1360</v>
       </c>
       <c r="E131" s="4">
-        <v>1480</v>
+        <v>1835</v>
       </c>
       <c r="F131" s="4">
-        <v>1945</v>
+        <v>2405</v>
       </c>
       <c r="G131" s="4">
-        <v>2345</v>
+        <v>2740</v>
       </c>
       <c r="H131" s="4">
-        <v>2775</v>
+        <v>3250</v>
       </c>
       <c r="I131" s="4">
-        <v>3195</v>
+        <v>3750</v>
       </c>
       <c r="J131" s="4">
-        <v>3535</v>
+        <v>4190</v>
       </c>
       <c r="K131" s="4">
-        <v>3945</v>
+        <v>4620</v>
       </c>
       <c r="L131" s="4">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4935</v>
+      </c>
+      <c r="M131" s="4">
+        <v>0</v>
+      </c>
+      <c r="N131" s="4">
+        <v>0</v>
+      </c>
+      <c r="O131" s="4">
+        <v>0</v>
+      </c>
+      <c r="P131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C132" s="4">
         <v>665</v>
@@ -5695,13 +7292,25 @@
       <c r="L132" s="4">
         <v>4265</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="4">
+        <v>0</v>
+      </c>
+      <c r="N132" s="4">
+        <v>0</v>
+      </c>
+      <c r="O132" s="4">
+        <v>0</v>
+      </c>
+      <c r="P132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C133" s="4">
         <v>665</v>
@@ -5733,13 +7342,25 @@
       <c r="L133" s="4">
         <v>4265</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="4">
+        <v>0</v>
+      </c>
+      <c r="N133" s="4">
+        <v>0</v>
+      </c>
+      <c r="O133" s="4">
+        <v>0</v>
+      </c>
+      <c r="P133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C134" s="4">
         <v>665</v>
@@ -5771,241 +7392,325 @@
       <c r="L134" s="4">
         <v>4265</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="4">
+        <v>0</v>
+      </c>
+      <c r="N134" s="4">
+        <v>0</v>
+      </c>
+      <c r="O134" s="4">
+        <v>0</v>
+      </c>
+      <c r="P134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C135" s="4">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="D135" s="4">
-        <v>965</v>
+        <v>1005</v>
       </c>
       <c r="E135" s="4">
-        <v>1365</v>
+        <v>1480</v>
       </c>
       <c r="F135" s="4">
-        <v>1815</v>
+        <v>1945</v>
       </c>
       <c r="G135" s="4">
-        <v>2070</v>
+        <v>2345</v>
       </c>
       <c r="H135" s="4">
-        <v>2380</v>
+        <v>2775</v>
       </c>
       <c r="I135" s="4">
-        <v>2720</v>
+        <v>3195</v>
       </c>
       <c r="J135" s="4">
-        <v>3035</v>
+        <v>3535</v>
       </c>
       <c r="K135" s="4">
-        <v>3340</v>
+        <v>3945</v>
       </c>
       <c r="L135" s="4">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4265</v>
+      </c>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+      <c r="N135" s="4">
+        <v>0</v>
+      </c>
+      <c r="O135" s="4">
+        <v>0</v>
+      </c>
+      <c r="P135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C136" s="4">
-        <v>525</v>
+        <v>665</v>
       </c>
       <c r="D136" s="4">
-        <v>895</v>
+        <v>1005</v>
       </c>
       <c r="E136" s="4">
-        <v>1240</v>
+        <v>1480</v>
       </c>
       <c r="F136" s="4">
-        <v>1540</v>
+        <v>1945</v>
       </c>
       <c r="G136" s="4">
-        <v>1725</v>
+        <v>2345</v>
       </c>
       <c r="H136" s="4">
-        <v>1930</v>
+        <v>2775</v>
       </c>
       <c r="I136" s="4">
-        <v>2230</v>
+        <v>3195</v>
       </c>
       <c r="J136" s="4">
-        <v>2540</v>
+        <v>3535</v>
       </c>
       <c r="K136" s="4">
-        <v>2830</v>
+        <v>3945</v>
       </c>
       <c r="L136" s="4">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4265</v>
+      </c>
+      <c r="M136" s="4">
+        <v>0</v>
+      </c>
+      <c r="N136" s="4">
+        <v>0</v>
+      </c>
+      <c r="O136" s="4">
+        <v>0</v>
+      </c>
+      <c r="P136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C137" s="4">
-        <v>800</v>
+        <v>695</v>
       </c>
       <c r="D137" s="4">
-        <v>1060</v>
+        <v>965</v>
       </c>
       <c r="E137" s="4">
-        <v>1560</v>
+        <v>1365</v>
       </c>
       <c r="F137" s="4">
-        <v>2040</v>
+        <v>1815</v>
       </c>
       <c r="G137" s="4">
-        <v>2500</v>
+        <v>2070</v>
       </c>
       <c r="H137" s="4">
-        <v>2880</v>
+        <v>2380</v>
       </c>
       <c r="I137" s="4">
-        <v>3325</v>
+        <v>2720</v>
       </c>
       <c r="J137" s="4">
-        <v>3680</v>
+        <v>3035</v>
       </c>
       <c r="K137" s="4">
-        <v>4095</v>
+        <v>3340</v>
       </c>
       <c r="L137" s="4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3630</v>
+      </c>
+      <c r="M137" s="4">
+        <v>0</v>
+      </c>
+      <c r="N137" s="4">
+        <v>0</v>
+      </c>
+      <c r="O137" s="4">
+        <v>0</v>
+      </c>
+      <c r="P137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C138" s="4">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="D138" s="4">
-        <v>1370</v>
+        <v>895</v>
       </c>
       <c r="E138" s="4">
-        <v>1860</v>
+        <v>1240</v>
       </c>
       <c r="F138" s="4">
-        <v>2405</v>
+        <v>1540</v>
       </c>
       <c r="G138" s="4">
-        <v>2740</v>
+        <v>1725</v>
       </c>
       <c r="H138" s="4">
-        <v>3250</v>
+        <v>1930</v>
       </c>
       <c r="I138" s="4">
-        <v>3750</v>
+        <v>2230</v>
       </c>
       <c r="J138" s="4">
-        <v>4190</v>
+        <v>2540</v>
       </c>
       <c r="K138" s="4">
-        <v>4620</v>
+        <v>2830</v>
       </c>
       <c r="L138" s="4">
-        <v>4935</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3030</v>
+      </c>
+      <c r="M138" s="4">
+        <v>0</v>
+      </c>
+      <c r="N138" s="4">
+        <v>0</v>
+      </c>
+      <c r="O138" s="4">
+        <v>0</v>
+      </c>
+      <c r="P138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C139" s="4">
-        <v>845</v>
+        <v>800</v>
       </c>
       <c r="D139" s="4">
-        <v>1170</v>
+        <v>1060</v>
       </c>
       <c r="E139" s="4">
-        <v>1700</v>
+        <v>1560</v>
       </c>
       <c r="F139" s="4">
-        <v>2240</v>
+        <v>2040</v>
       </c>
       <c r="G139" s="4">
-        <v>2690</v>
+        <v>2500</v>
       </c>
       <c r="H139" s="4">
-        <v>3070</v>
+        <v>2880</v>
       </c>
       <c r="I139" s="4">
-        <v>3490</v>
+        <v>3325</v>
       </c>
       <c r="J139" s="4">
-        <v>3925</v>
+        <v>3680</v>
       </c>
       <c r="K139" s="4">
-        <v>4265</v>
+        <v>4095</v>
       </c>
       <c r="L139" s="4">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+      <c r="M139" s="4">
+        <v>0</v>
+      </c>
+      <c r="N139" s="4">
+        <v>0</v>
+      </c>
+      <c r="O139" s="4">
+        <v>0</v>
+      </c>
+      <c r="P139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C140" s="4">
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="D140" s="4">
-        <v>1170</v>
+        <v>1370</v>
       </c>
       <c r="E140" s="4">
-        <v>1700</v>
+        <v>1860</v>
       </c>
       <c r="F140" s="4">
-        <v>2240</v>
+        <v>2405</v>
       </c>
       <c r="G140" s="4">
-        <v>2690</v>
+        <v>2740</v>
       </c>
       <c r="H140" s="4">
-        <v>3070</v>
+        <v>3250</v>
       </c>
       <c r="I140" s="4">
-        <v>3490</v>
+        <v>3750</v>
       </c>
       <c r="J140" s="4">
-        <v>3925</v>
+        <v>4190</v>
       </c>
       <c r="K140" s="4">
-        <v>4265</v>
+        <v>4620</v>
       </c>
       <c r="L140" s="4">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4935</v>
+      </c>
+      <c r="M140" s="4">
+        <v>0</v>
+      </c>
+      <c r="N140" s="4">
+        <v>0</v>
+      </c>
+      <c r="O140" s="4">
+        <v>0</v>
+      </c>
+      <c r="P140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C141" s="4">
         <v>845</v>
@@ -6014,264 +7719,348 @@
         <v>1170</v>
       </c>
       <c r="E141" s="4">
-        <v>1660</v>
+        <v>1700</v>
       </c>
       <c r="F141" s="4">
-        <v>2180</v>
+        <v>2240</v>
       </c>
       <c r="G141" s="4">
-        <v>2630</v>
+        <v>2690</v>
       </c>
       <c r="H141" s="4">
-        <v>2720</v>
+        <v>3070</v>
       </c>
       <c r="I141" s="4">
-        <v>3110</v>
+        <v>3490</v>
       </c>
       <c r="J141" s="4">
-        <v>3490</v>
+        <v>3925</v>
       </c>
       <c r="K141" s="4">
-        <v>3860</v>
+        <v>4265</v>
       </c>
       <c r="L141" s="4">
-        <v>4170</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4670</v>
+      </c>
+      <c r="M141" s="4">
+        <v>0</v>
+      </c>
+      <c r="N141" s="4">
+        <v>0</v>
+      </c>
+      <c r="O141" s="4">
+        <v>0</v>
+      </c>
+      <c r="P141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C142" s="4">
-        <v>615</v>
+        <v>845</v>
       </c>
       <c r="D142" s="4">
-        <v>870</v>
+        <v>1170</v>
       </c>
       <c r="E142" s="4">
-        <v>1230</v>
+        <v>1700</v>
       </c>
       <c r="F142" s="4">
-        <v>1420</v>
+        <v>2240</v>
       </c>
       <c r="G142" s="4">
-        <v>1750</v>
+        <v>2690</v>
       </c>
       <c r="H142" s="4">
-        <v>2040</v>
+        <v>3070</v>
       </c>
       <c r="I142" s="4">
-        <v>2295</v>
+        <v>3490</v>
       </c>
       <c r="J142" s="4">
-        <v>2590</v>
+        <v>3925</v>
       </c>
       <c r="K142" s="4">
-        <v>2850</v>
+        <v>4265</v>
       </c>
       <c r="L142" s="4">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4670</v>
+      </c>
+      <c r="M142" s="4">
+        <v>0</v>
+      </c>
+      <c r="N142" s="4">
+        <v>0</v>
+      </c>
+      <c r="O142" s="4">
+        <v>0</v>
+      </c>
+      <c r="P142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C143" s="4">
-        <v>635</v>
+        <v>845</v>
       </c>
       <c r="D143" s="4">
-        <v>850</v>
+        <v>1170</v>
       </c>
       <c r="E143" s="4">
-        <v>1260</v>
+        <v>1660</v>
       </c>
       <c r="F143" s="4">
-        <v>1490</v>
+        <v>2180</v>
       </c>
       <c r="G143" s="4">
-        <v>1675</v>
+        <v>2630</v>
       </c>
       <c r="H143" s="4">
-        <v>1980</v>
+        <v>2720</v>
       </c>
       <c r="I143" s="4">
-        <v>2275</v>
+        <v>3110</v>
       </c>
       <c r="J143" s="4">
-        <v>2560</v>
+        <v>3490</v>
       </c>
       <c r="K143" s="4">
-        <v>2870</v>
+        <v>3860</v>
       </c>
       <c r="L143" s="4">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4170</v>
+      </c>
+      <c r="M143" s="4">
+        <v>0</v>
+      </c>
+      <c r="N143" s="4">
+        <v>0</v>
+      </c>
+      <c r="O143" s="4">
+        <v>0</v>
+      </c>
+      <c r="P143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C144" s="4">
-        <v>675</v>
+        <v>615</v>
       </c>
       <c r="D144" s="4">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="E144" s="4">
-        <v>1265</v>
+        <v>1230</v>
       </c>
       <c r="F144" s="4">
-        <v>1590</v>
+        <v>1420</v>
       </c>
       <c r="G144" s="4">
-        <v>1900</v>
+        <v>1750</v>
       </c>
       <c r="H144" s="4">
-        <v>2230</v>
+        <v>2040</v>
       </c>
       <c r="I144" s="4">
-        <v>2570</v>
+        <v>2295</v>
       </c>
       <c r="J144" s="4">
-        <v>2885</v>
+        <v>2590</v>
       </c>
       <c r="K144" s="4">
-        <v>3190</v>
+        <v>2850</v>
       </c>
       <c r="L144" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3100</v>
+      </c>
+      <c r="M144" s="4">
+        <v>0</v>
+      </c>
+      <c r="N144" s="4">
+        <v>0</v>
+      </c>
+      <c r="O144" s="4">
+        <v>0</v>
+      </c>
+      <c r="P144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C145" s="4">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="D145" s="4">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="E145" s="4">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F145" s="4">
-        <v>1590</v>
+        <v>1490</v>
       </c>
       <c r="G145" s="4">
-        <v>1900</v>
+        <v>1675</v>
       </c>
       <c r="H145" s="4">
-        <v>2230</v>
+        <v>1980</v>
       </c>
       <c r="I145" s="4">
-        <v>2570</v>
+        <v>2275</v>
       </c>
       <c r="J145" s="4">
-        <v>2885</v>
+        <v>2560</v>
       </c>
       <c r="K145" s="4">
-        <v>3190</v>
+        <v>2870</v>
       </c>
       <c r="L145" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3150</v>
+      </c>
+      <c r="M145" s="4">
+        <v>0</v>
+      </c>
+      <c r="N145" s="4">
+        <v>0</v>
+      </c>
+      <c r="O145" s="4">
+        <v>0</v>
+      </c>
+      <c r="P145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C146" s="4">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="D146" s="4">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="E146" s="4">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F146" s="4">
-        <v>1590</v>
+        <v>1490</v>
       </c>
       <c r="G146" s="4">
-        <v>1900</v>
+        <v>1675</v>
       </c>
       <c r="H146" s="4">
-        <v>2230</v>
+        <v>1980</v>
       </c>
       <c r="I146" s="4">
-        <v>2570</v>
+        <v>2275</v>
       </c>
       <c r="J146" s="4">
-        <v>2885</v>
+        <v>2560</v>
       </c>
       <c r="K146" s="4">
-        <v>3190</v>
+        <v>2870</v>
       </c>
       <c r="L146" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3150</v>
+      </c>
+      <c r="M146" s="4">
+        <v>0</v>
+      </c>
+      <c r="N146" s="4">
+        <v>0</v>
+      </c>
+      <c r="O146" s="4">
+        <v>0</v>
+      </c>
+      <c r="P146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C147" s="4">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="D147" s="4">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="E147" s="4">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="F147" s="4">
-        <v>1420</v>
+        <v>1490</v>
       </c>
       <c r="G147" s="4">
-        <v>1750</v>
+        <v>1675</v>
       </c>
       <c r="H147" s="4">
-        <v>2040</v>
+        <v>1980</v>
       </c>
       <c r="I147" s="4">
-        <v>2295</v>
+        <v>2275</v>
       </c>
       <c r="J147" s="4">
-        <v>2590</v>
+        <v>2560</v>
       </c>
       <c r="K147" s="4">
-        <v>2850</v>
+        <v>2870</v>
       </c>
       <c r="L147" s="4">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3150</v>
+      </c>
+      <c r="M147" s="4">
+        <v>0</v>
+      </c>
+      <c r="N147" s="4">
+        <v>0</v>
+      </c>
+      <c r="O147" s="4">
+        <v>0</v>
+      </c>
+      <c r="P147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C148" s="4">
         <v>675</v>
@@ -6303,13 +8092,25 @@
       <c r="L148" s="4">
         <v>3480</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="4">
+        <v>0</v>
+      </c>
+      <c r="N148" s="4">
+        <v>0</v>
+      </c>
+      <c r="O148" s="4">
+        <v>0</v>
+      </c>
+      <c r="P148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C149" s="4">
         <v>675</v>
@@ -6318,408 +8119,1140 @@
         <v>880</v>
       </c>
       <c r="E149" s="4">
-        <v>1245</v>
+        <v>1265</v>
       </c>
       <c r="F149" s="4">
-        <v>1575</v>
+        <v>1590</v>
       </c>
       <c r="G149" s="4">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="H149" s="4">
-        <v>2235</v>
+        <v>2230</v>
       </c>
       <c r="I149" s="4">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="J149" s="4">
-        <v>2895</v>
+        <v>2885</v>
       </c>
       <c r="K149" s="4">
-        <v>3200</v>
+        <v>3190</v>
       </c>
       <c r="L149" s="4">
-        <v>3490</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3480</v>
+      </c>
+      <c r="M149" s="4">
+        <v>0</v>
+      </c>
+      <c r="N149" s="4">
+        <v>0</v>
+      </c>
+      <c r="O149" s="4">
+        <v>0</v>
+      </c>
+      <c r="P149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C150" s="4">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="D150" s="4">
-        <v>725</v>
+        <v>880</v>
       </c>
       <c r="E150" s="4">
-        <v>1050</v>
+        <v>1265</v>
       </c>
       <c r="F150" s="4">
-        <v>1270</v>
+        <v>1590</v>
       </c>
       <c r="G150" s="4">
-        <v>1540</v>
+        <v>1900</v>
       </c>
       <c r="H150" s="4">
-        <v>1670</v>
+        <v>2230</v>
       </c>
       <c r="I150" s="4">
-        <v>1905</v>
+        <v>2570</v>
       </c>
       <c r="J150" s="4">
-        <v>2050</v>
+        <v>2885</v>
       </c>
       <c r="K150" s="4">
-        <v>2270</v>
+        <v>3190</v>
       </c>
       <c r="L150" s="4">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3480</v>
+      </c>
+      <c r="M150" s="4">
+        <v>0</v>
+      </c>
+      <c r="N150" s="4">
+        <v>0</v>
+      </c>
+      <c r="O150" s="4">
+        <v>0</v>
+      </c>
+      <c r="P150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C151" s="4">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="D151" s="4">
-        <v>765</v>
+        <v>870</v>
       </c>
       <c r="E151" s="4">
-        <v>1065</v>
+        <v>1230</v>
       </c>
       <c r="F151" s="4">
-        <v>1275</v>
+        <v>1420</v>
       </c>
       <c r="G151" s="4">
-        <v>1540</v>
+        <v>1750</v>
       </c>
       <c r="H151" s="4">
-        <v>1670</v>
+        <v>2040</v>
       </c>
       <c r="I151" s="4">
-        <v>1905</v>
+        <v>2295</v>
       </c>
       <c r="J151" s="4">
-        <v>2050</v>
+        <v>2590</v>
       </c>
       <c r="K151" s="4">
-        <v>2270</v>
+        <v>2850</v>
       </c>
       <c r="L151" s="4">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3100</v>
+      </c>
+      <c r="M151" s="4">
+        <v>0</v>
+      </c>
+      <c r="N151" s="4">
+        <v>0</v>
+      </c>
+      <c r="O151" s="4">
+        <v>0</v>
+      </c>
+      <c r="P151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C152" s="4">
-        <v>535</v>
+        <v>675</v>
       </c>
       <c r="D152" s="4">
-        <v>775</v>
+        <v>880</v>
       </c>
       <c r="E152" s="4">
-        <v>1145</v>
+        <v>1265</v>
       </c>
       <c r="F152" s="4">
-        <v>1515</v>
+        <v>1590</v>
       </c>
       <c r="G152" s="4">
-        <v>1735</v>
+        <v>1900</v>
       </c>
       <c r="H152" s="4">
-        <v>2050</v>
+        <v>2230</v>
       </c>
       <c r="I152" s="4">
-        <v>2370</v>
+        <v>2570</v>
       </c>
       <c r="J152" s="4">
-        <v>2680</v>
+        <v>2885</v>
       </c>
       <c r="K152" s="4">
-        <v>3000</v>
+        <v>3190</v>
       </c>
       <c r="L152" s="4">
-        <v>3285</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3480</v>
+      </c>
+      <c r="M152" s="4">
+        <v>0</v>
+      </c>
+      <c r="N152" s="4">
+        <v>0</v>
+      </c>
+      <c r="O152" s="4">
+        <v>0</v>
+      </c>
+      <c r="P152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C153" s="4">
-        <v>520</v>
+        <v>675</v>
       </c>
       <c r="D153" s="4">
-        <v>755</v>
+        <v>880</v>
       </c>
       <c r="E153" s="4">
-        <v>1125</v>
+        <v>1245</v>
       </c>
       <c r="F153" s="4">
-        <v>1505</v>
+        <v>1575</v>
       </c>
       <c r="G153" s="4">
-        <v>1735</v>
+        <v>1905</v>
       </c>
       <c r="H153" s="4">
-        <v>2050</v>
+        <v>2235</v>
       </c>
       <c r="I153" s="4">
-        <v>2335</v>
+        <v>2575</v>
       </c>
       <c r="J153" s="4">
-        <v>2690</v>
+        <v>2895</v>
       </c>
       <c r="K153" s="4">
-        <v>3010</v>
+        <v>3200</v>
       </c>
       <c r="L153" s="4">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3490</v>
+      </c>
+      <c r="M153" s="4">
+        <v>0</v>
+      </c>
+      <c r="N153" s="4">
+        <v>0</v>
+      </c>
+      <c r="O153" s="4">
+        <v>0</v>
+      </c>
+      <c r="P153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C154" s="4">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="D154" s="4">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="E154" s="4">
-        <v>1145</v>
+        <v>1050</v>
       </c>
       <c r="F154" s="4">
-        <v>1515</v>
+        <v>1270</v>
       </c>
       <c r="G154" s="4">
-        <v>1735</v>
+        <v>1540</v>
       </c>
       <c r="H154" s="4">
+        <v>1670</v>
+      </c>
+      <c r="I154" s="4">
+        <v>1905</v>
+      </c>
+      <c r="J154" s="4">
         <v>2050</v>
       </c>
-      <c r="I154" s="4">
-        <v>2370</v>
-      </c>
-      <c r="J154" s="4">
-        <v>2680</v>
-      </c>
       <c r="K154" s="4">
-        <v>3000</v>
+        <v>2270</v>
       </c>
       <c r="L154" s="4">
-        <v>3285</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2395</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0</v>
+      </c>
+      <c r="N154" s="4">
+        <v>0</v>
+      </c>
+      <c r="O154" s="4">
+        <v>0</v>
+      </c>
+      <c r="P154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C155" s="4">
-        <v>785</v>
+        <v>475</v>
       </c>
       <c r="D155" s="4">
-        <v>1085</v>
+        <v>765</v>
       </c>
       <c r="E155" s="4">
-        <v>1350</v>
+        <v>1065</v>
       </c>
       <c r="F155" s="4">
-        <v>1680</v>
+        <v>1275</v>
       </c>
       <c r="G155" s="4">
-        <v>1775</v>
+        <v>1540</v>
       </c>
       <c r="H155" s="4">
-        <v>2100</v>
+        <v>1670</v>
       </c>
       <c r="I155" s="4">
-        <v>2415</v>
+        <v>1905</v>
       </c>
       <c r="J155" s="4">
-        <v>2680</v>
+        <v>2050</v>
       </c>
       <c r="K155" s="4">
-        <v>2970</v>
+        <v>2270</v>
       </c>
       <c r="L155" s="4">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2395</v>
+      </c>
+      <c r="M155" s="4">
+        <v>0</v>
+      </c>
+      <c r="N155" s="4">
+        <v>0</v>
+      </c>
+      <c r="O155" s="4">
+        <v>0</v>
+      </c>
+      <c r="P155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C156" s="4">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="D156" s="4">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="E156" s="4">
-        <v>1035</v>
+        <v>1145</v>
       </c>
       <c r="F156" s="4">
-        <v>1425</v>
+        <v>1515</v>
       </c>
       <c r="G156" s="4">
-        <v>1635</v>
+        <v>1735</v>
       </c>
       <c r="H156" s="4">
-        <v>1920</v>
+        <v>2050</v>
       </c>
       <c r="I156" s="4">
-        <v>2210</v>
+        <v>2370</v>
       </c>
       <c r="J156" s="4">
-        <v>2490</v>
+        <v>2680</v>
       </c>
       <c r="K156" s="4">
-        <v>2780</v>
+        <v>3000</v>
       </c>
       <c r="L156" s="4">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3285</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0</v>
+      </c>
+      <c r="N156" s="4">
+        <v>0</v>
+      </c>
+      <c r="O156" s="4">
+        <v>0</v>
+      </c>
+      <c r="P156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C157" s="4">
-        <v>575</v>
+        <v>520</v>
       </c>
       <c r="D157" s="4">
-        <v>920</v>
+        <v>755</v>
       </c>
       <c r="E157" s="4">
-        <v>1260</v>
+        <v>1125</v>
       </c>
       <c r="F157" s="4">
-        <v>1640</v>
+        <v>1505</v>
       </c>
       <c r="G157" s="4">
-        <v>1855</v>
+        <v>1735</v>
       </c>
       <c r="H157" s="4">
-        <v>2205</v>
+        <v>2050</v>
       </c>
       <c r="I157" s="4">
-        <v>2555</v>
+        <v>2335</v>
       </c>
       <c r="J157" s="4">
-        <v>2900</v>
+        <v>2690</v>
       </c>
       <c r="K157" s="4">
-        <v>3230</v>
+        <v>3010</v>
       </c>
       <c r="L157" s="4">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3295</v>
+      </c>
+      <c r="M157" s="4">
+        <v>0</v>
+      </c>
+      <c r="N157" s="4">
+        <v>0</v>
+      </c>
+      <c r="O157" s="4">
+        <v>0</v>
+      </c>
+      <c r="P157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C158" s="4">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="D158" s="4">
-        <v>920</v>
+        <v>775</v>
       </c>
       <c r="E158" s="4">
-        <v>1260</v>
+        <v>1145</v>
       </c>
       <c r="F158" s="4">
-        <v>1640</v>
+        <v>1515</v>
       </c>
       <c r="G158" s="4">
-        <v>1855</v>
+        <v>1735</v>
       </c>
       <c r="H158" s="4">
-        <v>2205</v>
+        <v>2050</v>
       </c>
       <c r="I158" s="4">
-        <v>2555</v>
+        <v>2370</v>
       </c>
       <c r="J158" s="4">
-        <v>2900</v>
+        <v>2680</v>
       </c>
       <c r="K158" s="4">
-        <v>3230</v>
+        <v>3000</v>
       </c>
       <c r="L158" s="4">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3285</v>
+      </c>
+      <c r="M158" s="4">
+        <v>0</v>
+      </c>
+      <c r="N158" s="4">
+        <v>0</v>
+      </c>
+      <c r="O158" s="4">
+        <v>0</v>
+      </c>
+      <c r="P158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C159" s="4">
+        <v>785</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1085</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1350</v>
+      </c>
+      <c r="F159" s="4">
+        <v>1680</v>
+      </c>
+      <c r="G159" s="4">
+        <v>1775</v>
+      </c>
+      <c r="H159" s="4">
+        <v>2100</v>
+      </c>
+      <c r="I159" s="4">
+        <v>2415</v>
+      </c>
+      <c r="J159" s="4">
+        <v>2680</v>
+      </c>
+      <c r="K159" s="4">
+        <v>2970</v>
+      </c>
+      <c r="L159" s="4">
+        <v>3250</v>
+      </c>
+      <c r="M159" s="4">
+        <v>0</v>
+      </c>
+      <c r="N159" s="4">
+        <v>0</v>
+      </c>
+      <c r="O159" s="4">
+        <v>0</v>
+      </c>
+      <c r="P159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C160" s="4">
+        <v>485</v>
+      </c>
+      <c r="D160" s="4">
+        <v>695</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1035</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1425</v>
+      </c>
+      <c r="G160" s="4">
+        <v>1635</v>
+      </c>
+      <c r="H160" s="4">
+        <v>1920</v>
+      </c>
+      <c r="I160" s="4">
+        <v>2210</v>
+      </c>
+      <c r="J160" s="4">
+        <v>2490</v>
+      </c>
+      <c r="K160" s="4">
+        <v>2780</v>
+      </c>
+      <c r="L160" s="4">
+        <v>3015</v>
+      </c>
+      <c r="M160" s="4">
+        <v>0</v>
+      </c>
+      <c r="N160" s="4">
+        <v>0</v>
+      </c>
+      <c r="O160" s="4">
+        <v>0</v>
+      </c>
+      <c r="P160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="4">
+        <v>575</v>
+      </c>
+      <c r="D161" s="4">
+        <v>920</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1260</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1640</v>
+      </c>
+      <c r="G161" s="4">
+        <v>1855</v>
+      </c>
+      <c r="H161" s="4">
+        <v>2205</v>
+      </c>
+      <c r="I161" s="4">
+        <v>2555</v>
+      </c>
+      <c r="J161" s="4">
+        <v>2900</v>
+      </c>
+      <c r="K161" s="4">
+        <v>3230</v>
+      </c>
+      <c r="L161" s="4">
+        <v>3535</v>
+      </c>
+      <c r="M161" s="4">
+        <v>0</v>
+      </c>
+      <c r="N161" s="4">
+        <v>0</v>
+      </c>
+      <c r="O161" s="4">
+        <v>0</v>
+      </c>
+      <c r="P161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" s="4">
+        <v>575</v>
+      </c>
+      <c r="D162" s="4">
+        <v>920</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1260</v>
+      </c>
+      <c r="F162" s="4">
+        <v>1640</v>
+      </c>
+      <c r="G162" s="4">
+        <v>1855</v>
+      </c>
+      <c r="H162" s="4">
+        <v>2205</v>
+      </c>
+      <c r="I162" s="4">
+        <v>2555</v>
+      </c>
+      <c r="J162" s="4">
+        <v>2900</v>
+      </c>
+      <c r="K162" s="4">
+        <v>3230</v>
+      </c>
+      <c r="L162" s="4">
+        <v>3535</v>
+      </c>
+      <c r="M162" s="4">
+        <v>0</v>
+      </c>
+      <c r="N162" s="4">
+        <v>0</v>
+      </c>
+      <c r="O162" s="4">
+        <v>0</v>
+      </c>
+      <c r="P162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C163" s="4">
         <v>575</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D163" s="4">
         <v>920</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E163" s="4">
         <v>1260</v>
       </c>
-      <c r="F159" s="4">
+      <c r="F163" s="4">
         <v>1640</v>
       </c>
-      <c r="G159" s="4">
+      <c r="G163" s="4">
         <v>1855</v>
       </c>
-      <c r="H159" s="4">
+      <c r="H163" s="4">
         <v>2205</v>
       </c>
-      <c r="I159" s="4">
+      <c r="I163" s="4">
         <v>2555</v>
       </c>
-      <c r="J159" s="4">
+      <c r="J163" s="4">
         <v>2900</v>
       </c>
-      <c r="K159" s="4">
+      <c r="K163" s="4">
         <v>3230</v>
       </c>
-      <c r="L159" s="4">
+      <c r="L163" s="4">
         <v>3535</v>
+      </c>
+      <c r="M163" s="4">
+        <v>0</v>
+      </c>
+      <c r="N163" s="4">
+        <v>0</v>
+      </c>
+      <c r="O163" s="4">
+        <v>0</v>
+      </c>
+      <c r="P163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" s="6">
+        <v>225</v>
+      </c>
+      <c r="D164" s="6">
+        <v>250</v>
+      </c>
+      <c r="E164" s="6">
+        <v>275</v>
+      </c>
+      <c r="F164" s="6">
+        <v>300</v>
+      </c>
+      <c r="G164" s="6">
+        <v>325</v>
+      </c>
+      <c r="H164" s="6">
+        <v>325</v>
+      </c>
+      <c r="I164" s="6">
+        <v>335</v>
+      </c>
+      <c r="J164" s="6">
+        <v>335</v>
+      </c>
+      <c r="K164" s="6">
+        <v>395</v>
+      </c>
+      <c r="L164" s="6">
+        <v>395</v>
+      </c>
+      <c r="M164" s="6">
+        <v>395</v>
+      </c>
+      <c r="N164" s="6">
+        <v>395</v>
+      </c>
+      <c r="O164" s="6">
+        <v>395</v>
+      </c>
+      <c r="P164" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C165" s="6">
+        <v>300</v>
+      </c>
+      <c r="D165" s="6">
+        <v>500</v>
+      </c>
+      <c r="E165" s="6">
+        <v>550</v>
+      </c>
+      <c r="F165" s="6">
+        <v>600</v>
+      </c>
+      <c r="G165" s="6">
+        <v>700</v>
+      </c>
+      <c r="H165" s="6">
+        <v>780</v>
+      </c>
+      <c r="I165" s="6">
+        <v>895</v>
+      </c>
+      <c r="J165" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K165" s="6">
+        <v>1110</v>
+      </c>
+      <c r="L165" s="6">
+        <v>1200</v>
+      </c>
+      <c r="M165" s="6">
+        <v>1265</v>
+      </c>
+      <c r="N165" s="6">
+        <v>1350</v>
+      </c>
+      <c r="O165" s="6">
+        <v>1365</v>
+      </c>
+      <c r="P165" s="6">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C166" s="6">
+        <v>365</v>
+      </c>
+      <c r="D166" s="6">
+        <v>650</v>
+      </c>
+      <c r="E166" s="6">
+        <v>855</v>
+      </c>
+      <c r="F166" s="6">
+        <v>985</v>
+      </c>
+      <c r="G166" s="6">
+        <v>1200</v>
+      </c>
+      <c r="H166" s="6">
+        <v>1425</v>
+      </c>
+      <c r="I166" s="6">
+        <v>1645</v>
+      </c>
+      <c r="J166" s="6">
+        <v>1860</v>
+      </c>
+      <c r="K166" s="6">
+        <v>2070</v>
+      </c>
+      <c r="L166" s="6">
+        <v>2250</v>
+      </c>
+      <c r="M166" s="6">
+        <v>2464</v>
+      </c>
+      <c r="N166" s="6">
+        <v>2670</v>
+      </c>
+      <c r="O166" s="6">
+        <v>2860</v>
+      </c>
+      <c r="P166" s="6">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" s="6">
+        <v>350</v>
+      </c>
+      <c r="D167" s="6">
+        <v>585</v>
+      </c>
+      <c r="E167" s="6">
+        <v>870</v>
+      </c>
+      <c r="F167" s="6">
+        <v>1150</v>
+      </c>
+      <c r="G167" s="6">
+        <v>1400</v>
+      </c>
+      <c r="H167" s="6">
+        <v>1650</v>
+      </c>
+      <c r="I167" s="6">
+        <v>1890</v>
+      </c>
+      <c r="J167" s="6">
+        <v>2080</v>
+      </c>
+      <c r="K167" s="6">
+        <v>2295</v>
+      </c>
+      <c r="L167" s="6">
+        <v>2400</v>
+      </c>
+      <c r="M167" s="6">
+        <v>2612.5</v>
+      </c>
+      <c r="N167" s="6">
+        <v>2820</v>
+      </c>
+      <c r="O167" s="6">
+        <v>2990</v>
+      </c>
+      <c r="P167" s="6">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" s="6">
+        <v>375</v>
+      </c>
+      <c r="D168" s="6">
+        <v>700</v>
+      </c>
+      <c r="E168" s="6">
+        <v>990</v>
+      </c>
+      <c r="F168" s="6">
+        <v>1300</v>
+      </c>
+      <c r="G168" s="6">
+        <v>1575</v>
+      </c>
+      <c r="H168" s="6">
+        <v>1860</v>
+      </c>
+      <c r="I168" s="6">
+        <v>2135</v>
+      </c>
+      <c r="J168" s="6">
+        <v>2400</v>
+      </c>
+      <c r="K168" s="6">
+        <v>2655</v>
+      </c>
+      <c r="L168" s="6">
+        <v>2700</v>
+      </c>
+      <c r="M168" s="6">
+        <v>2942.5</v>
+      </c>
+      <c r="N168" s="6">
+        <v>3180</v>
+      </c>
+      <c r="O168" s="6">
+        <v>3380</v>
+      </c>
+      <c r="P168" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169" s="6">
+        <v>415</v>
+      </c>
+      <c r="D169" s="6">
+        <v>730</v>
+      </c>
+      <c r="E169" s="6">
+        <v>1080</v>
+      </c>
+      <c r="F169" s="6">
+        <v>1420</v>
+      </c>
+      <c r="G169" s="6">
+        <v>1750</v>
+      </c>
+      <c r="H169" s="6">
+        <v>2070</v>
+      </c>
+      <c r="I169" s="6">
+        <v>2380</v>
+      </c>
+      <c r="J169" s="6">
+        <v>2680</v>
+      </c>
+      <c r="K169" s="6">
+        <v>2970</v>
+      </c>
+      <c r="L169" s="6">
+        <v>3100</v>
+      </c>
+      <c r="M169" s="6">
+        <v>3355</v>
+      </c>
+      <c r="N169" s="6">
+        <v>3600</v>
+      </c>
+      <c r="O169" s="6">
+        <v>3835</v>
+      </c>
+      <c r="P169" s="6">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="6">
+        <v>485</v>
+      </c>
+      <c r="D170" s="6">
+        <v>860</v>
+      </c>
+      <c r="E170" s="6">
+        <v>1245</v>
+      </c>
+      <c r="F170" s="6">
+        <v>1640</v>
+      </c>
+      <c r="G170" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H170" s="6">
+        <v>2370</v>
+      </c>
+      <c r="I170" s="6">
+        <v>2730</v>
+      </c>
+      <c r="J170" s="6">
+        <v>3040</v>
+      </c>
+      <c r="K170" s="6">
+        <v>3375</v>
+      </c>
+      <c r="L170" s="6">
+        <v>3500</v>
+      </c>
+      <c r="M170" s="6">
+        <v>3822.5</v>
+      </c>
+      <c r="N170" s="6">
+        <v>4080</v>
+      </c>
+      <c r="O170" s="6">
+        <v>4355</v>
+      </c>
+      <c r="P170" s="6">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="6">
+        <v>475</v>
+      </c>
+      <c r="D171" s="6">
+        <v>840</v>
+      </c>
+      <c r="E171" s="6">
+        <v>1245</v>
+      </c>
+      <c r="F171" s="6">
+        <v>1640</v>
+      </c>
+      <c r="G171" s="6">
+        <v>1987.5</v>
+      </c>
+      <c r="H171" s="6">
+        <v>2355</v>
+      </c>
+      <c r="I171" s="6">
+        <v>2712.5</v>
+      </c>
+      <c r="J171" s="6">
+        <v>3020</v>
+      </c>
+      <c r="K171" s="6">
+        <v>3352.5</v>
+      </c>
+      <c r="L171" s="6">
+        <v>3500</v>
+      </c>
+      <c r="M171" s="6">
+        <v>3795</v>
+      </c>
+      <c r="N171" s="6">
+        <v>4050</v>
+      </c>
+      <c r="O171" s="6">
+        <v>4322.5</v>
+      </c>
+      <c r="P171" s="6">
+        <v>4529</v>
       </c>
     </row>
   </sheetData>

--- a/db/stir.xlsx
+++ b/db/stir.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>Calera, AL</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Salt Lake City, UT</t>
   </si>
   <si>
-    <t>Kent , WA</t>
-  </si>
-  <si>
     <t>Pacific, WA</t>
   </si>
   <si>
@@ -302,6 +299,12 @@
   </si>
   <si>
     <t>Olympia, WA</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>Kent, WA</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -374,7 +377,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -692,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -757,7 +759,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -807,7 +809,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -857,7 +859,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -907,7 +909,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -957,7 +959,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1007,7 +1009,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1057,7 +1059,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1107,7 +1109,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -1157,7 +1159,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1207,7 +1209,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -1257,7 +1259,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -1307,7 +1309,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1357,7 +1359,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1407,7 +1409,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1457,7 +1459,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
@@ -1507,7 +1509,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -1557,7 +1559,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1607,7 +1609,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1657,7 +1659,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -1707,7 +1709,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -1757,7 +1759,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
@@ -1807,7 +1809,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -1857,7 +1859,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -1907,7 +1909,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -1957,7 +1959,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -2007,7 +2009,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -2057,7 +2059,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -2107,7 +2109,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -2157,7 +2159,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -2207,7 +2209,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
@@ -2257,7 +2259,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
@@ -2307,7 +2309,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
@@ -2357,7 +2359,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -2407,7 +2409,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -2457,7 +2459,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
@@ -2507,7 +2509,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>35</v>
@@ -2557,7 +2559,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -2607,7 +2609,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -2657,7 +2659,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
@@ -2707,7 +2709,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
@@ -2757,7 +2759,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
@@ -2807,7 +2809,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
@@ -2857,7 +2859,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -2907,7 +2909,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
@@ -2957,7 +2959,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -3007,7 +3009,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -3057,7 +3059,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
@@ -3107,7 +3109,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -3157,7 +3159,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
@@ -3207,7 +3209,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>
@@ -3257,7 +3259,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
@@ -3307,7 +3309,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
@@ -3357,7 +3359,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>52</v>
@@ -3407,7 +3409,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -3457,7 +3459,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>54</v>
@@ -3507,7 +3509,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>55</v>
@@ -3557,7 +3559,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>56</v>
@@ -3607,7 +3609,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>57</v>
@@ -3657,7 +3659,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
@@ -3707,7 +3709,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>59</v>
@@ -3757,7 +3759,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
@@ -3807,7 +3809,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
@@ -3857,10 +3859,10 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="4">
         <v>585</v>
@@ -3907,7 +3909,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>62</v>
@@ -3957,10 +3959,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="4">
         <v>585</v>
@@ -4007,7 +4009,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>63</v>
@@ -4057,7 +4059,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>64</v>
@@ -4107,7 +4109,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>65</v>
@@ -4157,7 +4159,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>66</v>
@@ -4207,7 +4209,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>67</v>
@@ -4257,7 +4259,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>68</v>
@@ -4307,7 +4309,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>69</v>
@@ -4357,7 +4359,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>70</v>
@@ -4407,10 +4409,10 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C75" s="4">
         <v>485</v>
@@ -4457,10 +4459,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4">
         <v>485</v>
@@ -4507,10 +4509,10 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="4">
         <v>485</v>
@@ -4557,10 +4559,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4">
         <v>760</v>
@@ -4607,10 +4609,10 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4">
         <v>485</v>
@@ -4657,10 +4659,10 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="4">
         <v>525</v>
@@ -4707,10 +4709,10 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="4">
         <v>525</v>
@@ -4757,10 +4759,10 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="4">
         <v>525</v>
@@ -4807,440 +4809,440 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C83" s="4">
-        <v>745</v>
+        <v>225</v>
       </c>
       <c r="D83" s="4">
-        <v>1230</v>
+        <v>250</v>
       </c>
       <c r="E83" s="4">
-        <v>1755</v>
+        <v>275</v>
       </c>
       <c r="F83" s="4">
-        <v>2220</v>
+        <v>300</v>
       </c>
       <c r="G83" s="4">
-        <v>2500</v>
+        <v>325</v>
       </c>
       <c r="H83" s="4">
-        <v>2855</v>
+        <v>325</v>
       </c>
       <c r="I83" s="4">
-        <v>3030</v>
+        <v>335</v>
       </c>
       <c r="J83" s="4">
-        <v>3340</v>
+        <v>335</v>
       </c>
       <c r="K83" s="4">
-        <v>3720</v>
+        <v>395</v>
       </c>
       <c r="L83" s="4">
-        <v>4025</v>
+        <v>395</v>
       </c>
       <c r="M83" s="4">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="N83" s="4">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="O83" s="4">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="P83" s="4">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C84" s="4">
-        <v>845</v>
+        <v>300</v>
       </c>
       <c r="D84" s="4">
-        <v>1170</v>
+        <v>500</v>
       </c>
       <c r="E84" s="4">
-        <v>1660</v>
+        <v>550</v>
       </c>
       <c r="F84" s="4">
-        <v>2180</v>
+        <v>600</v>
       </c>
       <c r="G84" s="4">
-        <v>2630</v>
+        <v>700</v>
       </c>
       <c r="H84" s="4">
-        <v>2720</v>
+        <v>780</v>
       </c>
       <c r="I84" s="4">
-        <v>3110</v>
+        <v>895</v>
       </c>
       <c r="J84" s="4">
-        <v>3490</v>
+        <v>1000</v>
       </c>
       <c r="K84" s="4">
-        <v>3860</v>
+        <v>1110</v>
       </c>
       <c r="L84" s="4">
-        <v>4170</v>
+        <v>1200</v>
       </c>
       <c r="M84" s="4">
-        <v>0</v>
+        <v>1265</v>
       </c>
       <c r="N84" s="4">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="O84" s="4">
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="P84" s="4">
-        <v>0</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C85" s="4">
-        <v>550</v>
+        <v>365</v>
       </c>
       <c r="D85" s="4">
-        <v>870</v>
+        <v>650</v>
       </c>
       <c r="E85" s="4">
-        <v>1245</v>
+        <v>855</v>
       </c>
       <c r="F85" s="4">
-        <v>1530</v>
+        <v>985</v>
       </c>
       <c r="G85" s="4">
-        <v>1785</v>
+        <v>1200</v>
       </c>
       <c r="H85" s="4">
-        <v>2050</v>
+        <v>1425</v>
       </c>
       <c r="I85" s="4">
-        <v>2315</v>
+        <v>1645</v>
       </c>
       <c r="J85" s="4">
-        <v>2550</v>
+        <v>1860</v>
       </c>
       <c r="K85" s="4">
-        <v>2780</v>
+        <v>2070</v>
       </c>
       <c r="L85" s="4">
-        <v>2960</v>
+        <v>2250</v>
       </c>
       <c r="M85" s="4">
-        <v>0</v>
+        <v>2464</v>
       </c>
       <c r="N85" s="4">
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="O85" s="4">
-        <v>0</v>
+        <v>2860</v>
       </c>
       <c r="P85" s="4">
-        <v>0</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C86" s="4">
-        <v>845</v>
+        <v>350</v>
       </c>
       <c r="D86" s="4">
-        <v>1260</v>
+        <v>585</v>
       </c>
       <c r="E86" s="4">
-        <v>1785</v>
+        <v>870</v>
       </c>
       <c r="F86" s="4">
-        <v>2320</v>
+        <v>1150</v>
       </c>
       <c r="G86" s="4">
-        <v>2720</v>
+        <v>1400</v>
       </c>
       <c r="H86" s="4">
-        <v>3230</v>
+        <v>1650</v>
       </c>
       <c r="I86" s="4">
-        <v>3710</v>
+        <v>1890</v>
       </c>
       <c r="J86" s="4">
-        <v>4140</v>
+        <v>2080</v>
       </c>
       <c r="K86" s="4">
-        <v>4570</v>
+        <v>2295</v>
       </c>
       <c r="L86" s="4">
-        <v>4900</v>
+        <v>2400</v>
       </c>
       <c r="M86" s="4">
-        <v>0</v>
+        <v>2612.5</v>
       </c>
       <c r="N86" s="4">
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="O86" s="4">
-        <v>0</v>
+        <v>2990</v>
       </c>
       <c r="P86" s="4">
-        <v>0</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C87" s="4">
-        <v>820</v>
+        <v>375</v>
       </c>
       <c r="D87" s="4">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="E87" s="4">
-        <v>1765</v>
+        <v>990</v>
       </c>
       <c r="F87" s="4">
-        <v>2305</v>
+        <v>1300</v>
       </c>
       <c r="G87" s="4">
-        <v>2695</v>
+        <v>1575</v>
       </c>
       <c r="H87" s="4">
-        <v>3175</v>
+        <v>1860</v>
       </c>
       <c r="I87" s="4">
-        <v>3625</v>
+        <v>2135</v>
       </c>
       <c r="J87" s="4">
-        <v>4025</v>
+        <v>2400</v>
       </c>
       <c r="K87" s="4">
-        <v>4425</v>
+        <v>2655</v>
       </c>
       <c r="L87" s="4">
-        <v>4725</v>
+        <v>2700</v>
       </c>
       <c r="M87" s="4">
-        <v>0</v>
+        <v>2942.5</v>
       </c>
       <c r="N87" s="4">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="O87" s="4">
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="P87" s="4">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C88" s="4">
-        <v>795</v>
+        <v>415</v>
       </c>
       <c r="D88" s="4">
-        <v>1065</v>
+        <v>730</v>
       </c>
       <c r="E88" s="4">
-        <v>1485</v>
+        <v>1080</v>
       </c>
       <c r="F88" s="4">
-        <v>1965</v>
+        <v>1420</v>
       </c>
       <c r="G88" s="4">
-        <v>2410</v>
+        <v>1750</v>
       </c>
       <c r="H88" s="4">
-        <v>2870</v>
+        <v>2070</v>
       </c>
       <c r="I88" s="4">
-        <v>3335</v>
+        <v>2380</v>
       </c>
       <c r="J88" s="4">
-        <v>3780</v>
+        <v>2680</v>
       </c>
       <c r="K88" s="4">
-        <v>4180</v>
+        <v>2970</v>
       </c>
       <c r="L88" s="4">
-        <v>4520</v>
+        <v>3100</v>
       </c>
       <c r="M88" s="4">
-        <v>0</v>
+        <v>3355</v>
       </c>
       <c r="N88" s="4">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="O88" s="4">
-        <v>0</v>
+        <v>3835</v>
       </c>
       <c r="P88" s="4">
-        <v>0</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C89" s="4">
-        <v>795</v>
+        <v>485</v>
       </c>
       <c r="D89" s="4">
-        <v>1055</v>
+        <v>860</v>
       </c>
       <c r="E89" s="4">
-        <v>1535</v>
+        <v>1245</v>
       </c>
       <c r="F89" s="4">
-        <v>1940</v>
+        <v>1640</v>
       </c>
       <c r="G89" s="4">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="H89" s="4">
-        <v>2705</v>
+        <v>2370</v>
       </c>
       <c r="I89" s="4">
-        <v>3110</v>
+        <v>2730</v>
       </c>
       <c r="J89" s="4">
-        <v>3505</v>
+        <v>3040</v>
       </c>
       <c r="K89" s="4">
-        <v>3890</v>
+        <v>3375</v>
       </c>
       <c r="L89" s="4">
-        <v>4265</v>
+        <v>3500</v>
       </c>
       <c r="M89" s="4">
-        <v>0</v>
+        <v>3822.5</v>
       </c>
       <c r="N89" s="4">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="O89" s="4">
-        <v>0</v>
+        <v>4355</v>
       </c>
       <c r="P89" s="4">
-        <v>0</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C90" s="4">
-        <v>795</v>
+        <v>475</v>
       </c>
       <c r="D90" s="4">
-        <v>1065</v>
+        <v>840</v>
       </c>
       <c r="E90" s="4">
-        <v>1485</v>
+        <v>1245</v>
       </c>
       <c r="F90" s="4">
-        <v>1840</v>
+        <v>1640</v>
       </c>
       <c r="G90" s="4">
-        <v>2285</v>
+        <v>1987.5</v>
       </c>
       <c r="H90" s="4">
-        <v>2675</v>
+        <v>2355</v>
       </c>
       <c r="I90" s="4">
-        <v>3075</v>
+        <v>2712.5</v>
       </c>
       <c r="J90" s="4">
-        <v>3464</v>
+        <v>3020</v>
       </c>
       <c r="K90" s="4">
-        <v>3845</v>
+        <v>3352.5</v>
       </c>
       <c r="L90" s="4">
-        <v>4215</v>
+        <v>3500</v>
       </c>
       <c r="M90" s="4">
-        <v>0</v>
+        <v>3795</v>
       </c>
       <c r="N90" s="4">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="O90" s="4">
-        <v>0</v>
+        <v>4322.5</v>
       </c>
       <c r="P90" s="4">
-        <v>0</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C91" s="4">
-        <v>810</v>
+        <v>745</v>
       </c>
       <c r="D91" s="4">
-        <v>1070</v>
+        <v>1230</v>
       </c>
       <c r="E91" s="4">
-        <v>1505</v>
+        <v>1755</v>
       </c>
       <c r="F91" s="4">
-        <v>1980</v>
+        <v>2220</v>
       </c>
       <c r="G91" s="4">
-        <v>2435</v>
+        <v>2500</v>
       </c>
       <c r="H91" s="4">
-        <v>2900</v>
+        <v>2855</v>
       </c>
       <c r="I91" s="4">
-        <v>3370</v>
+        <v>3030</v>
       </c>
       <c r="J91" s="4">
-        <v>3820</v>
+        <v>3340</v>
       </c>
       <c r="K91" s="4">
-        <v>4220</v>
+        <v>3720</v>
       </c>
       <c r="L91" s="4">
-        <v>4570</v>
+        <v>4025</v>
       </c>
       <c r="M91" s="4">
         <v>0</v>
@@ -5257,40 +5259,40 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C92" s="4">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D92" s="4">
-        <v>1135</v>
+        <v>1170</v>
       </c>
       <c r="E92" s="4">
-        <v>1670</v>
+        <v>1660</v>
       </c>
       <c r="F92" s="4">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="G92" s="4">
-        <v>2645</v>
+        <v>2630</v>
       </c>
       <c r="H92" s="4">
-        <v>3060</v>
+        <v>2720</v>
       </c>
       <c r="I92" s="4">
+        <v>3110</v>
+      </c>
+      <c r="J92" s="4">
         <v>3490</v>
       </c>
-      <c r="J92" s="4">
-        <v>3930</v>
-      </c>
       <c r="K92" s="4">
-        <v>4275</v>
+        <v>3860</v>
       </c>
       <c r="L92" s="4">
-        <v>4690</v>
+        <v>4170</v>
       </c>
       <c r="M92" s="4">
         <v>0</v>
@@ -5307,40 +5309,40 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4">
-        <v>840</v>
+        <v>550</v>
       </c>
       <c r="D93" s="4">
-        <v>1135</v>
+        <v>870</v>
       </c>
       <c r="E93" s="4">
-        <v>1670</v>
+        <v>1245</v>
       </c>
       <c r="F93" s="4">
-        <v>2190</v>
+        <v>1530</v>
       </c>
       <c r="G93" s="4">
-        <v>2645</v>
+        <v>1785</v>
       </c>
       <c r="H93" s="4">
-        <v>3060</v>
+        <v>2050</v>
       </c>
       <c r="I93" s="4">
-        <v>3490</v>
+        <v>2315</v>
       </c>
       <c r="J93" s="4">
-        <v>3930</v>
+        <v>2550</v>
       </c>
       <c r="K93" s="4">
-        <v>4275</v>
+        <v>2780</v>
       </c>
       <c r="L93" s="4">
-        <v>4690</v>
+        <v>2960</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
@@ -5357,40 +5359,40 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C94" s="4">
-        <v>810</v>
+        <v>845</v>
       </c>
       <c r="D94" s="4">
-        <v>1070</v>
+        <v>1260</v>
       </c>
       <c r="E94" s="4">
-        <v>1505</v>
+        <v>1785</v>
       </c>
       <c r="F94" s="4">
-        <v>1980</v>
+        <v>2320</v>
       </c>
       <c r="G94" s="4">
-        <v>2435</v>
+        <v>2720</v>
       </c>
       <c r="H94" s="4">
-        <v>2900</v>
+        <v>3230</v>
       </c>
       <c r="I94" s="4">
-        <v>3370</v>
+        <v>3710</v>
       </c>
       <c r="J94" s="4">
-        <v>3820</v>
+        <v>4140</v>
       </c>
       <c r="K94" s="4">
-        <v>4220</v>
+        <v>4570</v>
       </c>
       <c r="L94" s="4">
-        <v>4570</v>
+        <v>4900</v>
       </c>
       <c r="M94" s="4">
         <v>0</v>
@@ -5407,40 +5409,40 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="D95" s="4">
-        <v>1180</v>
+        <v>1250</v>
       </c>
       <c r="E95" s="4">
-        <v>1660</v>
+        <v>1765</v>
       </c>
       <c r="F95" s="4">
-        <v>2080</v>
+        <v>2305</v>
       </c>
       <c r="G95" s="4">
-        <v>2530</v>
+        <v>2695</v>
       </c>
       <c r="H95" s="4">
-        <v>2940</v>
+        <v>3175</v>
       </c>
       <c r="I95" s="4">
-        <v>3390</v>
+        <v>3625</v>
       </c>
       <c r="J95" s="4">
-        <v>3860</v>
+        <v>4025</v>
       </c>
       <c r="K95" s="4">
-        <v>4250</v>
+        <v>4425</v>
       </c>
       <c r="L95" s="4">
-        <v>4620</v>
+        <v>4725</v>
       </c>
       <c r="M95" s="4">
         <v>0</v>
@@ -5457,40 +5459,40 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C96" s="4">
-        <v>695</v>
+        <v>795</v>
       </c>
       <c r="D96" s="4">
-        <v>985</v>
+        <v>1065</v>
       </c>
       <c r="E96" s="4">
-        <v>1365</v>
+        <v>1485</v>
       </c>
       <c r="F96" s="4">
-        <v>1760</v>
+        <v>1965</v>
       </c>
       <c r="G96" s="4">
-        <v>2100</v>
+        <v>2410</v>
       </c>
       <c r="H96" s="4">
-        <v>2460</v>
+        <v>2870</v>
       </c>
       <c r="I96" s="4">
-        <v>2775</v>
+        <v>3335</v>
       </c>
       <c r="J96" s="4">
-        <v>3140</v>
+        <v>3780</v>
       </c>
       <c r="K96" s="4">
-        <v>3490</v>
+        <v>4180</v>
       </c>
       <c r="L96" s="4">
-        <v>3850</v>
+        <v>4520</v>
       </c>
       <c r="M96" s="4">
         <v>0</v>
@@ -5507,40 +5509,40 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C97" s="4">
-        <v>675</v>
+        <v>795</v>
       </c>
       <c r="D97" s="4">
-        <v>955</v>
+        <v>1055</v>
       </c>
       <c r="E97" s="4">
-        <v>1385</v>
+        <v>1535</v>
       </c>
       <c r="F97" s="4">
-        <v>1790</v>
+        <v>1940</v>
       </c>
       <c r="G97" s="4">
-        <v>2185</v>
+        <v>2300</v>
       </c>
       <c r="H97" s="4">
-        <v>2590</v>
+        <v>2705</v>
       </c>
       <c r="I97" s="4">
-        <v>2985</v>
+        <v>3110</v>
       </c>
       <c r="J97" s="4">
-        <v>3340</v>
+        <v>3505</v>
       </c>
       <c r="K97" s="4">
-        <v>3720</v>
+        <v>3890</v>
       </c>
       <c r="L97" s="4">
-        <v>4025</v>
+        <v>4265</v>
       </c>
       <c r="M97" s="4">
         <v>0</v>
@@ -5557,40 +5559,40 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C98" s="4">
-        <v>675</v>
+        <v>795</v>
       </c>
       <c r="D98" s="4">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="E98" s="4">
-        <v>1385</v>
+        <v>1485</v>
       </c>
       <c r="F98" s="4">
-        <v>1790</v>
+        <v>1840</v>
       </c>
       <c r="G98" s="4">
-        <v>2185</v>
+        <v>2285</v>
       </c>
       <c r="H98" s="4">
-        <v>2590</v>
+        <v>2675</v>
       </c>
       <c r="I98" s="4">
-        <v>2985</v>
+        <v>3075</v>
       </c>
       <c r="J98" s="4">
-        <v>3340</v>
+        <v>3464</v>
       </c>
       <c r="K98" s="4">
-        <v>3720</v>
+        <v>3845</v>
       </c>
       <c r="L98" s="4">
-        <v>4025</v>
+        <v>4215</v>
       </c>
       <c r="M98" s="4">
         <v>0</v>
@@ -5607,40 +5609,40 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C99" s="4">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D99" s="4">
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="E99" s="4">
-        <v>1245</v>
+        <v>1505</v>
       </c>
       <c r="F99" s="4">
-        <v>1620</v>
+        <v>1980</v>
       </c>
       <c r="G99" s="4">
-        <v>1925</v>
+        <v>2435</v>
       </c>
       <c r="H99" s="4">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="I99" s="4">
-        <v>2550</v>
+        <v>3370</v>
       </c>
       <c r="J99" s="4">
-        <v>2865</v>
+        <v>3820</v>
       </c>
       <c r="K99" s="4">
-        <v>3165</v>
+        <v>4220</v>
       </c>
       <c r="L99" s="4">
-        <v>3485</v>
+        <v>4570</v>
       </c>
       <c r="M99" s="4">
         <v>0</v>
@@ -5657,40 +5659,40 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C100" s="4">
-        <v>535</v>
+        <v>840</v>
       </c>
       <c r="D100" s="4">
-        <v>830</v>
+        <v>1135</v>
       </c>
       <c r="E100" s="4">
-        <v>1170</v>
+        <v>1670</v>
       </c>
       <c r="F100" s="4">
-        <v>1530</v>
+        <v>2190</v>
       </c>
       <c r="G100" s="4">
-        <v>1855</v>
+        <v>2645</v>
       </c>
       <c r="H100" s="4">
-        <v>2205</v>
+        <v>3060</v>
       </c>
       <c r="I100" s="4">
-        <v>2555</v>
+        <v>3490</v>
       </c>
       <c r="J100" s="4">
-        <v>2900</v>
+        <v>3930</v>
       </c>
       <c r="K100" s="4">
-        <v>3230</v>
+        <v>4275</v>
       </c>
       <c r="L100" s="4">
-        <v>3535</v>
+        <v>4690</v>
       </c>
       <c r="M100" s="4">
         <v>0</v>
@@ -5707,40 +5709,40 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C101" s="4">
-        <v>535</v>
+        <v>840</v>
       </c>
       <c r="D101" s="4">
-        <v>830</v>
+        <v>1135</v>
       </c>
       <c r="E101" s="4">
-        <v>1170</v>
+        <v>1670</v>
       </c>
       <c r="F101" s="4">
-        <v>1530</v>
+        <v>2190</v>
       </c>
       <c r="G101" s="4">
-        <v>1855</v>
+        <v>2645</v>
       </c>
       <c r="H101" s="4">
-        <v>2205</v>
+        <v>3060</v>
       </c>
       <c r="I101" s="4">
-        <v>2555</v>
+        <v>3490</v>
       </c>
       <c r="J101" s="4">
-        <v>2900</v>
+        <v>3930</v>
       </c>
       <c r="K101" s="4">
-        <v>3230</v>
+        <v>4275</v>
       </c>
       <c r="L101" s="4">
-        <v>3535</v>
+        <v>4690</v>
       </c>
       <c r="M101" s="4">
         <v>0</v>
@@ -5757,40 +5759,40 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C102" s="4">
-        <v>525</v>
+        <v>810</v>
       </c>
       <c r="D102" s="4">
-        <v>820</v>
+        <v>1070</v>
       </c>
       <c r="E102" s="4">
-        <v>1150</v>
+        <v>1505</v>
       </c>
       <c r="F102" s="4">
-        <v>1515</v>
+        <v>1980</v>
       </c>
       <c r="G102" s="4">
-        <v>1830</v>
+        <v>2435</v>
       </c>
       <c r="H102" s="4">
-        <v>2150</v>
+        <v>2900</v>
       </c>
       <c r="I102" s="4">
-        <v>2550</v>
+        <v>3370</v>
       </c>
       <c r="J102" s="4">
-        <v>2725</v>
+        <v>3820</v>
       </c>
       <c r="K102" s="4">
-        <v>3165</v>
+        <v>4220</v>
       </c>
       <c r="L102" s="4">
-        <v>3485</v>
+        <v>4570</v>
       </c>
       <c r="M102" s="4">
         <v>0</v>
@@ -5807,40 +5809,40 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C103" s="4">
-        <v>525</v>
+        <v>850</v>
       </c>
       <c r="D103" s="4">
-        <v>820</v>
+        <v>1180</v>
       </c>
       <c r="E103" s="4">
-        <v>1150</v>
+        <v>1660</v>
       </c>
       <c r="F103" s="4">
-        <v>1515</v>
+        <v>2080</v>
       </c>
       <c r="G103" s="4">
-        <v>1830</v>
+        <v>2530</v>
       </c>
       <c r="H103" s="4">
-        <v>2150</v>
+        <v>2940</v>
       </c>
       <c r="I103" s="4">
-        <v>2550</v>
+        <v>3390</v>
       </c>
       <c r="J103" s="4">
-        <v>2725</v>
+        <v>3860</v>
       </c>
       <c r="K103" s="4">
-        <v>3165</v>
+        <v>4250</v>
       </c>
       <c r="L103" s="4">
-        <v>3485</v>
+        <v>4620</v>
       </c>
       <c r="M103" s="4">
         <v>0</v>
@@ -5857,40 +5859,40 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C104" s="4">
-        <v>535</v>
+        <v>695</v>
       </c>
       <c r="D104" s="4">
-        <v>830</v>
+        <v>985</v>
       </c>
       <c r="E104" s="4">
-        <v>1170</v>
+        <v>1365</v>
       </c>
       <c r="F104" s="4">
-        <v>1530</v>
+        <v>1760</v>
       </c>
       <c r="G104" s="4">
-        <v>1855</v>
+        <v>2100</v>
       </c>
       <c r="H104" s="4">
-        <v>2205</v>
+        <v>2460</v>
       </c>
       <c r="I104" s="4">
-        <v>2555</v>
+        <v>2775</v>
       </c>
       <c r="J104" s="4">
-        <v>2900</v>
+        <v>3140</v>
       </c>
       <c r="K104" s="4">
-        <v>3230</v>
+        <v>3490</v>
       </c>
       <c r="L104" s="4">
-        <v>3535</v>
+        <v>3850</v>
       </c>
       <c r="M104" s="4">
         <v>0</v>
@@ -5907,40 +5909,40 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C105" s="4">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="D105" s="4">
-        <v>930</v>
+        <v>955</v>
       </c>
       <c r="E105" s="4">
-        <v>1370</v>
+        <v>1385</v>
       </c>
       <c r="F105" s="4">
         <v>1790</v>
       </c>
       <c r="G105" s="4">
-        <v>2155</v>
+        <v>2185</v>
       </c>
       <c r="H105" s="4">
-        <v>2545</v>
+        <v>2590</v>
       </c>
       <c r="I105" s="4">
-        <v>2920</v>
+        <v>2985</v>
       </c>
       <c r="J105" s="4">
-        <v>3295</v>
+        <v>3340</v>
       </c>
       <c r="K105" s="4">
-        <v>3680</v>
+        <v>3720</v>
       </c>
       <c r="L105" s="4">
-        <v>4050</v>
+        <v>4025</v>
       </c>
       <c r="M105" s="4">
         <v>0</v>
@@ -5957,40 +5959,40 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C106" s="4">
-        <v>715</v>
+        <v>675</v>
       </c>
       <c r="D106" s="4">
-        <v>1130</v>
+        <v>955</v>
       </c>
       <c r="E106" s="4">
         <v>1385</v>
       </c>
       <c r="F106" s="4">
-        <v>1825</v>
+        <v>1790</v>
       </c>
       <c r="G106" s="4">
-        <v>2220</v>
+        <v>2185</v>
       </c>
       <c r="H106" s="4">
-        <v>2630</v>
+        <v>2590</v>
       </c>
       <c r="I106" s="4">
-        <v>3025</v>
+        <v>2985</v>
       </c>
       <c r="J106" s="4">
-        <v>3410</v>
+        <v>3340</v>
       </c>
       <c r="K106" s="4">
-        <v>3780</v>
+        <v>3720</v>
       </c>
       <c r="L106" s="4">
-        <v>4140</v>
+        <v>4025</v>
       </c>
       <c r="M106" s="4">
         <v>0</v>
@@ -6007,40 +6009,40 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C107" s="4">
-        <v>575</v>
+        <v>815</v>
       </c>
       <c r="D107" s="4">
-        <v>930</v>
+        <v>1120</v>
       </c>
       <c r="E107" s="4">
-        <v>1300</v>
+        <v>1245</v>
       </c>
       <c r="F107" s="4">
-        <v>1700</v>
+        <v>1620</v>
       </c>
       <c r="G107" s="4">
-        <v>2010</v>
+        <v>1925</v>
       </c>
       <c r="H107" s="4">
-        <v>2375</v>
+        <v>2200</v>
       </c>
       <c r="I107" s="4">
-        <v>2670</v>
+        <v>2550</v>
       </c>
       <c r="J107" s="4">
-        <v>2885</v>
+        <v>2865</v>
       </c>
       <c r="K107" s="4">
-        <v>3210</v>
+        <v>3165</v>
       </c>
       <c r="L107" s="4">
-        <v>3470</v>
+        <v>3485</v>
       </c>
       <c r="M107" s="4">
         <v>0</v>
@@ -6057,40 +6059,40 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C108" s="4">
-        <v>845</v>
+        <v>535</v>
       </c>
       <c r="D108" s="4">
+        <v>830</v>
+      </c>
+      <c r="E108" s="4">
         <v>1170</v>
       </c>
-      <c r="E108" s="4">
-        <v>1660</v>
-      </c>
       <c r="F108" s="4">
-        <v>2180</v>
+        <v>1530</v>
       </c>
       <c r="G108" s="4">
-        <v>2630</v>
+        <v>1855</v>
       </c>
       <c r="H108" s="4">
-        <v>2720</v>
+        <v>2205</v>
       </c>
       <c r="I108" s="4">
-        <v>3110</v>
+        <v>2555</v>
       </c>
       <c r="J108" s="4">
-        <v>3490</v>
+        <v>2900</v>
       </c>
       <c r="K108" s="4">
-        <v>3860</v>
+        <v>3230</v>
       </c>
       <c r="L108" s="4">
-        <v>4170</v>
+        <v>3535</v>
       </c>
       <c r="M108" s="4">
         <v>0</v>
@@ -6107,40 +6109,40 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C109" s="4">
-        <v>885</v>
+        <v>535</v>
       </c>
       <c r="D109" s="4">
-        <v>1250</v>
+        <v>830</v>
       </c>
       <c r="E109" s="4">
-        <v>1650</v>
+        <v>1170</v>
       </c>
       <c r="F109" s="4">
-        <v>2080</v>
+        <v>1530</v>
       </c>
       <c r="G109" s="4">
-        <v>2525</v>
+        <v>1855</v>
       </c>
       <c r="H109" s="4">
-        <v>2880</v>
+        <v>2205</v>
       </c>
       <c r="I109" s="4">
-        <v>3325</v>
+        <v>2555</v>
       </c>
       <c r="J109" s="4">
-        <v>3760</v>
+        <v>2900</v>
       </c>
       <c r="K109" s="4">
-        <v>4185</v>
+        <v>3230</v>
       </c>
       <c r="L109" s="4">
-        <v>4600</v>
+        <v>3535</v>
       </c>
       <c r="M109" s="4">
         <v>0</v>
@@ -6157,40 +6159,40 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C110" s="4">
-        <v>885</v>
+        <v>525</v>
       </c>
       <c r="D110" s="4">
-        <v>1250</v>
+        <v>820</v>
       </c>
       <c r="E110" s="4">
-        <v>1650</v>
+        <v>1150</v>
       </c>
       <c r="F110" s="4">
-        <v>2080</v>
+        <v>1515</v>
       </c>
       <c r="G110" s="4">
-        <v>2525</v>
+        <v>1830</v>
       </c>
       <c r="H110" s="4">
-        <v>2880</v>
+        <v>2150</v>
       </c>
       <c r="I110" s="4">
-        <v>3325</v>
+        <v>2550</v>
       </c>
       <c r="J110" s="4">
-        <v>3760</v>
+        <v>2725</v>
       </c>
       <c r="K110" s="4">
-        <v>4185</v>
+        <v>3165</v>
       </c>
       <c r="L110" s="4">
-        <v>4600</v>
+        <v>3485</v>
       </c>
       <c r="M110" s="4">
         <v>0</v>
@@ -6207,40 +6209,40 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C111" s="4">
-        <v>800</v>
+        <v>525</v>
       </c>
       <c r="D111" s="4">
-        <v>1060</v>
+        <v>820</v>
       </c>
       <c r="E111" s="4">
-        <v>1560</v>
+        <v>1150</v>
       </c>
       <c r="F111" s="4">
-        <v>2040</v>
+        <v>1515</v>
       </c>
       <c r="G111" s="4">
-        <v>2500</v>
+        <v>1830</v>
       </c>
       <c r="H111" s="4">
-        <v>2880</v>
+        <v>2150</v>
       </c>
       <c r="I111" s="4">
-        <v>3325</v>
+        <v>2550</v>
       </c>
       <c r="J111" s="4">
-        <v>3680</v>
+        <v>2725</v>
       </c>
       <c r="K111" s="4">
-        <v>4095</v>
+        <v>3165</v>
       </c>
       <c r="L111" s="4">
-        <v>4500</v>
+        <v>3485</v>
       </c>
       <c r="M111" s="4">
         <v>0</v>
@@ -6257,40 +6259,40 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C112" s="4">
-        <v>840</v>
+        <v>535</v>
       </c>
       <c r="D112" s="4">
-        <v>1130</v>
+        <v>830</v>
       </c>
       <c r="E112" s="4">
-        <v>1660</v>
+        <v>1170</v>
       </c>
       <c r="F112" s="4">
-        <v>2180</v>
+        <v>1530</v>
       </c>
       <c r="G112" s="4">
-        <v>2630</v>
+        <v>1855</v>
       </c>
       <c r="H112" s="4">
-        <v>3055</v>
+        <v>2205</v>
       </c>
       <c r="I112" s="4">
-        <v>3480</v>
+        <v>2555</v>
       </c>
       <c r="J112" s="4">
-        <v>3910</v>
+        <v>2900</v>
       </c>
       <c r="K112" s="4">
-        <v>4260</v>
+        <v>3230</v>
       </c>
       <c r="L112" s="4">
-        <v>4660</v>
+        <v>3535</v>
       </c>
       <c r="M112" s="4">
         <v>0</v>
@@ -6307,40 +6309,40 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C113" s="4">
-        <v>850</v>
+        <v>635</v>
       </c>
       <c r="D113" s="4">
-        <v>1125</v>
+        <v>930</v>
       </c>
       <c r="E113" s="4">
-        <v>1665</v>
+        <v>1370</v>
       </c>
       <c r="F113" s="4">
-        <v>2050</v>
+        <v>1790</v>
       </c>
       <c r="G113" s="4">
-        <v>2550</v>
+        <v>2155</v>
       </c>
       <c r="H113" s="4">
-        <v>3010</v>
+        <v>2545</v>
       </c>
       <c r="I113" s="4">
-        <v>3320</v>
+        <v>2920</v>
       </c>
       <c r="J113" s="4">
-        <v>3560</v>
+        <v>3295</v>
       </c>
       <c r="K113" s="4">
-        <v>3980</v>
+        <v>3680</v>
       </c>
       <c r="L113" s="4">
-        <v>4300</v>
+        <v>4050</v>
       </c>
       <c r="M113" s="4">
         <v>0</v>
@@ -6357,40 +6359,40 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C114" s="4">
-        <v>840</v>
+        <v>715</v>
       </c>
       <c r="D114" s="4">
         <v>1130</v>
       </c>
       <c r="E114" s="4">
-        <v>1660</v>
+        <v>1385</v>
       </c>
       <c r="F114" s="4">
-        <v>2180</v>
+        <v>1825</v>
       </c>
       <c r="G114" s="4">
+        <v>2220</v>
+      </c>
+      <c r="H114" s="4">
         <v>2630</v>
       </c>
-      <c r="H114" s="4">
-        <v>3055</v>
-      </c>
       <c r="I114" s="4">
-        <v>3480</v>
+        <v>3025</v>
       </c>
       <c r="J114" s="4">
-        <v>3910</v>
+        <v>3410</v>
       </c>
       <c r="K114" s="4">
-        <v>4260</v>
+        <v>3780</v>
       </c>
       <c r="L114" s="4">
-        <v>4660</v>
+        <v>4140</v>
       </c>
       <c r="M114" s="4">
         <v>0</v>
@@ -6407,40 +6409,40 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C115" s="4">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="D115" s="4">
-        <v>1150</v>
+        <v>930</v>
       </c>
       <c r="E115" s="4">
-        <v>1510</v>
+        <v>1300</v>
       </c>
       <c r="F115" s="4">
-        <v>2020</v>
+        <v>1700</v>
       </c>
       <c r="G115" s="4">
-        <v>2500</v>
+        <v>2010</v>
       </c>
       <c r="H115" s="4">
-        <v>2850</v>
+        <v>2375</v>
       </c>
       <c r="I115" s="4">
-        <v>3290</v>
+        <v>2670</v>
       </c>
       <c r="J115" s="4">
-        <v>3640</v>
+        <v>2885</v>
       </c>
       <c r="K115" s="4">
-        <v>4050</v>
+        <v>3210</v>
       </c>
       <c r="L115" s="4">
-        <v>4450</v>
+        <v>3470</v>
       </c>
       <c r="M115" s="4">
         <v>0</v>
@@ -6457,40 +6459,40 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C116" s="4">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="D116" s="4">
-        <v>1045</v>
+        <v>1170</v>
       </c>
       <c r="E116" s="4">
-        <v>1510</v>
+        <v>1660</v>
       </c>
       <c r="F116" s="4">
-        <v>1985</v>
+        <v>2180</v>
       </c>
       <c r="G116" s="4">
-        <v>2385</v>
+        <v>2630</v>
       </c>
       <c r="H116" s="4">
-        <v>2800</v>
+        <v>2720</v>
       </c>
       <c r="I116" s="4">
-        <v>3175</v>
+        <v>3110</v>
       </c>
       <c r="J116" s="4">
-        <v>3440</v>
+        <v>3490</v>
       </c>
       <c r="K116" s="4">
-        <v>3805</v>
+        <v>3860</v>
       </c>
       <c r="L116" s="4">
-        <v>4030</v>
+        <v>4170</v>
       </c>
       <c r="M116" s="4">
         <v>0</v>
@@ -6507,40 +6509,40 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C117" s="4">
-        <v>600</v>
+        <v>885</v>
       </c>
       <c r="D117" s="4">
-        <v>1055</v>
+        <v>1250</v>
       </c>
       <c r="E117" s="4">
-        <v>1530</v>
+        <v>1650</v>
       </c>
       <c r="F117" s="4">
-        <v>2000</v>
+        <v>2080</v>
       </c>
       <c r="G117" s="4">
-        <v>2410</v>
+        <v>2525</v>
       </c>
       <c r="H117" s="4">
-        <v>2855</v>
+        <v>2880</v>
       </c>
       <c r="I117" s="4">
-        <v>3260</v>
+        <v>3325</v>
       </c>
       <c r="J117" s="4">
-        <v>3555</v>
+        <v>3760</v>
       </c>
       <c r="K117" s="4">
-        <v>3950</v>
+        <v>4185</v>
       </c>
       <c r="L117" s="4">
-        <v>4580</v>
+        <v>4600</v>
       </c>
       <c r="M117" s="4">
         <v>0</v>
@@ -6557,40 +6559,40 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C118" s="4">
-        <v>790</v>
+        <v>885</v>
       </c>
       <c r="D118" s="4">
-        <v>1060</v>
+        <v>1250</v>
       </c>
       <c r="E118" s="4">
-        <v>1560</v>
+        <v>1650</v>
       </c>
       <c r="F118" s="4">
-        <v>2040</v>
+        <v>2080</v>
       </c>
       <c r="G118" s="4">
-        <v>2500</v>
+        <v>2525</v>
       </c>
       <c r="H118" s="4">
-        <v>2940</v>
+        <v>2880</v>
       </c>
       <c r="I118" s="4">
         <v>3325</v>
       </c>
       <c r="J118" s="4">
-        <v>3680</v>
+        <v>3760</v>
       </c>
       <c r="K118" s="4">
-        <v>4095</v>
+        <v>4185</v>
       </c>
       <c r="L118" s="4">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="M118" s="4">
         <v>0</v>
@@ -6607,40 +6609,40 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C119" s="4">
-        <v>635</v>
+        <v>800</v>
       </c>
       <c r="D119" s="4">
-        <v>930</v>
+        <v>1060</v>
       </c>
       <c r="E119" s="4">
-        <v>1370</v>
+        <v>1560</v>
       </c>
       <c r="F119" s="4">
-        <v>1790</v>
+        <v>2040</v>
       </c>
       <c r="G119" s="4">
-        <v>2155</v>
+        <v>2500</v>
       </c>
       <c r="H119" s="4">
-        <v>2545</v>
+        <v>2880</v>
       </c>
       <c r="I119" s="4">
-        <v>2920</v>
+        <v>3325</v>
       </c>
       <c r="J119" s="4">
-        <v>3295</v>
+        <v>3680</v>
       </c>
       <c r="K119" s="4">
-        <v>3680</v>
+        <v>4095</v>
       </c>
       <c r="L119" s="4">
-        <v>4050</v>
+        <v>4500</v>
       </c>
       <c r="M119" s="4">
         <v>0</v>
@@ -6657,40 +6659,40 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C120" s="4">
-        <v>635</v>
+        <v>840</v>
       </c>
       <c r="D120" s="4">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="E120" s="4">
-        <v>1370</v>
+        <v>1660</v>
       </c>
       <c r="F120" s="4">
-        <v>1790</v>
+        <v>2180</v>
       </c>
       <c r="G120" s="4">
-        <v>2155</v>
+        <v>2630</v>
       </c>
       <c r="H120" s="4">
-        <v>2545</v>
+        <v>3055</v>
       </c>
       <c r="I120" s="4">
-        <v>2920</v>
+        <v>3480</v>
       </c>
       <c r="J120" s="4">
-        <v>3295</v>
+        <v>3910</v>
       </c>
       <c r="K120" s="4">
-        <v>3680</v>
+        <v>4260</v>
       </c>
       <c r="L120" s="4">
-        <v>4050</v>
+        <v>4660</v>
       </c>
       <c r="M120" s="4">
         <v>0</v>
@@ -6707,40 +6709,40 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C121" s="4">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="D121" s="4">
-        <v>1080</v>
+        <v>1125</v>
       </c>
       <c r="E121" s="4">
-        <v>1460</v>
+        <v>1665</v>
       </c>
       <c r="F121" s="4">
-        <v>1835</v>
+        <v>2050</v>
       </c>
       <c r="G121" s="4">
-        <v>2235</v>
+        <v>2550</v>
       </c>
       <c r="H121" s="4">
-        <v>2575</v>
+        <v>3010</v>
       </c>
       <c r="I121" s="4">
-        <v>2835</v>
+        <v>3320</v>
       </c>
       <c r="J121" s="4">
-        <v>3140</v>
+        <v>3560</v>
       </c>
       <c r="K121" s="4">
-        <v>3470</v>
+        <v>3980</v>
       </c>
       <c r="L121" s="4">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="M121" s="4">
         <v>0</v>
@@ -6757,40 +6759,40 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C122" s="4">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D122" s="4">
-        <v>1170</v>
+        <v>1130</v>
       </c>
       <c r="E122" s="4">
-        <v>1700</v>
+        <v>1660</v>
       </c>
       <c r="F122" s="4">
-        <v>2240</v>
+        <v>2180</v>
       </c>
       <c r="G122" s="4">
-        <v>2690</v>
+        <v>2630</v>
       </c>
       <c r="H122" s="4">
-        <v>3070</v>
+        <v>3055</v>
       </c>
       <c r="I122" s="4">
-        <v>3490</v>
+        <v>3480</v>
       </c>
       <c r="J122" s="4">
-        <v>3925</v>
+        <v>3910</v>
       </c>
       <c r="K122" s="4">
-        <v>4265</v>
+        <v>4260</v>
       </c>
       <c r="L122" s="4">
-        <v>4670</v>
+        <v>4660</v>
       </c>
       <c r="M122" s="4">
         <v>0</v>
@@ -6807,37 +6809,37 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C123" s="4">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="D123" s="4">
         <v>1150</v>
       </c>
       <c r="E123" s="4">
-        <v>1540</v>
+        <v>1510</v>
       </c>
       <c r="F123" s="4">
         <v>2020</v>
       </c>
       <c r="G123" s="4">
-        <v>2485</v>
+        <v>2500</v>
       </c>
       <c r="H123" s="4">
-        <v>2940</v>
+        <v>2850</v>
       </c>
       <c r="I123" s="4">
-        <v>3300</v>
+        <v>3290</v>
       </c>
       <c r="J123" s="4">
-        <v>3740</v>
+        <v>3640</v>
       </c>
       <c r="K123" s="4">
-        <v>4190</v>
+        <v>4050</v>
       </c>
       <c r="L123" s="4">
         <v>4450</v>
@@ -6857,40 +6859,40 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C124" s="4">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="D124" s="4">
-        <v>1150</v>
+        <v>1045</v>
       </c>
       <c r="E124" s="4">
-        <v>1540</v>
+        <v>1510</v>
       </c>
       <c r="F124" s="4">
-        <v>2020</v>
+        <v>1985</v>
       </c>
       <c r="G124" s="4">
-        <v>2485</v>
+        <v>2385</v>
       </c>
       <c r="H124" s="4">
-        <v>2940</v>
+        <v>2800</v>
       </c>
       <c r="I124" s="4">
-        <v>3300</v>
+        <v>3175</v>
       </c>
       <c r="J124" s="4">
-        <v>3740</v>
+        <v>3440</v>
       </c>
       <c r="K124" s="4">
-        <v>4190</v>
+        <v>3805</v>
       </c>
       <c r="L124" s="4">
-        <v>4450</v>
+        <v>4030</v>
       </c>
       <c r="M124" s="4">
         <v>0</v>
@@ -6907,40 +6909,40 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C125" s="4">
-        <v>695</v>
+        <v>600</v>
       </c>
       <c r="D125" s="4">
-        <v>1100</v>
+        <v>1055</v>
       </c>
       <c r="E125" s="4">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="F125" s="4">
         <v>2000</v>
       </c>
       <c r="G125" s="4">
-        <v>2400</v>
+        <v>2410</v>
       </c>
       <c r="H125" s="4">
-        <v>2850</v>
+        <v>2855</v>
       </c>
       <c r="I125" s="4">
-        <v>3250</v>
+        <v>3260</v>
       </c>
       <c r="J125" s="4">
-        <v>3690</v>
+        <v>3555</v>
       </c>
       <c r="K125" s="4">
-        <v>4150</v>
+        <v>3950</v>
       </c>
       <c r="L125" s="4">
-        <v>4540</v>
+        <v>4580</v>
       </c>
       <c r="M125" s="4">
         <v>0</v>
@@ -6957,13 +6959,13 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C126" s="4">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="D126" s="4">
         <v>1060</v>
@@ -7007,40 +7009,40 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C127" s="4">
-        <v>800</v>
+        <v>635</v>
       </c>
       <c r="D127" s="4">
-        <v>1060</v>
+        <v>930</v>
       </c>
       <c r="E127" s="4">
-        <v>1560</v>
+        <v>1370</v>
       </c>
       <c r="F127" s="4">
-        <v>2040</v>
+        <v>1790</v>
       </c>
       <c r="G127" s="4">
-        <v>2500</v>
+        <v>2155</v>
       </c>
       <c r="H127" s="4">
-        <v>2940</v>
+        <v>2545</v>
       </c>
       <c r="I127" s="4">
-        <v>3325</v>
+        <v>2920</v>
       </c>
       <c r="J127" s="4">
+        <v>3295</v>
+      </c>
+      <c r="K127" s="4">
         <v>3680</v>
       </c>
-      <c r="K127" s="4">
-        <v>4095</v>
-      </c>
       <c r="L127" s="4">
-        <v>4500</v>
+        <v>4050</v>
       </c>
       <c r="M127" s="4">
         <v>0</v>
@@ -7057,40 +7059,40 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C128" s="4">
-        <v>800</v>
+        <v>635</v>
       </c>
       <c r="D128" s="4">
-        <v>1060</v>
+        <v>930</v>
       </c>
       <c r="E128" s="4">
-        <v>1560</v>
+        <v>1370</v>
       </c>
       <c r="F128" s="4">
-        <v>2040</v>
+        <v>1790</v>
       </c>
       <c r="G128" s="4">
-        <v>2500</v>
+        <v>2155</v>
       </c>
       <c r="H128" s="4">
-        <v>2940</v>
+        <v>2545</v>
       </c>
       <c r="I128" s="4">
-        <v>3325</v>
+        <v>2920</v>
       </c>
       <c r="J128" s="4">
+        <v>3295</v>
+      </c>
+      <c r="K128" s="4">
         <v>3680</v>
       </c>
-      <c r="K128" s="4">
-        <v>4095</v>
-      </c>
       <c r="L128" s="4">
-        <v>4500</v>
+        <v>4050</v>
       </c>
       <c r="M128" s="4">
         <v>0</v>
@@ -7107,40 +7109,40 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C129" s="4">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D129" s="4">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="E129" s="4">
-        <v>1560</v>
+        <v>1460</v>
       </c>
       <c r="F129" s="4">
-        <v>2040</v>
+        <v>1835</v>
       </c>
       <c r="G129" s="4">
-        <v>2500</v>
+        <v>2235</v>
       </c>
       <c r="H129" s="4">
-        <v>2940</v>
+        <v>2575</v>
       </c>
       <c r="I129" s="4">
-        <v>3325</v>
+        <v>2835</v>
       </c>
       <c r="J129" s="4">
-        <v>3680</v>
+        <v>3140</v>
       </c>
       <c r="K129" s="4">
-        <v>4095</v>
+        <v>3470</v>
       </c>
       <c r="L129" s="4">
-        <v>4500</v>
+        <v>3700</v>
       </c>
       <c r="M129" s="4">
         <v>0</v>
@@ -7157,40 +7159,40 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C130" s="4">
         <v>845</v>
       </c>
       <c r="D130" s="4">
-        <v>1360</v>
+        <v>1170</v>
       </c>
       <c r="E130" s="4">
-        <v>1835</v>
+        <v>1700</v>
       </c>
       <c r="F130" s="4">
-        <v>2405</v>
+        <v>2240</v>
       </c>
       <c r="G130" s="4">
-        <v>2740</v>
+        <v>2690</v>
       </c>
       <c r="H130" s="4">
-        <v>3250</v>
+        <v>3070</v>
       </c>
       <c r="I130" s="4">
-        <v>3750</v>
+        <v>3490</v>
       </c>
       <c r="J130" s="4">
-        <v>4190</v>
+        <v>3925</v>
       </c>
       <c r="K130" s="4">
-        <v>4620</v>
+        <v>4265</v>
       </c>
       <c r="L130" s="4">
-        <v>4935</v>
+        <v>4670</v>
       </c>
       <c r="M130" s="4">
         <v>0</v>
@@ -7207,40 +7209,40 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C131" s="4">
-        <v>845</v>
+        <v>750</v>
       </c>
       <c r="D131" s="4">
-        <v>1360</v>
+        <v>1150</v>
       </c>
       <c r="E131" s="4">
-        <v>1835</v>
+        <v>1540</v>
       </c>
       <c r="F131" s="4">
-        <v>2405</v>
+        <v>2020</v>
       </c>
       <c r="G131" s="4">
-        <v>2740</v>
+        <v>2485</v>
       </c>
       <c r="H131" s="4">
-        <v>3250</v>
+        <v>2940</v>
       </c>
       <c r="I131" s="4">
-        <v>3750</v>
+        <v>3300</v>
       </c>
       <c r="J131" s="4">
+        <v>3740</v>
+      </c>
+      <c r="K131" s="4">
         <v>4190</v>
       </c>
-      <c r="K131" s="4">
-        <v>4620</v>
-      </c>
       <c r="L131" s="4">
-        <v>4935</v>
+        <v>4450</v>
       </c>
       <c r="M131" s="4">
         <v>0</v>
@@ -7257,40 +7259,40 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C132" s="4">
-        <v>665</v>
+        <v>750</v>
       </c>
       <c r="D132" s="4">
-        <v>1005</v>
+        <v>1150</v>
       </c>
       <c r="E132" s="4">
-        <v>1480</v>
+        <v>1540</v>
       </c>
       <c r="F132" s="4">
-        <v>1945</v>
+        <v>2020</v>
       </c>
       <c r="G132" s="4">
-        <v>2345</v>
+        <v>2485</v>
       </c>
       <c r="H132" s="4">
-        <v>2775</v>
+        <v>2940</v>
       </c>
       <c r="I132" s="4">
-        <v>3195</v>
+        <v>3300</v>
       </c>
       <c r="J132" s="4">
-        <v>3535</v>
+        <v>3740</v>
       </c>
       <c r="K132" s="4">
-        <v>3945</v>
+        <v>4190</v>
       </c>
       <c r="L132" s="4">
-        <v>4265</v>
+        <v>4450</v>
       </c>
       <c r="M132" s="4">
         <v>0</v>
@@ -7307,40 +7309,40 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C133" s="4">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="D133" s="4">
-        <v>1005</v>
+        <v>1100</v>
       </c>
       <c r="E133" s="4">
-        <v>1480</v>
+        <v>1540</v>
       </c>
       <c r="F133" s="4">
-        <v>1945</v>
+        <v>2000</v>
       </c>
       <c r="G133" s="4">
-        <v>2345</v>
+        <v>2400</v>
       </c>
       <c r="H133" s="4">
-        <v>2775</v>
+        <v>2850</v>
       </c>
       <c r="I133" s="4">
-        <v>3195</v>
+        <v>3250</v>
       </c>
       <c r="J133" s="4">
-        <v>3535</v>
+        <v>3690</v>
       </c>
       <c r="K133" s="4">
-        <v>3945</v>
+        <v>4150</v>
       </c>
       <c r="L133" s="4">
-        <v>4265</v>
+        <v>4540</v>
       </c>
       <c r="M133" s="4">
         <v>0</v>
@@ -7357,40 +7359,40 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C134" s="4">
-        <v>665</v>
+        <v>800</v>
       </c>
       <c r="D134" s="4">
-        <v>1005</v>
+        <v>1060</v>
       </c>
       <c r="E134" s="4">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="F134" s="4">
-        <v>1945</v>
+        <v>2040</v>
       </c>
       <c r="G134" s="4">
-        <v>2345</v>
+        <v>2500</v>
       </c>
       <c r="H134" s="4">
-        <v>2775</v>
+        <v>2940</v>
       </c>
       <c r="I134" s="4">
-        <v>3195</v>
+        <v>3325</v>
       </c>
       <c r="J134" s="4">
-        <v>3535</v>
+        <v>3680</v>
       </c>
       <c r="K134" s="4">
-        <v>3945</v>
+        <v>4095</v>
       </c>
       <c r="L134" s="4">
-        <v>4265</v>
+        <v>4500</v>
       </c>
       <c r="M134" s="4">
         <v>0</v>
@@ -7407,40 +7409,40 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C135" s="4">
-        <v>665</v>
+        <v>800</v>
       </c>
       <c r="D135" s="4">
-        <v>1005</v>
+        <v>1060</v>
       </c>
       <c r="E135" s="4">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="F135" s="4">
-        <v>1945</v>
+        <v>2040</v>
       </c>
       <c r="G135" s="4">
-        <v>2345</v>
+        <v>2500</v>
       </c>
       <c r="H135" s="4">
-        <v>2775</v>
+        <v>2940</v>
       </c>
       <c r="I135" s="4">
-        <v>3195</v>
+        <v>3325</v>
       </c>
       <c r="J135" s="4">
-        <v>3535</v>
+        <v>3680</v>
       </c>
       <c r="K135" s="4">
-        <v>3945</v>
+        <v>4095</v>
       </c>
       <c r="L135" s="4">
-        <v>4265</v>
+        <v>4500</v>
       </c>
       <c r="M135" s="4">
         <v>0</v>
@@ -7457,40 +7459,40 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C136" s="4">
-        <v>665</v>
+        <v>800</v>
       </c>
       <c r="D136" s="4">
-        <v>1005</v>
+        <v>1060</v>
       </c>
       <c r="E136" s="4">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="F136" s="4">
-        <v>1945</v>
+        <v>2040</v>
       </c>
       <c r="G136" s="4">
-        <v>2345</v>
+        <v>2500</v>
       </c>
       <c r="H136" s="4">
-        <v>2775</v>
+        <v>2940</v>
       </c>
       <c r="I136" s="4">
-        <v>3195</v>
+        <v>3325</v>
       </c>
       <c r="J136" s="4">
-        <v>3535</v>
+        <v>3680</v>
       </c>
       <c r="K136" s="4">
-        <v>3945</v>
+        <v>4095</v>
       </c>
       <c r="L136" s="4">
-        <v>4265</v>
+        <v>4500</v>
       </c>
       <c r="M136" s="4">
         <v>0</v>
@@ -7507,40 +7509,40 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C137" s="4">
-        <v>695</v>
+        <v>800</v>
       </c>
       <c r="D137" s="4">
-        <v>965</v>
+        <v>1060</v>
       </c>
       <c r="E137" s="4">
-        <v>1365</v>
+        <v>1560</v>
       </c>
       <c r="F137" s="4">
-        <v>1815</v>
+        <v>2040</v>
       </c>
       <c r="G137" s="4">
-        <v>2070</v>
+        <v>2500</v>
       </c>
       <c r="H137" s="4">
-        <v>2380</v>
+        <v>2940</v>
       </c>
       <c r="I137" s="4">
-        <v>2720</v>
+        <v>3325</v>
       </c>
       <c r="J137" s="4">
-        <v>3035</v>
+        <v>3680</v>
       </c>
       <c r="K137" s="4">
-        <v>3340</v>
+        <v>4095</v>
       </c>
       <c r="L137" s="4">
-        <v>3630</v>
+        <v>4500</v>
       </c>
       <c r="M137" s="4">
         <v>0</v>
@@ -7557,40 +7559,40 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C138" s="4">
-        <v>525</v>
+        <v>845</v>
       </c>
       <c r="D138" s="4">
-        <v>895</v>
+        <v>1360</v>
       </c>
       <c r="E138" s="4">
-        <v>1240</v>
+        <v>1835</v>
       </c>
       <c r="F138" s="4">
-        <v>1540</v>
+        <v>2405</v>
       </c>
       <c r="G138" s="4">
-        <v>1725</v>
+        <v>2740</v>
       </c>
       <c r="H138" s="4">
-        <v>1930</v>
+        <v>3250</v>
       </c>
       <c r="I138" s="4">
-        <v>2230</v>
+        <v>3750</v>
       </c>
       <c r="J138" s="4">
-        <v>2540</v>
+        <v>4190</v>
       </c>
       <c r="K138" s="4">
-        <v>2830</v>
+        <v>4620</v>
       </c>
       <c r="L138" s="4">
-        <v>3030</v>
+        <v>4935</v>
       </c>
       <c r="M138" s="4">
         <v>0</v>
@@ -7607,40 +7609,40 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C139" s="4">
-        <v>800</v>
+        <v>845</v>
       </c>
       <c r="D139" s="4">
-        <v>1060</v>
+        <v>1360</v>
       </c>
       <c r="E139" s="4">
-        <v>1560</v>
+        <v>1835</v>
       </c>
       <c r="F139" s="4">
-        <v>2040</v>
+        <v>2405</v>
       </c>
       <c r="G139" s="4">
-        <v>2500</v>
+        <v>2740</v>
       </c>
       <c r="H139" s="4">
-        <v>2880</v>
+        <v>3250</v>
       </c>
       <c r="I139" s="4">
-        <v>3325</v>
+        <v>3750</v>
       </c>
       <c r="J139" s="4">
-        <v>3680</v>
+        <v>4190</v>
       </c>
       <c r="K139" s="4">
-        <v>4095</v>
+        <v>4620</v>
       </c>
       <c r="L139" s="4">
-        <v>4500</v>
+        <v>4935</v>
       </c>
       <c r="M139" s="4">
         <v>0</v>
@@ -7657,40 +7659,40 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C140" s="4">
-        <v>875</v>
+        <v>665</v>
       </c>
       <c r="D140" s="4">
-        <v>1370</v>
+        <v>1005</v>
       </c>
       <c r="E140" s="4">
-        <v>1860</v>
+        <v>1480</v>
       </c>
       <c r="F140" s="4">
-        <v>2405</v>
+        <v>1945</v>
       </c>
       <c r="G140" s="4">
-        <v>2740</v>
+        <v>2345</v>
       </c>
       <c r="H140" s="4">
-        <v>3250</v>
+        <v>2775</v>
       </c>
       <c r="I140" s="4">
-        <v>3750</v>
+        <v>3195</v>
       </c>
       <c r="J140" s="4">
-        <v>4190</v>
+        <v>3535</v>
       </c>
       <c r="K140" s="4">
-        <v>4620</v>
+        <v>3945</v>
       </c>
       <c r="L140" s="4">
-        <v>4935</v>
+        <v>4265</v>
       </c>
       <c r="M140" s="4">
         <v>0</v>
@@ -7707,40 +7709,40 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C141" s="4">
-        <v>845</v>
+        <v>665</v>
       </c>
       <c r="D141" s="4">
-        <v>1170</v>
+        <v>1005</v>
       </c>
       <c r="E141" s="4">
-        <v>1700</v>
+        <v>1480</v>
       </c>
       <c r="F141" s="4">
-        <v>2240</v>
+        <v>1945</v>
       </c>
       <c r="G141" s="4">
-        <v>2690</v>
+        <v>2345</v>
       </c>
       <c r="H141" s="4">
-        <v>3070</v>
+        <v>2775</v>
       </c>
       <c r="I141" s="4">
-        <v>3490</v>
+        <v>3195</v>
       </c>
       <c r="J141" s="4">
-        <v>3925</v>
+        <v>3535</v>
       </c>
       <c r="K141" s="4">
+        <v>3945</v>
+      </c>
+      <c r="L141" s="4">
         <v>4265</v>
-      </c>
-      <c r="L141" s="4">
-        <v>4670</v>
       </c>
       <c r="M141" s="4">
         <v>0</v>
@@ -7757,40 +7759,40 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C142" s="4">
-        <v>845</v>
+        <v>665</v>
       </c>
       <c r="D142" s="4">
-        <v>1170</v>
+        <v>1005</v>
       </c>
       <c r="E142" s="4">
-        <v>1700</v>
+        <v>1480</v>
       </c>
       <c r="F142" s="4">
-        <v>2240</v>
+        <v>1945</v>
       </c>
       <c r="G142" s="4">
-        <v>2690</v>
+        <v>2345</v>
       </c>
       <c r="H142" s="4">
-        <v>3070</v>
+        <v>2775</v>
       </c>
       <c r="I142" s="4">
-        <v>3490</v>
+        <v>3195</v>
       </c>
       <c r="J142" s="4">
-        <v>3925</v>
+        <v>3535</v>
       </c>
       <c r="K142" s="4">
+        <v>3945</v>
+      </c>
+      <c r="L142" s="4">
         <v>4265</v>
-      </c>
-      <c r="L142" s="4">
-        <v>4670</v>
       </c>
       <c r="M142" s="4">
         <v>0</v>
@@ -7807,40 +7809,40 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C143" s="4">
-        <v>845</v>
+        <v>665</v>
       </c>
       <c r="D143" s="4">
-        <v>1170</v>
+        <v>1005</v>
       </c>
       <c r="E143" s="4">
-        <v>1660</v>
+        <v>1480</v>
       </c>
       <c r="F143" s="4">
-        <v>2180</v>
+        <v>1945</v>
       </c>
       <c r="G143" s="4">
-        <v>2630</v>
+        <v>2345</v>
       </c>
       <c r="H143" s="4">
-        <v>2720</v>
+        <v>2775</v>
       </c>
       <c r="I143" s="4">
-        <v>3110</v>
+        <v>3195</v>
       </c>
       <c r="J143" s="4">
-        <v>3490</v>
+        <v>3535</v>
       </c>
       <c r="K143" s="4">
-        <v>3860</v>
+        <v>3945</v>
       </c>
       <c r="L143" s="4">
-        <v>4170</v>
+        <v>4265</v>
       </c>
       <c r="M143" s="4">
         <v>0</v>
@@ -7857,40 +7859,40 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C144" s="4">
-        <v>615</v>
+        <v>665</v>
       </c>
       <c r="D144" s="4">
-        <v>870</v>
+        <v>1005</v>
       </c>
       <c r="E144" s="4">
-        <v>1230</v>
+        <v>1480</v>
       </c>
       <c r="F144" s="4">
-        <v>1420</v>
+        <v>1945</v>
       </c>
       <c r="G144" s="4">
-        <v>1750</v>
+        <v>2345</v>
       </c>
       <c r="H144" s="4">
-        <v>2040</v>
+        <v>2775</v>
       </c>
       <c r="I144" s="4">
-        <v>2295</v>
+        <v>3195</v>
       </c>
       <c r="J144" s="4">
-        <v>2590</v>
+        <v>3535</v>
       </c>
       <c r="K144" s="4">
-        <v>2850</v>
+        <v>3945</v>
       </c>
       <c r="L144" s="4">
-        <v>3100</v>
+        <v>4265</v>
       </c>
       <c r="M144" s="4">
         <v>0</v>
@@ -7907,40 +7909,40 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C145" s="4">
-        <v>635</v>
+        <v>695</v>
       </c>
       <c r="D145" s="4">
-        <v>850</v>
+        <v>965</v>
       </c>
       <c r="E145" s="4">
-        <v>1260</v>
+        <v>1365</v>
       </c>
       <c r="F145" s="4">
-        <v>1490</v>
+        <v>1815</v>
       </c>
       <c r="G145" s="4">
-        <v>1675</v>
+        <v>2070</v>
       </c>
       <c r="H145" s="4">
-        <v>1980</v>
+        <v>2380</v>
       </c>
       <c r="I145" s="4">
-        <v>2275</v>
+        <v>2720</v>
       </c>
       <c r="J145" s="4">
-        <v>2560</v>
+        <v>3035</v>
       </c>
       <c r="K145" s="4">
-        <v>2870</v>
+        <v>3340</v>
       </c>
       <c r="L145" s="4">
-        <v>3150</v>
+        <v>3630</v>
       </c>
       <c r="M145" s="4">
         <v>0</v>
@@ -7957,40 +7959,40 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C146" s="4">
-        <v>635</v>
+        <v>525</v>
       </c>
       <c r="D146" s="4">
-        <v>850</v>
+        <v>895</v>
       </c>
       <c r="E146" s="4">
-        <v>1260</v>
+        <v>1240</v>
       </c>
       <c r="F146" s="4">
-        <v>1490</v>
+        <v>1540</v>
       </c>
       <c r="G146" s="4">
-        <v>1675</v>
+        <v>1725</v>
       </c>
       <c r="H146" s="4">
-        <v>1980</v>
+        <v>1930</v>
       </c>
       <c r="I146" s="4">
-        <v>2275</v>
+        <v>2230</v>
       </c>
       <c r="J146" s="4">
-        <v>2560</v>
+        <v>2540</v>
       </c>
       <c r="K146" s="4">
-        <v>2870</v>
+        <v>2830</v>
       </c>
       <c r="L146" s="4">
-        <v>3150</v>
+        <v>3030</v>
       </c>
       <c r="M146" s="4">
         <v>0</v>
@@ -8007,40 +8009,40 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C147" s="4">
-        <v>635</v>
+        <v>800</v>
       </c>
       <c r="D147" s="4">
-        <v>850</v>
+        <v>1060</v>
       </c>
       <c r="E147" s="4">
-        <v>1260</v>
+        <v>1560</v>
       </c>
       <c r="F147" s="4">
-        <v>1490</v>
+        <v>2040</v>
       </c>
       <c r="G147" s="4">
-        <v>1675</v>
+        <v>2500</v>
       </c>
       <c r="H147" s="4">
-        <v>1980</v>
+        <v>2880</v>
       </c>
       <c r="I147" s="4">
-        <v>2275</v>
+        <v>3325</v>
       </c>
       <c r="J147" s="4">
-        <v>2560</v>
+        <v>3680</v>
       </c>
       <c r="K147" s="4">
-        <v>2870</v>
+        <v>4095</v>
       </c>
       <c r="L147" s="4">
-        <v>3150</v>
+        <v>4500</v>
       </c>
       <c r="M147" s="4">
         <v>0</v>
@@ -8057,40 +8059,40 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C148" s="4">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="D148" s="4">
-        <v>880</v>
+        <v>1370</v>
       </c>
       <c r="E148" s="4">
-        <v>1265</v>
+        <v>1860</v>
       </c>
       <c r="F148" s="4">
-        <v>1590</v>
+        <v>2405</v>
       </c>
       <c r="G148" s="4">
-        <v>1900</v>
+        <v>2740</v>
       </c>
       <c r="H148" s="4">
-        <v>2230</v>
+        <v>3250</v>
       </c>
       <c r="I148" s="4">
-        <v>2570</v>
+        <v>3750</v>
       </c>
       <c r="J148" s="4">
-        <v>2885</v>
+        <v>4190</v>
       </c>
       <c r="K148" s="4">
-        <v>3190</v>
+        <v>4620</v>
       </c>
       <c r="L148" s="4">
-        <v>3480</v>
+        <v>4935</v>
       </c>
       <c r="M148" s="4">
         <v>0</v>
@@ -8107,40 +8109,40 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C149" s="4">
-        <v>675</v>
+        <v>845</v>
       </c>
       <c r="D149" s="4">
-        <v>880</v>
+        <v>1170</v>
       </c>
       <c r="E149" s="4">
-        <v>1265</v>
+        <v>1700</v>
       </c>
       <c r="F149" s="4">
-        <v>1590</v>
+        <v>2240</v>
       </c>
       <c r="G149" s="4">
-        <v>1900</v>
+        <v>2690</v>
       </c>
       <c r="H149" s="4">
-        <v>2230</v>
+        <v>3070</v>
       </c>
       <c r="I149" s="4">
-        <v>2570</v>
+        <v>3490</v>
       </c>
       <c r="J149" s="4">
-        <v>2885</v>
+        <v>3925</v>
       </c>
       <c r="K149" s="4">
-        <v>3190</v>
+        <v>4265</v>
       </c>
       <c r="L149" s="4">
-        <v>3480</v>
+        <v>4670</v>
       </c>
       <c r="M149" s="4">
         <v>0</v>
@@ -8157,40 +8159,40 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C150" s="4">
-        <v>675</v>
+        <v>845</v>
       </c>
       <c r="D150" s="4">
-        <v>880</v>
+        <v>1170</v>
       </c>
       <c r="E150" s="4">
-        <v>1265</v>
+        <v>1700</v>
       </c>
       <c r="F150" s="4">
-        <v>1590</v>
+        <v>2240</v>
       </c>
       <c r="G150" s="4">
-        <v>1900</v>
+        <v>2690</v>
       </c>
       <c r="H150" s="4">
-        <v>2230</v>
+        <v>3070</v>
       </c>
       <c r="I150" s="4">
-        <v>2570</v>
+        <v>3490</v>
       </c>
       <c r="J150" s="4">
-        <v>2885</v>
+        <v>3925</v>
       </c>
       <c r="K150" s="4">
-        <v>3190</v>
+        <v>4265</v>
       </c>
       <c r="L150" s="4">
-        <v>3480</v>
+        <v>4670</v>
       </c>
       <c r="M150" s="4">
         <v>0</v>
@@ -8207,40 +8209,40 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C151" s="4">
-        <v>675</v>
+        <v>845</v>
       </c>
       <c r="D151" s="4">
-        <v>870</v>
+        <v>1170</v>
       </c>
       <c r="E151" s="4">
-        <v>1230</v>
+        <v>1660</v>
       </c>
       <c r="F151" s="4">
-        <v>1420</v>
+        <v>2180</v>
       </c>
       <c r="G151" s="4">
-        <v>1750</v>
+        <v>2630</v>
       </c>
       <c r="H151" s="4">
-        <v>2040</v>
+        <v>2720</v>
       </c>
       <c r="I151" s="4">
-        <v>2295</v>
+        <v>3110</v>
       </c>
       <c r="J151" s="4">
-        <v>2590</v>
+        <v>3490</v>
       </c>
       <c r="K151" s="4">
-        <v>2850</v>
+        <v>3860</v>
       </c>
       <c r="L151" s="4">
-        <v>3100</v>
+        <v>4170</v>
       </c>
       <c r="M151" s="4">
         <v>0</v>
@@ -8257,40 +8259,40 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C152" s="4">
-        <v>675</v>
+        <v>615</v>
       </c>
       <c r="D152" s="4">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="E152" s="4">
-        <v>1265</v>
+        <v>1230</v>
       </c>
       <c r="F152" s="4">
-        <v>1590</v>
+        <v>1420</v>
       </c>
       <c r="G152" s="4">
-        <v>1900</v>
+        <v>1750</v>
       </c>
       <c r="H152" s="4">
-        <v>2230</v>
+        <v>2040</v>
       </c>
       <c r="I152" s="4">
-        <v>2570</v>
+        <v>2295</v>
       </c>
       <c r="J152" s="4">
-        <v>2885</v>
+        <v>2590</v>
       </c>
       <c r="K152" s="4">
-        <v>3190</v>
+        <v>2850</v>
       </c>
       <c r="L152" s="4">
-        <v>3480</v>
+        <v>3100</v>
       </c>
       <c r="M152" s="4">
         <v>0</v>
@@ -8307,40 +8309,40 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C153" s="4">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="D153" s="4">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="E153" s="4">
-        <v>1245</v>
+        <v>1260</v>
       </c>
       <c r="F153" s="4">
-        <v>1575</v>
+        <v>1490</v>
       </c>
       <c r="G153" s="4">
-        <v>1905</v>
+        <v>1675</v>
       </c>
       <c r="H153" s="4">
-        <v>2235</v>
+        <v>1980</v>
       </c>
       <c r="I153" s="4">
-        <v>2575</v>
+        <v>2275</v>
       </c>
       <c r="J153" s="4">
-        <v>2895</v>
+        <v>2560</v>
       </c>
       <c r="K153" s="4">
-        <v>3200</v>
+        <v>2870</v>
       </c>
       <c r="L153" s="4">
-        <v>3490</v>
+        <v>3150</v>
       </c>
       <c r="M153" s="4">
         <v>0</v>
@@ -8357,40 +8359,40 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C154" s="4">
-        <v>475</v>
+        <v>635</v>
       </c>
       <c r="D154" s="4">
-        <v>725</v>
+        <v>850</v>
       </c>
       <c r="E154" s="4">
-        <v>1050</v>
+        <v>1260</v>
       </c>
       <c r="F154" s="4">
-        <v>1270</v>
+        <v>1490</v>
       </c>
       <c r="G154" s="4">
-        <v>1540</v>
+        <v>1675</v>
       </c>
       <c r="H154" s="4">
-        <v>1670</v>
+        <v>1980</v>
       </c>
       <c r="I154" s="4">
-        <v>1905</v>
+        <v>2275</v>
       </c>
       <c r="J154" s="4">
-        <v>2050</v>
+        <v>2560</v>
       </c>
       <c r="K154" s="4">
-        <v>2270</v>
+        <v>2870</v>
       </c>
       <c r="L154" s="4">
-        <v>2395</v>
+        <v>3150</v>
       </c>
       <c r="M154" s="4">
         <v>0</v>
@@ -8407,40 +8409,40 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C155" s="4">
-        <v>475</v>
+        <v>635</v>
       </c>
       <c r="D155" s="4">
-        <v>765</v>
+        <v>850</v>
       </c>
       <c r="E155" s="4">
-        <v>1065</v>
+        <v>1260</v>
       </c>
       <c r="F155" s="4">
-        <v>1275</v>
+        <v>1490</v>
       </c>
       <c r="G155" s="4">
-        <v>1540</v>
+        <v>1675</v>
       </c>
       <c r="H155" s="4">
-        <v>1670</v>
+        <v>1980</v>
       </c>
       <c r="I155" s="4">
-        <v>1905</v>
+        <v>2275</v>
       </c>
       <c r="J155" s="4">
-        <v>2050</v>
+        <v>2560</v>
       </c>
       <c r="K155" s="4">
-        <v>2270</v>
+        <v>2870</v>
       </c>
       <c r="L155" s="4">
-        <v>2395</v>
+        <v>3150</v>
       </c>
       <c r="M155" s="4">
         <v>0</v>
@@ -8457,40 +8459,40 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C156" s="4">
-        <v>535</v>
+        <v>675</v>
       </c>
       <c r="D156" s="4">
-        <v>775</v>
+        <v>880</v>
       </c>
       <c r="E156" s="4">
-        <v>1145</v>
+        <v>1265</v>
       </c>
       <c r="F156" s="4">
-        <v>1515</v>
+        <v>1590</v>
       </c>
       <c r="G156" s="4">
-        <v>1735</v>
+        <v>1900</v>
       </c>
       <c r="H156" s="4">
-        <v>2050</v>
+        <v>2230</v>
       </c>
       <c r="I156" s="4">
-        <v>2370</v>
+        <v>2570</v>
       </c>
       <c r="J156" s="4">
-        <v>2680</v>
+        <v>2885</v>
       </c>
       <c r="K156" s="4">
-        <v>3000</v>
+        <v>3190</v>
       </c>
       <c r="L156" s="4">
-        <v>3285</v>
+        <v>3480</v>
       </c>
       <c r="M156" s="4">
         <v>0</v>
@@ -8507,40 +8509,40 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C157" s="4">
-        <v>520</v>
+        <v>675</v>
       </c>
       <c r="D157" s="4">
-        <v>755</v>
+        <v>880</v>
       </c>
       <c r="E157" s="4">
-        <v>1125</v>
+        <v>1265</v>
       </c>
       <c r="F157" s="4">
-        <v>1505</v>
+        <v>1590</v>
       </c>
       <c r="G157" s="4">
-        <v>1735</v>
+        <v>1900</v>
       </c>
       <c r="H157" s="4">
-        <v>2050</v>
+        <v>2230</v>
       </c>
       <c r="I157" s="4">
-        <v>2335</v>
+        <v>2570</v>
       </c>
       <c r="J157" s="4">
-        <v>2690</v>
+        <v>2885</v>
       </c>
       <c r="K157" s="4">
-        <v>3010</v>
+        <v>3190</v>
       </c>
       <c r="L157" s="4">
-        <v>3295</v>
+        <v>3480</v>
       </c>
       <c r="M157" s="4">
         <v>0</v>
@@ -8557,40 +8559,40 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C158" s="4">
-        <v>535</v>
+        <v>675</v>
       </c>
       <c r="D158" s="4">
-        <v>775</v>
+        <v>880</v>
       </c>
       <c r="E158" s="4">
-        <v>1145</v>
+        <v>1265</v>
       </c>
       <c r="F158" s="4">
-        <v>1515</v>
+        <v>1590</v>
       </c>
       <c r="G158" s="4">
-        <v>1735</v>
+        <v>1900</v>
       </c>
       <c r="H158" s="4">
-        <v>2050</v>
+        <v>2230</v>
       </c>
       <c r="I158" s="4">
-        <v>2370</v>
+        <v>2570</v>
       </c>
       <c r="J158" s="4">
-        <v>2680</v>
+        <v>2885</v>
       </c>
       <c r="K158" s="4">
-        <v>3000</v>
+        <v>3190</v>
       </c>
       <c r="L158" s="4">
-        <v>3285</v>
+        <v>3480</v>
       </c>
       <c r="M158" s="4">
         <v>0</v>
@@ -8607,40 +8609,40 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C159" s="4">
-        <v>785</v>
+        <v>675</v>
       </c>
       <c r="D159" s="4">
-        <v>1085</v>
+        <v>870</v>
       </c>
       <c r="E159" s="4">
-        <v>1350</v>
+        <v>1230</v>
       </c>
       <c r="F159" s="4">
-        <v>1680</v>
+        <v>1420</v>
       </c>
       <c r="G159" s="4">
-        <v>1775</v>
+        <v>1750</v>
       </c>
       <c r="H159" s="4">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="I159" s="4">
-        <v>2415</v>
+        <v>2295</v>
       </c>
       <c r="J159" s="4">
-        <v>2680</v>
+        <v>2590</v>
       </c>
       <c r="K159" s="4">
-        <v>2970</v>
+        <v>2850</v>
       </c>
       <c r="L159" s="4">
-        <v>3250</v>
+        <v>3100</v>
       </c>
       <c r="M159" s="4">
         <v>0</v>
@@ -8657,40 +8659,40 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C160" s="4">
-        <v>485</v>
+        <v>675</v>
       </c>
       <c r="D160" s="4">
-        <v>695</v>
+        <v>880</v>
       </c>
       <c r="E160" s="4">
-        <v>1035</v>
+        <v>1265</v>
       </c>
       <c r="F160" s="4">
-        <v>1425</v>
+        <v>1590</v>
       </c>
       <c r="G160" s="4">
-        <v>1635</v>
+        <v>1900</v>
       </c>
       <c r="H160" s="4">
-        <v>1920</v>
+        <v>2230</v>
       </c>
       <c r="I160" s="4">
-        <v>2210</v>
+        <v>2570</v>
       </c>
       <c r="J160" s="4">
-        <v>2490</v>
+        <v>2885</v>
       </c>
       <c r="K160" s="4">
-        <v>2780</v>
+        <v>3190</v>
       </c>
       <c r="L160" s="4">
-        <v>3015</v>
+        <v>3480</v>
       </c>
       <c r="M160" s="4">
         <v>0</v>
@@ -8707,40 +8709,40 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C161" s="4">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="D161" s="4">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="E161" s="4">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="F161" s="4">
-        <v>1640</v>
+        <v>1575</v>
       </c>
       <c r="G161" s="4">
-        <v>1855</v>
+        <v>1905</v>
       </c>
       <c r="H161" s="4">
-        <v>2205</v>
+        <v>2235</v>
       </c>
       <c r="I161" s="4">
-        <v>2555</v>
+        <v>2575</v>
       </c>
       <c r="J161" s="4">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="K161" s="4">
-        <v>3230</v>
+        <v>3200</v>
       </c>
       <c r="L161" s="4">
-        <v>3535</v>
+        <v>3490</v>
       </c>
       <c r="M161" s="4">
         <v>0</v>
@@ -8757,40 +8759,40 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C162" s="4">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="D162" s="4">
-        <v>920</v>
+        <v>725</v>
       </c>
       <c r="E162" s="4">
-        <v>1260</v>
+        <v>1050</v>
       </c>
       <c r="F162" s="4">
-        <v>1640</v>
+        <v>1270</v>
       </c>
       <c r="G162" s="4">
-        <v>1855</v>
+        <v>1540</v>
       </c>
       <c r="H162" s="4">
-        <v>2205</v>
+        <v>1670</v>
       </c>
       <c r="I162" s="4">
-        <v>2555</v>
+        <v>1905</v>
       </c>
       <c r="J162" s="4">
-        <v>2900</v>
+        <v>2050</v>
       </c>
       <c r="K162" s="4">
-        <v>3230</v>
+        <v>2270</v>
       </c>
       <c r="L162" s="4">
-        <v>3535</v>
+        <v>2395</v>
       </c>
       <c r="M162" s="4">
         <v>0</v>
@@ -8807,40 +8809,40 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C163" s="4">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="D163" s="4">
-        <v>920</v>
+        <v>765</v>
       </c>
       <c r="E163" s="4">
-        <v>1260</v>
+        <v>1065</v>
       </c>
       <c r="F163" s="4">
-        <v>1640</v>
+        <v>1275</v>
       </c>
       <c r="G163" s="4">
-        <v>1855</v>
+        <v>1540</v>
       </c>
       <c r="H163" s="4">
-        <v>2205</v>
+        <v>1670</v>
       </c>
       <c r="I163" s="4">
-        <v>2555</v>
+        <v>1905</v>
       </c>
       <c r="J163" s="4">
-        <v>2900</v>
+        <v>2050</v>
       </c>
       <c r="K163" s="4">
-        <v>3230</v>
+        <v>2270</v>
       </c>
       <c r="L163" s="4">
-        <v>3535</v>
+        <v>2395</v>
       </c>
       <c r="M163" s="4">
         <v>0</v>
@@ -8857,402 +8859,402 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C164" s="6">
-        <v>225</v>
-      </c>
-      <c r="D164" s="6">
-        <v>250</v>
-      </c>
-      <c r="E164" s="6">
-        <v>275</v>
-      </c>
-      <c r="F164" s="6">
-        <v>300</v>
-      </c>
-      <c r="G164" s="6">
-        <v>325</v>
-      </c>
-      <c r="H164" s="6">
-        <v>325</v>
-      </c>
-      <c r="I164" s="6">
-        <v>335</v>
-      </c>
-      <c r="J164" s="6">
-        <v>335</v>
-      </c>
-      <c r="K164" s="6">
-        <v>395</v>
-      </c>
-      <c r="L164" s="6">
-        <v>395</v>
-      </c>
-      <c r="M164" s="6">
-        <v>395</v>
-      </c>
-      <c r="N164" s="6">
-        <v>395</v>
-      </c>
-      <c r="O164" s="6">
-        <v>395</v>
-      </c>
-      <c r="P164" s="6">
-        <v>395</v>
+        <v>79</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" s="4">
+        <v>535</v>
+      </c>
+      <c r="D164" s="4">
+        <v>775</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1145</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1515</v>
+      </c>
+      <c r="G164" s="4">
+        <v>1735</v>
+      </c>
+      <c r="H164" s="4">
+        <v>2050</v>
+      </c>
+      <c r="I164" s="4">
+        <v>2370</v>
+      </c>
+      <c r="J164" s="4">
+        <v>2680</v>
+      </c>
+      <c r="K164" s="4">
+        <v>3000</v>
+      </c>
+      <c r="L164" s="4">
+        <v>3285</v>
+      </c>
+      <c r="M164" s="4">
+        <v>0</v>
+      </c>
+      <c r="N164" s="4">
+        <v>0</v>
+      </c>
+      <c r="O164" s="4">
+        <v>0</v>
+      </c>
+      <c r="P164" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C165" s="6">
-        <v>300</v>
-      </c>
-      <c r="D165" s="6">
-        <v>500</v>
-      </c>
-      <c r="E165" s="6">
-        <v>550</v>
-      </c>
-      <c r="F165" s="6">
-        <v>600</v>
-      </c>
-      <c r="G165" s="6">
-        <v>700</v>
-      </c>
-      <c r="H165" s="6">
-        <v>780</v>
-      </c>
-      <c r="I165" s="6">
-        <v>895</v>
-      </c>
-      <c r="J165" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K165" s="6">
-        <v>1110</v>
-      </c>
-      <c r="L165" s="6">
-        <v>1200</v>
-      </c>
-      <c r="M165" s="6">
-        <v>1265</v>
-      </c>
-      <c r="N165" s="6">
-        <v>1350</v>
-      </c>
-      <c r="O165" s="6">
-        <v>1365</v>
-      </c>
-      <c r="P165" s="6">
-        <v>1435</v>
+        <v>79</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C165" s="4">
+        <v>520</v>
+      </c>
+      <c r="D165" s="4">
+        <v>755</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1125</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1505</v>
+      </c>
+      <c r="G165" s="4">
+        <v>1735</v>
+      </c>
+      <c r="H165" s="4">
+        <v>2050</v>
+      </c>
+      <c r="I165" s="4">
+        <v>2335</v>
+      </c>
+      <c r="J165" s="4">
+        <v>2690</v>
+      </c>
+      <c r="K165" s="4">
+        <v>3010</v>
+      </c>
+      <c r="L165" s="4">
+        <v>3295</v>
+      </c>
+      <c r="M165" s="4">
+        <v>0</v>
+      </c>
+      <c r="N165" s="4">
+        <v>0</v>
+      </c>
+      <c r="O165" s="4">
+        <v>0</v>
+      </c>
+      <c r="P165" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C166" s="6">
-        <v>365</v>
-      </c>
-      <c r="D166" s="6">
-        <v>650</v>
-      </c>
-      <c r="E166" s="6">
-        <v>855</v>
-      </c>
-      <c r="F166" s="6">
-        <v>985</v>
-      </c>
-      <c r="G166" s="6">
-        <v>1200</v>
-      </c>
-      <c r="H166" s="6">
-        <v>1425</v>
-      </c>
-      <c r="I166" s="6">
-        <v>1645</v>
-      </c>
-      <c r="J166" s="6">
-        <v>1860</v>
-      </c>
-      <c r="K166" s="6">
-        <v>2070</v>
-      </c>
-      <c r="L166" s="6">
-        <v>2250</v>
-      </c>
-      <c r="M166" s="6">
-        <v>2464</v>
-      </c>
-      <c r="N166" s="6">
-        <v>2670</v>
-      </c>
-      <c r="O166" s="6">
-        <v>2860</v>
-      </c>
-      <c r="P166" s="6">
-        <v>2940</v>
+        <v>79</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C166" s="4">
+        <v>535</v>
+      </c>
+      <c r="D166" s="4">
+        <v>775</v>
+      </c>
+      <c r="E166" s="4">
+        <v>1145</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1515</v>
+      </c>
+      <c r="G166" s="4">
+        <v>1735</v>
+      </c>
+      <c r="H166" s="4">
+        <v>2050</v>
+      </c>
+      <c r="I166" s="4">
+        <v>2370</v>
+      </c>
+      <c r="J166" s="4">
+        <v>2680</v>
+      </c>
+      <c r="K166" s="4">
+        <v>3000</v>
+      </c>
+      <c r="L166" s="4">
+        <v>3285</v>
+      </c>
+      <c r="M166" s="4">
+        <v>0</v>
+      </c>
+      <c r="N166" s="4">
+        <v>0</v>
+      </c>
+      <c r="O166" s="4">
+        <v>0</v>
+      </c>
+      <c r="P166" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C167" s="6">
-        <v>350</v>
-      </c>
-      <c r="D167" s="6">
-        <v>585</v>
-      </c>
-      <c r="E167" s="6">
-        <v>870</v>
-      </c>
-      <c r="F167" s="6">
-        <v>1150</v>
-      </c>
-      <c r="G167" s="6">
-        <v>1400</v>
-      </c>
-      <c r="H167" s="6">
-        <v>1650</v>
-      </c>
-      <c r="I167" s="6">
-        <v>1890</v>
-      </c>
-      <c r="J167" s="6">
-        <v>2080</v>
-      </c>
-      <c r="K167" s="6">
-        <v>2295</v>
-      </c>
-      <c r="L167" s="6">
-        <v>2400</v>
-      </c>
-      <c r="M167" s="6">
-        <v>2612.5</v>
-      </c>
-      <c r="N167" s="6">
-        <v>2820</v>
-      </c>
-      <c r="O167" s="6">
-        <v>2990</v>
-      </c>
-      <c r="P167" s="6">
-        <v>3010</v>
+        <v>79</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" s="4">
+        <v>785</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1085</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1350</v>
+      </c>
+      <c r="F167" s="4">
+        <v>1680</v>
+      </c>
+      <c r="G167" s="4">
+        <v>1775</v>
+      </c>
+      <c r="H167" s="4">
+        <v>2100</v>
+      </c>
+      <c r="I167" s="4">
+        <v>2415</v>
+      </c>
+      <c r="J167" s="4">
+        <v>2680</v>
+      </c>
+      <c r="K167" s="4">
+        <v>2970</v>
+      </c>
+      <c r="L167" s="4">
+        <v>3250</v>
+      </c>
+      <c r="M167" s="4">
+        <v>0</v>
+      </c>
+      <c r="N167" s="4">
+        <v>0</v>
+      </c>
+      <c r="O167" s="4">
+        <v>0</v>
+      </c>
+      <c r="P167" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C168" s="6">
-        <v>375</v>
-      </c>
-      <c r="D168" s="6">
-        <v>700</v>
-      </c>
-      <c r="E168" s="6">
-        <v>990</v>
-      </c>
-      <c r="F168" s="6">
-        <v>1300</v>
-      </c>
-      <c r="G168" s="6">
-        <v>1575</v>
-      </c>
-      <c r="H168" s="6">
-        <v>1860</v>
-      </c>
-      <c r="I168" s="6">
-        <v>2135</v>
-      </c>
-      <c r="J168" s="6">
-        <v>2400</v>
-      </c>
-      <c r="K168" s="6">
-        <v>2655</v>
-      </c>
-      <c r="L168" s="6">
-        <v>2700</v>
-      </c>
-      <c r="M168" s="6">
-        <v>2942.5</v>
-      </c>
-      <c r="N168" s="6">
-        <v>3180</v>
-      </c>
-      <c r="O168" s="6">
-        <v>3380</v>
-      </c>
-      <c r="P168" s="6">
-        <v>3500</v>
+        <v>79</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C168" s="4">
+        <v>485</v>
+      </c>
+      <c r="D168" s="4">
+        <v>695</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1035</v>
+      </c>
+      <c r="F168" s="4">
+        <v>1425</v>
+      </c>
+      <c r="G168" s="4">
+        <v>1635</v>
+      </c>
+      <c r="H168" s="4">
+        <v>1920</v>
+      </c>
+      <c r="I168" s="4">
+        <v>2210</v>
+      </c>
+      <c r="J168" s="4">
+        <v>2490</v>
+      </c>
+      <c r="K168" s="4">
+        <v>2780</v>
+      </c>
+      <c r="L168" s="4">
+        <v>3015</v>
+      </c>
+      <c r="M168" s="4">
+        <v>0</v>
+      </c>
+      <c r="N168" s="4">
+        <v>0</v>
+      </c>
+      <c r="O168" s="4">
+        <v>0</v>
+      </c>
+      <c r="P168" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C169" s="6">
-        <v>415</v>
-      </c>
-      <c r="D169" s="6">
-        <v>730</v>
-      </c>
-      <c r="E169" s="6">
-        <v>1080</v>
-      </c>
-      <c r="F169" s="6">
-        <v>1420</v>
-      </c>
-      <c r="G169" s="6">
-        <v>1750</v>
-      </c>
-      <c r="H169" s="6">
-        <v>2070</v>
-      </c>
-      <c r="I169" s="6">
-        <v>2380</v>
-      </c>
-      <c r="J169" s="6">
-        <v>2680</v>
-      </c>
-      <c r="K169" s="6">
-        <v>2970</v>
-      </c>
-      <c r="L169" s="6">
-        <v>3100</v>
-      </c>
-      <c r="M169" s="6">
-        <v>3355</v>
-      </c>
-      <c r="N169" s="6">
-        <v>3600</v>
-      </c>
-      <c r="O169" s="6">
-        <v>3835</v>
-      </c>
-      <c r="P169" s="6">
-        <v>4060</v>
+        <v>79</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C169" s="4">
+        <v>575</v>
+      </c>
+      <c r="D169" s="4">
+        <v>920</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1260</v>
+      </c>
+      <c r="F169" s="4">
+        <v>1640</v>
+      </c>
+      <c r="G169" s="4">
+        <v>1855</v>
+      </c>
+      <c r="H169" s="4">
+        <v>2205</v>
+      </c>
+      <c r="I169" s="4">
+        <v>2555</v>
+      </c>
+      <c r="J169" s="4">
+        <v>2900</v>
+      </c>
+      <c r="K169" s="4">
+        <v>3230</v>
+      </c>
+      <c r="L169" s="4">
+        <v>3535</v>
+      </c>
+      <c r="M169" s="4">
+        <v>0</v>
+      </c>
+      <c r="N169" s="4">
+        <v>0</v>
+      </c>
+      <c r="O169" s="4">
+        <v>0</v>
+      </c>
+      <c r="P169" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="6">
-        <v>485</v>
-      </c>
-      <c r="D170" s="6">
-        <v>860</v>
-      </c>
-      <c r="E170" s="6">
-        <v>1245</v>
-      </c>
-      <c r="F170" s="6">
+        <v>79</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C170" s="4">
+        <v>575</v>
+      </c>
+      <c r="D170" s="4">
+        <v>920</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1260</v>
+      </c>
+      <c r="F170" s="4">
         <v>1640</v>
       </c>
-      <c r="G170" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H170" s="6">
-        <v>2370</v>
-      </c>
-      <c r="I170" s="6">
-        <v>2730</v>
-      </c>
-      <c r="J170" s="6">
-        <v>3040</v>
-      </c>
-      <c r="K170" s="6">
-        <v>3375</v>
-      </c>
-      <c r="L170" s="6">
-        <v>3500</v>
-      </c>
-      <c r="M170" s="6">
-        <v>3822.5</v>
-      </c>
-      <c r="N170" s="6">
-        <v>4080</v>
-      </c>
-      <c r="O170" s="6">
-        <v>4355</v>
-      </c>
-      <c r="P170" s="6">
-        <v>4550</v>
+      <c r="G170" s="4">
+        <v>1855</v>
+      </c>
+      <c r="H170" s="4">
+        <v>2205</v>
+      </c>
+      <c r="I170" s="4">
+        <v>2555</v>
+      </c>
+      <c r="J170" s="4">
+        <v>2900</v>
+      </c>
+      <c r="K170" s="4">
+        <v>3230</v>
+      </c>
+      <c r="L170" s="4">
+        <v>3535</v>
+      </c>
+      <c r="M170" s="4">
+        <v>0</v>
+      </c>
+      <c r="N170" s="4">
+        <v>0</v>
+      </c>
+      <c r="O170" s="4">
+        <v>0</v>
+      </c>
+      <c r="P170" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" s="6">
-        <v>475</v>
-      </c>
-      <c r="D171" s="6">
-        <v>840</v>
-      </c>
-      <c r="E171" s="6">
-        <v>1245</v>
-      </c>
-      <c r="F171" s="6">
+        <v>79</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C171" s="4">
+        <v>575</v>
+      </c>
+      <c r="D171" s="4">
+        <v>920</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1260</v>
+      </c>
+      <c r="F171" s="4">
         <v>1640</v>
       </c>
-      <c r="G171" s="6">
-        <v>1987.5</v>
-      </c>
-      <c r="H171" s="6">
-        <v>2355</v>
-      </c>
-      <c r="I171" s="6">
-        <v>2712.5</v>
-      </c>
-      <c r="J171" s="6">
-        <v>3020</v>
-      </c>
-      <c r="K171" s="6">
-        <v>3352.5</v>
-      </c>
-      <c r="L171" s="6">
-        <v>3500</v>
-      </c>
-      <c r="M171" s="6">
-        <v>3795</v>
-      </c>
-      <c r="N171" s="6">
-        <v>4050</v>
-      </c>
-      <c r="O171" s="6">
-        <v>4322.5</v>
-      </c>
-      <c r="P171" s="6">
-        <v>4529</v>
+      <c r="G171" s="4">
+        <v>1855</v>
+      </c>
+      <c r="H171" s="4">
+        <v>2205</v>
+      </c>
+      <c r="I171" s="4">
+        <v>2555</v>
+      </c>
+      <c r="J171" s="4">
+        <v>2900</v>
+      </c>
+      <c r="K171" s="4">
+        <v>3230</v>
+      </c>
+      <c r="L171" s="4">
+        <v>3535</v>
+      </c>
+      <c r="M171" s="4">
+        <v>0</v>
+      </c>
+      <c r="N171" s="4">
+        <v>0</v>
+      </c>
+      <c r="O171" s="4">
+        <v>0</v>
+      </c>
+      <c r="P171" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/db/stir.xlsx
+++ b/db/stir.xlsx
@@ -993,7 +993,7 @@
   <dimension ref="A1:L356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db/stir.xlsx
+++ b/db/stir.xlsx
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A384" sqref="A384"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B201" sqref="B2:L201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db/stir.xlsx
+++ b/db/stir.xlsx
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B201" sqref="B2:L201"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="N340" sqref="N340:W340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7274,34 +7274,34 @@
         <v>153</v>
       </c>
       <c r="C165" s="5">
-        <v>655</v>
+        <v>755</v>
       </c>
       <c r="D165" s="5">
-        <v>835</v>
+        <v>960</v>
       </c>
       <c r="E165" s="5">
-        <v>1205</v>
+        <v>1385</v>
       </c>
       <c r="F165" s="5">
-        <v>1515</v>
+        <v>1740</v>
       </c>
       <c r="G165" s="5">
-        <v>1830</v>
+        <v>2105</v>
       </c>
       <c r="H165" s="5">
-        <v>2140</v>
+        <v>2460</v>
       </c>
       <c r="I165" s="5">
-        <v>2465</v>
+        <v>2835</v>
       </c>
       <c r="J165" s="5">
-        <v>2765</v>
+        <v>3180</v>
       </c>
       <c r="K165" s="5">
-        <v>3050</v>
+        <v>3510</v>
       </c>
       <c r="L165" s="5">
-        <v>3325</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -13924,34 +13924,34 @@
         <v>153</v>
       </c>
       <c r="C340" s="5">
-        <v>705</v>
+        <v>810</v>
       </c>
       <c r="D340" s="5">
-        <v>920</v>
+        <v>1060</v>
       </c>
       <c r="E340" s="5">
-        <v>1300</v>
+        <v>1495</v>
       </c>
       <c r="F340" s="5">
-        <v>1645</v>
+        <v>1890</v>
       </c>
       <c r="G340" s="5">
-        <v>1990</v>
+        <v>2290</v>
       </c>
       <c r="H340" s="5">
-        <v>2335</v>
+        <v>2685</v>
       </c>
       <c r="I340" s="5">
-        <v>2690</v>
+        <v>3095</v>
       </c>
       <c r="J340" s="5">
-        <v>3025</v>
+        <v>3480</v>
       </c>
       <c r="K340" s="5">
-        <v>3345</v>
+        <v>3845</v>
       </c>
       <c r="L340" s="5">
-        <v>3645</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
